--- a/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850D061-1EC5-4A36-9686-AE86652D77E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52636B4-48BE-4743-A37C-8B78CEC5FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23856" yWindow="4116" windowWidth="14400" windowHeight="7356" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -3962,107 +3962,107 @@
         <v>2019</v>
       </c>
       <c r="G4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19494949782577736</v>
       </c>
       <c r="H4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.8975026936826151</v>
       </c>
       <c r="I4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71879726596538862</v>
       </c>
       <c r="J4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33347553807893826</v>
       </c>
       <c r="K4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2629119756998361</v>
       </c>
       <c r="L4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13210430135999357</v>
       </c>
       <c r="M4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37881071863438415</v>
       </c>
       <c r="N4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.62353214363397302</v>
       </c>
       <c r="O4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25811291366671996</v>
       </c>
       <c r="P4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29256819683641966</v>
       </c>
       <c r="Q4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50919673828166878</v>
       </c>
       <c r="R4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45041133164401598</v>
       </c>
       <c r="S4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39641700387724033</v>
       </c>
       <c r="T4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.6763947608716003</v>
       </c>
       <c r="U4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51327284556254194</v>
       </c>
       <c r="V4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61203628664178844</v>
       </c>
       <c r="W4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55797519895916559</v>
       </c>
       <c r="X4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37051345400022451</v>
       </c>
       <c r="Y4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.82812242154746152</v>
       </c>
       <c r="Z4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10628326817910465</v>
       </c>
       <c r="AA4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44349982050028319</v>
       </c>
       <c r="AB4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23199920298175605</v>
       </c>
       <c r="AC4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20454179048719831</v>
       </c>
       <c r="AD4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22814579239883884</v>
       </c>
       <c r="AE4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44256348247820942</v>
       </c>
       <c r="AF4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2122596962048626</v>
       </c>
     </row>
@@ -4078,107 +4078,107 @@
         <v>2020</v>
       </c>
       <c r="G5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14102260336618419</v>
       </c>
       <c r="H5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8193762108637852</v>
       </c>
       <c r="I5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51996369762144268</v>
       </c>
       <c r="J5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2412295956815371</v>
       </c>
       <c r="K5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19018531303154435</v>
       </c>
       <c r="L5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.5561633661176384E-2</v>
       </c>
       <c r="M5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27402416687719383</v>
       </c>
       <c r="N5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45105079601868803</v>
       </c>
       <c r="O5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18671376666095213</v>
       </c>
       <c r="P5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21163803569729758</v>
       </c>
       <c r="Q5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36834282959899767</v>
       </c>
       <c r="R5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32581863140183054</v>
       </c>
       <c r="S5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28676020471389613</v>
       </c>
       <c r="T5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2126707484972317</v>
       </c>
       <c r="U5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37129140482878509</v>
       </c>
       <c r="V5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44273492088669852</v>
       </c>
       <c r="W5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40362820139863753</v>
       </c>
       <c r="X5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26802209006972721</v>
       </c>
       <c r="Y5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59904734864666986</v>
       </c>
       <c r="Z5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.6883209959732524E-2</v>
       </c>
       <c r="AA5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32081898120752922</v>
       </c>
       <c r="AB5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1678236258531208</v>
       </c>
       <c r="AC5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14796147778469043</v>
       </c>
       <c r="AD5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16503614500140071</v>
       </c>
       <c r="AE5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32014165283799628</v>
       </c>
       <c r="AF5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15354445783325901</v>
       </c>
     </row>
@@ -4194,107 +4194,107 @@
         <v>2030</v>
       </c>
       <c r="G6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18054091367045041</v>
       </c>
       <c r="H6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6094409331556592</v>
       </c>
       <c r="I6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6656714512657429</v>
       </c>
       <c r="J6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30882858895754395</v>
       </c>
       <c r="K6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24348033125056551</v>
       </c>
       <c r="L6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12234056272688766</v>
       </c>
       <c r="M6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35081307730031303</v>
       </c>
       <c r="N6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5774473090214185</v>
       </c>
       <c r="O6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23903596461262591</v>
       </c>
       <c r="P6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2709446813500801</v>
       </c>
       <c r="Q6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47156235534160001</v>
       </c>
       <c r="R6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41712173793444168</v>
       </c>
       <c r="S6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36711809403304924</v>
       </c>
       <c r="T6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5524935697479687</v>
       </c>
       <c r="U6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47533720031896581</v>
       </c>
       <c r="V6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56680110296322883</v>
       </c>
       <c r="W6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51673563332574557</v>
       </c>
       <c r="X6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34312905782489267</v>
       </c>
       <c r="Y6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.76691645931183072</v>
       </c>
       <c r="Z6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.8427944462239333E-2</v>
       </c>
       <c r="AA6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41072105185599805</v>
       </c>
       <c r="AB6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2148523004382123</v>
       </c>
       <c r="AC6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18942424653666262</v>
       </c>
       <c r="AD6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21128369279804798</v>
       </c>
       <c r="AE6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40985391793724002</v>
       </c>
       <c r="AF6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19657172711717047</v>
       </c>
     </row>
@@ -4310,107 +4310,107 @@
         <v>2050</v>
       </c>
       <c r="G7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25957753427898295</v>
       </c>
       <c r="H7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.1895703777394084</v>
       </c>
       <c r="I7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.95708695855434356</v>
       </c>
       <c r="J7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44402657550955765</v>
       </c>
       <c r="K7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35007036768860789</v>
       </c>
       <c r="L7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17589842085831023</v>
       </c>
       <c r="M7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50439089814655136</v>
       </c>
       <c r="N7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.83024033502687966</v>
       </c>
       <c r="O7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34368036051597356</v>
       </c>
       <c r="P7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38955797265564523</v>
       </c>
       <c r="Q7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.67800140682680488</v>
       </c>
       <c r="R7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59972795099966403</v>
       </c>
       <c r="S7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52783387267135551</v>
       </c>
       <c r="T7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2321392122494434</v>
       </c>
       <c r="U7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68342879129932732</v>
       </c>
       <c r="V7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81493346711628945</v>
       </c>
       <c r="W7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74295049717996164</v>
       </c>
       <c r="X7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49334299333522352</v>
       </c>
       <c r="Y7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1026546806421527</v>
       </c>
       <c r="Z7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14151741346725299</v>
       </c>
       <c r="AA7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59052519315293606</v>
       </c>
       <c r="AB7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30890964960839534</v>
       </c>
       <c r="AC7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27234978404060711</v>
       </c>
       <c r="AD7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30377878839134259</v>
       </c>
       <c r="AE7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58927844813572761</v>
       </c>
       <c r="AF7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28262626568499355</v>
       </c>
     </row>
@@ -4426,107 +4426,107 @@
         <v>2019</v>
       </c>
       <c r="G8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44504487721842145</v>
       </c>
       <c r="H8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.7937079104025209</v>
       </c>
       <c r="I8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5870469217794945</v>
       </c>
       <c r="J8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75371941599977788</v>
       </c>
       <c r="K8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56707222956060799</v>
       </c>
       <c r="L8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29215269212908374</v>
       </c>
       <c r="M8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.78692852808848446</v>
       </c>
       <c r="N8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3661978764195406</v>
       </c>
       <c r="O8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57898198131513856</v>
       </c>
       <c r="P8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65358230250256555</v>
       </c>
       <c r="Q8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1591453120223312</v>
       </c>
       <c r="R8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98363731275831134</v>
       </c>
       <c r="S8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89211010866799778</v>
       </c>
       <c r="T8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6052969056240896</v>
       </c>
       <c r="U8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1800127078014957</v>
       </c>
       <c r="V8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3289979498467648</v>
       </c>
       <c r="W8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2889705463689798</v>
       </c>
       <c r="X8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81318189166940957</v>
       </c>
       <c r="Y8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8206653161788104</v>
       </c>
       <c r="Z8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23862041442976697</v>
       </c>
       <c r="AA8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0083408487910557</v>
       </c>
       <c r="AB8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54292180091605458</v>
       </c>
       <c r="AC8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44291300994417443</v>
       </c>
       <c r="AD8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48125689749079964</v>
       </c>
       <c r="AE8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88631243709750096</v>
       </c>
       <c r="AF8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48743823497682215</v>
       </c>
     </row>
@@ -4542,107 +4542,107 @@
         <v>2020</v>
       </c>
       <c r="G9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32193664473309486</v>
       </c>
       <c r="H9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.637813854608976</v>
       </c>
       <c r="I9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1480382927336128</v>
       </c>
       <c r="J9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54522568908947855</v>
       </c>
       <c r="K9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41020881320348074</v>
       </c>
       <c r="L9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21133746790128183</v>
       </c>
       <c r="M9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56924850267004323</v>
       </c>
       <c r="N9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98828046988197249</v>
       </c>
       <c r="O9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41882409160736161</v>
       </c>
       <c r="P9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47278848560105868</v>
       </c>
       <c r="Q9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.83850274795415447</v>
       </c>
       <c r="R9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71154373932557857</v>
       </c>
       <c r="S9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64533477367968184</v>
       </c>
       <c r="T9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6080003354214218</v>
       </c>
       <c r="U9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.8535978085319772</v>
       </c>
       <c r="V9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.96137078018953437</v>
       </c>
       <c r="W9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.932415749736074</v>
       </c>
       <c r="X9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58823966562202801</v>
       </c>
       <c r="Y9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3170332096303565</v>
       </c>
       <c r="Z9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17261327906182664</v>
       </c>
       <c r="AA9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72941378774211518</v>
       </c>
       <c r="AB9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39273887171064176</v>
       </c>
       <c r="AC9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32039449419408184</v>
       </c>
       <c r="AD9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34813170258514758</v>
       </c>
       <c r="AE9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64114085295794276</v>
       </c>
       <c r="AF9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35260315962707711</v>
       </c>
     </row>
@@ -4658,107 +4658,107 @@
         <v>2030</v>
       </c>
       <c r="G10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3892571850620809</v>
       </c>
       <c r="H10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.8167435638416176</v>
       </c>
       <c r="I10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3881058943863189</v>
       </c>
       <c r="J10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65923845710219742</v>
       </c>
       <c r="K10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4959880477341298</v>
       </c>
       <c r="L10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25553048775048037</v>
       </c>
       <c r="M10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68828470873159586</v>
       </c>
       <c r="N10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.194940930309512</v>
       </c>
       <c r="O10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50640487686770397</v>
       </c>
       <c r="P10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57165382706715362</v>
       </c>
       <c r="Q10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0138430174857962</v>
       </c>
       <c r="R10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.86033546522189086</v>
       </c>
       <c r="S10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7802814669746253</v>
       </c>
       <c r="T10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.153362271165975</v>
       </c>
       <c r="U10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0320946234616748</v>
       </c>
       <c r="V10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1624041245996282</v>
       </c>
       <c r="W10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1273942745807057</v>
       </c>
       <c r="X10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71124713550930441</v>
       </c>
       <c r="Y10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5924395318185049</v>
       </c>
       <c r="Z10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20870863945186316</v>
       </c>
       <c r="AA10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88194233992020643</v>
       </c>
       <c r="AB10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47486494677636343</v>
       </c>
       <c r="AC10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38739255365842112</v>
       </c>
       <c r="AD10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.420929921449335</v>
       </c>
       <c r="AE10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.77521055068961786</v>
       </c>
       <c r="AF10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42633640999216782</v>
       </c>
     </row>
@@ -4774,107 +4774,107 @@
         <v>2050</v>
       </c>
       <c r="G11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52389826572005282</v>
       </c>
       <c r="H11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1746029823068991</v>
       </c>
       <c r="I11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8682410976917312</v>
       </c>
       <c r="J11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88726399312763493</v>
       </c>
       <c r="K11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.66754651679542798</v>
       </c>
       <c r="L11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3439165274488773</v>
       </c>
       <c r="M11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.92635712085470101</v>
       </c>
       <c r="N11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.6082618511645903</v>
       </c>
       <c r="O11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68156644738838867</v>
       </c>
       <c r="P11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.76938450999934316</v>
       </c>
       <c r="Q11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3645235565490794</v>
       </c>
       <c r="R11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1579189170145152</v>
       </c>
       <c r="S11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0501748535645117</v>
       </c>
       <c r="T11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.2440861426550791</v>
       </c>
       <c r="U11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3890882533210698</v>
       </c>
       <c r="V11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5644708134198158</v>
       </c>
       <c r="W11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5173513242699688</v>
       </c>
       <c r="X11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.95726207528385721</v>
       </c>
       <c r="Y11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.1432521761948022</v>
       </c>
       <c r="Z11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28089936023193618</v>
       </c>
       <c r="AA11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1869994442763889</v>
       </c>
       <c r="AB11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6391170969078066</v>
       </c>
       <c r="AC11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52138867258709964</v>
       </c>
       <c r="AD11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56652635917770966</v>
       </c>
       <c r="AE11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0433499461529676</v>
       </c>
       <c r="AF11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57380291072234901</v>
       </c>
     </row>
@@ -4890,107 +4890,107 @@
         <v>2019</v>
       </c>
       <c r="G12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37926872049762789</v>
       </c>
       <c r="H12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.7564300396473245</v>
       </c>
       <c r="I12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3651288565890147</v>
       </c>
       <c r="J12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6573642766274751</v>
       </c>
       <c r="K12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48841646133907779</v>
       </c>
       <c r="L12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.251491627138621</v>
       </c>
       <c r="M12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68336533267305366</v>
       </c>
       <c r="N12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.162072263976734</v>
       </c>
       <c r="O12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50087352131013296</v>
       </c>
       <c r="P12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5550828629753175</v>
       </c>
       <c r="Q12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98659875855138779</v>
       </c>
       <c r="R12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.84482869568365948</v>
       </c>
       <c r="S12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75747508723845136</v>
       </c>
       <c r="T12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.0886844490300494</v>
       </c>
       <c r="U12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0271865360143977</v>
       </c>
       <c r="V12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1378934179320885</v>
       </c>
       <c r="W12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1008328480688923</v>
       </c>
       <c r="X12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.69324706204747966</v>
       </c>
       <c r="Y12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5750464525866097</v>
       </c>
       <c r="Z12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20319350320920349</v>
       </c>
       <c r="AA12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.87339211119017246</v>
       </c>
       <c r="AB12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4577994904920954</v>
       </c>
       <c r="AC12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3815792132296843</v>
       </c>
       <c r="AD12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40809739213380453</v>
       </c>
       <c r="AE12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75174517940800556</v>
       </c>
       <c r="AF12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43424277040967463</v>
       </c>
     </row>
@@ -5006,107 +5006,107 @@
         <v>2020</v>
       </c>
       <c r="G13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27435547637321495</v>
       </c>
       <c r="H13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.8874675973215007</v>
       </c>
       <c r="I13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98750716185845822</v>
       </c>
       <c r="J13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47552429060912443</v>
       </c>
       <c r="K13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35331078909799174</v>
       </c>
       <c r="L13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18192405921838437</v>
       </c>
       <c r="M13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49433293928500699</v>
       </c>
       <c r="N13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.84062004677085211</v>
       </c>
       <c r="O13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36232197941731037</v>
       </c>
       <c r="P13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40153594290187117</v>
       </c>
       <c r="Q13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71368599033539704</v>
       </c>
       <c r="R13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61113233633908892</v>
       </c>
       <c r="S13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54794246709160832</v>
       </c>
       <c r="T13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2342931214267647</v>
       </c>
       <c r="U13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74304638421703217</v>
       </c>
       <c r="V13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.82312954869858934</v>
       </c>
       <c r="W13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.79632066689536773</v>
       </c>
       <c r="X13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5014811864865022</v>
       </c>
       <c r="Y13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1393573908292929</v>
       </c>
       <c r="Z13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14698615350023855</v>
       </c>
       <c r="AA13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63179454507028443</v>
       </c>
       <c r="AB13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33116307912916709</v>
       </c>
       <c r="AC13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27602684102814479</v>
       </c>
       <c r="AD13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2952095661319819</v>
       </c>
       <c r="AE13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54379756531765255</v>
       </c>
       <c r="AF13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31412261464919838</v>
       </c>
     </row>
@@ -5122,107 +5122,107 @@
         <v>2030</v>
       </c>
       <c r="G14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33164444677241184</v>
       </c>
       <c r="H14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.9080340179789657</v>
       </c>
       <c r="I14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1937114239805877</v>
       </c>
       <c r="J14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57481991017877587</v>
       </c>
       <c r="K14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42708664954707387</v>
       </c>
       <c r="L14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21991215474043635</v>
       </c>
       <c r="M14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59755604786084004</v>
       </c>
       <c r="N14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0161523802713346</v>
       </c>
       <c r="O14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43797949290386534</v>
       </c>
       <c r="P14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48538183893139442</v>
       </c>
       <c r="Q14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.86271285181866131</v>
       </c>
       <c r="R14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.73874466903003644</v>
       </c>
       <c r="S14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.66235993815011118</v>
       </c>
       <c r="T14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.7008424106504432</v>
       </c>
       <c r="U14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89820407552089609</v>
       </c>
       <c r="V14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.99500964008028858</v>
       </c>
       <c r="W14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.96260271716499135</v>
       </c>
       <c r="X14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.60619694149223746</v>
       </c>
       <c r="Y14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3772699439161975</v>
       </c>
       <c r="Z14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17767876262283552</v>
       </c>
       <c r="AA14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.76372141407022565</v>
       </c>
       <c r="AB14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40031421140592738</v>
       </c>
       <c r="AC14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33366481397508846</v>
       </c>
       <c r="AD14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35685314007941266</v>
       </c>
       <c r="AE14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65734952729948315</v>
       </c>
       <c r="AF14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37971547763938718</v>
       </c>
     </row>
@@ -5238,107 +5238,107 @@
         <v>2050</v>
       </c>
       <c r="G15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44622238757080546</v>
       </c>
       <c r="H15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.949166859293892</v>
       </c>
       <c r="I15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.6061199482248465</v>
       </c>
       <c r="J15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.77341114931807842</v>
       </c>
       <c r="K15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57463837044523791</v>
       </c>
       <c r="L15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29588834578454021</v>
       </c>
       <c r="M15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.80400226501250582</v>
       </c>
       <c r="N15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3672170472722989</v>
       </c>
       <c r="O15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58929451987697501</v>
       </c>
       <c r="P15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6530736309904408</v>
       </c>
       <c r="Q15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1607665747851894</v>
       </c>
       <c r="R15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.99396933441193125</v>
       </c>
       <c r="S15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89119488026711646</v>
       </c>
       <c r="T15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6339409890977992</v>
       </c>
       <c r="U15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2085194581286236</v>
       </c>
       <c r="V15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3387698228436864</v>
       </c>
       <c r="W15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2951668177042381</v>
       </c>
       <c r="X15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81562845150370777</v>
       </c>
       <c r="Y15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8530950500900067</v>
       </c>
       <c r="Z15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23906398086802944</v>
       </c>
       <c r="AA15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0275751520701077</v>
       </c>
       <c r="AB15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53861647595944773</v>
       </c>
       <c r="AC15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44894075986897575</v>
       </c>
       <c r="AD15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4801402879742741</v>
       </c>
       <c r="AE15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88445345126314423</v>
       </c>
       <c r="AF15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51090120361976454</v>
       </c>
     </row>
@@ -5354,107 +5354,107 @@
         <v>2019</v>
       </c>
       <c r="G16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2178146269505315</v>
       </c>
       <c r="H16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.2532352952549441</v>
       </c>
       <c r="I16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59035591066396753</v>
       </c>
       <c r="J16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37964907365901629</v>
       </c>
       <c r="K16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2704057614094616</v>
       </c>
       <c r="L16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13049216248614431</v>
       </c>
       <c r="M16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34195983528392676</v>
       </c>
       <c r="N16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5291116374087359</v>
       </c>
       <c r="O16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24890023926754198</v>
       </c>
       <c r="P16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28340932312027484</v>
       </c>
       <c r="Q16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57281742387914369</v>
       </c>
       <c r="R16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3778873214697962</v>
       </c>
       <c r="S16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37186096343983388</v>
       </c>
       <c r="T16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.9896591411313085</v>
       </c>
       <c r="U16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54135919368811836</v>
       </c>
       <c r="V16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.60997441370730043</v>
       </c>
       <c r="W16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49935221643128408</v>
       </c>
       <c r="X16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46383071132724779</v>
       </c>
       <c r="Y16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74064511268734978</v>
       </c>
       <c r="Z16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.8775540783756666E-2</v>
       </c>
       <c r="AA16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41714780682374364</v>
       </c>
       <c r="AB16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18524594530412608</v>
       </c>
       <c r="AC16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20201145503880613</v>
       </c>
       <c r="AD16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23481230791235341</v>
       </c>
       <c r="AE16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49070889678091939</v>
       </c>
       <c r="AF16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18922217409036649</v>
       </c>
     </row>
@@ -5470,107 +5470,107 @@
         <v>2020</v>
       </c>
       <c r="G17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17991488188042462</v>
       </c>
       <c r="H17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6871723541686299</v>
       </c>
       <c r="I17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48763398226070803</v>
       </c>
       <c r="J17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3135901348759621</v>
       </c>
       <c r="K17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22335515894815736</v>
       </c>
       <c r="L17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10778652622510916</v>
       </c>
       <c r="M17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2824588239748011</v>
       </c>
       <c r="N17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43704621254646414</v>
       </c>
       <c r="O17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20559159765702764</v>
       </c>
       <c r="P17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23409610092244049</v>
       </c>
       <c r="Q17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47314719217489071</v>
       </c>
       <c r="R17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31213492756751032</v>
       </c>
       <c r="S17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30715715583422787</v>
       </c>
       <c r="T17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.643458450750628</v>
       </c>
       <c r="U17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44716269403431846</v>
       </c>
       <c r="V17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50383886577623815</v>
       </c>
       <c r="W17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41246493081645397</v>
       </c>
       <c r="X17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38312416759737483</v>
       </c>
       <c r="Y17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61177286314532875</v>
       </c>
       <c r="Z17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.1588596696128737E-2</v>
       </c>
       <c r="AA17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34456408847334713</v>
       </c>
       <c r="AB17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15301315083761008</v>
       </c>
       <c r="AC17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16686146187994025</v>
       </c>
       <c r="AD17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1939549663563945</v>
       </c>
       <c r="AE17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40532554878448751</v>
       </c>
       <c r="AF17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15629751581539669</v>
       </c>
     </row>
@@ -5586,107 +5586,107 @@
         <v>2030</v>
       </c>
       <c r="G18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20817782293225748</v>
       </c>
       <c r="H18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.1093019359364078</v>
       </c>
       <c r="I18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56423670879149446</v>
       </c>
       <c r="J18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36285220482705244</v>
       </c>
       <c r="K18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25844216022896338</v>
       </c>
       <c r="L18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12471877888282305</v>
       </c>
       <c r="M18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32683045687215972</v>
       </c>
       <c r="N18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50570207476878482</v>
       </c>
       <c r="O18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23788811001110061</v>
       </c>
       <c r="P18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27087040347975844</v>
       </c>
       <c r="Q18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5474741798121161</v>
       </c>
       <c r="R18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36116839809454465</v>
       </c>
       <c r="S18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35540866509381824</v>
       </c>
       <c r="T18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.9016303642089742</v>
       </c>
       <c r="U18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51740776064570804</v>
       </c>
       <c r="V18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58298722756945731</v>
       </c>
       <c r="W18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47725930415440593</v>
       </c>
       <c r="X18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44330938213417909</v>
       </c>
       <c r="Y18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.70787664393028393</v>
       </c>
       <c r="Z18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.440540025803211E-2</v>
       </c>
       <c r="AA18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39869187612113649</v>
       </c>
       <c r="AB18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17705008217468987</v>
       </c>
       <c r="AC18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19307383303926301</v>
       </c>
       <c r="AD18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22442347303881718</v>
       </c>
       <c r="AE18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46899839214444627</v>
       </c>
       <c r="AF18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18085039009610454</v>
       </c>
     </row>
@@ -5702,107 +5702,107 @@
         <v>2050</v>
       </c>
       <c r="G19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26470370503592316</v>
       </c>
       <c r="H19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.9535610994719645</v>
       </c>
       <c r="I19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7174421618530672</v>
       </c>
       <c r="J19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46137634472923306</v>
       </c>
       <c r="K19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32861616279057554</v>
       </c>
       <c r="L19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15858328419825077</v>
       </c>
       <c r="M19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41557372266687692</v>
       </c>
       <c r="N19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64301379921342605</v>
       </c>
       <c r="O19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30248113471924648</v>
       </c>
       <c r="P19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34441900859439423</v>
       </c>
       <c r="Q19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.69612815508656667</v>
       </c>
       <c r="R19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45923533914861325</v>
       </c>
       <c r="S19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45191168361299899</v>
       </c>
       <c r="T19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.4179741911256665</v>
       </c>
       <c r="U19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65789789386848718</v>
       </c>
       <c r="V19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74128395115589563</v>
       </c>
       <c r="W19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.60684805083030968</v>
       </c>
       <c r="X19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56367981120778743</v>
       </c>
       <c r="Y19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.90008420550019419</v>
       </c>
       <c r="Z19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12003900738183884</v>
       </c>
       <c r="AA19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50694745141671516</v>
       </c>
       <c r="AB19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22512394484884937</v>
       </c>
       <c r="AC19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24549857535790856</v>
       </c>
       <c r="AD19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28536048640366246</v>
       </c>
       <c r="AE19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59634407886436391</v>
       </c>
       <c r="AF19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22995613865752026</v>
       </c>
     </row>
@@ -5818,107 +5818,107 @@
         <v>2019</v>
       </c>
       <c r="G20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13064779508364899</v>
       </c>
       <c r="H20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.0919251481787136</v>
       </c>
       <c r="I20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51060312297639665</v>
       </c>
       <c r="J20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22771801450398094</v>
       </c>
       <c r="K20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1943630348521006</v>
       </c>
       <c r="L20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.3795533767547012E-2</v>
       </c>
       <c r="M20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29576354987636128</v>
       </c>
       <c r="N20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4475877985016371</v>
       </c>
       <c r="O20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1789052334805798</v>
       </c>
       <c r="P20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20370977252820086</v>
       </c>
       <c r="Q20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3435826806631439</v>
       </c>
       <c r="R20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32683749411207558</v>
       </c>
       <c r="S20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27266175557601846</v>
       </c>
       <c r="T20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2457757890372787</v>
       </c>
       <c r="U20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33895865011628784</v>
       </c>
       <c r="V20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44725505188660325</v>
       </c>
       <c r="W20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3661429011624644</v>
       </c>
       <c r="X20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26660117757391238</v>
       </c>
       <c r="Y20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5921925929827917</v>
       </c>
       <c r="Z20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.3534707118324452E-2</v>
       </c>
       <c r="AA20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29948801716050255</v>
       </c>
       <c r="AB20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14811584497082575</v>
       </c>
       <c r="AC20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15038999597426655</v>
       </c>
       <c r="AD20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17480900790929571</v>
       </c>
       <c r="AE20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36531447683124091</v>
       </c>
       <c r="AF20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14086885317580392</v>
       </c>
     </row>
@@ -5933,107 +5933,107 @@
         <v>2020</v>
       </c>
       <c r="G21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11877072280331726</v>
       </c>
       <c r="H21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8108410437988307</v>
       </c>
       <c r="I21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46418465725126973</v>
       </c>
       <c r="J21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20701637682180085</v>
       </c>
       <c r="K21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17669366804736417</v>
       </c>
       <c r="L21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5268667061406372E-2</v>
       </c>
       <c r="M21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26887595443305573</v>
       </c>
       <c r="N21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40689799863785192</v>
       </c>
       <c r="O21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16264112134598166</v>
       </c>
       <c r="P21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18519070229836443</v>
       </c>
       <c r="Q21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31234789151194903</v>
       </c>
       <c r="R21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29712499464734149</v>
       </c>
       <c r="S21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2478743232509259</v>
       </c>
       <c r="T21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1325234445793442</v>
       </c>
       <c r="U21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30814422737844349</v>
       </c>
       <c r="V21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4065955017150939</v>
       </c>
       <c r="W21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33285718287496763</v>
       </c>
       <c r="X21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2423647068853749</v>
       </c>
       <c r="Y21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53835690271162884</v>
       </c>
       <c r="Z21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.6849733743931328E-2</v>
       </c>
       <c r="AA21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27226183378227509</v>
       </c>
       <c r="AB21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13465076815529611</v>
       </c>
       <c r="AC21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13671817815842413</v>
       </c>
       <c r="AD21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15891727991754154</v>
       </c>
       <c r="AE21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33210406984658275</v>
       </c>
       <c r="AF21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12806259379618537</v>
       </c>
     </row>
@@ -6048,107 +6048,107 @@
         <v>2030</v>
       </c>
       <c r="G22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.9180481868878175E-2</v>
       </c>
       <c r="H22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8738940291992201</v>
       </c>
       <c r="I22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30945643816751311</v>
       </c>
       <c r="J22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13801091788120054</v>
       </c>
       <c r="K22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11779577869824279</v>
       </c>
       <c r="L22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.6845778040937579E-2</v>
       </c>
       <c r="M22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17925063628870383</v>
       </c>
       <c r="N22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2712653324252346</v>
       </c>
       <c r="O22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10842741423065444</v>
       </c>
       <c r="P22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1234604681989096</v>
       </c>
       <c r="Q22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20823192767463269</v>
       </c>
       <c r="R22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19808332976489432</v>
       </c>
       <c r="S22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1652495488339506</v>
       </c>
       <c r="T22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75501562971956282</v>
       </c>
       <c r="U22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20542948491896232</v>
       </c>
       <c r="V22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27106366781006258</v>
       </c>
       <c r="W22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22190478858331172</v>
       </c>
       <c r="X22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16157647125691657</v>
       </c>
       <c r="Y22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35890460180775258</v>
       </c>
       <c r="Z22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.4566489162620883E-2</v>
       </c>
       <c r="AA22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18150788918818334</v>
       </c>
       <c r="AB22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.9767178770197409E-2</v>
       </c>
       <c r="AC22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1145452105616087E-2</v>
       </c>
       <c r="AD22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10594485327836103</v>
       </c>
       <c r="AE22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22140271323105512</v>
       </c>
       <c r="AF22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5375062530790247E-2</v>
       </c>
     </row>
@@ -6163,107 +6163,107 @@
         <v>2050</v>
       </c>
       <c r="G23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="I23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="T23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="V23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AB23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6279,107 +6279,107 @@
         <v>2019</v>
       </c>
       <c r="G24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.1369795698699275E-2</v>
       </c>
       <c r="H24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2157232586735747</v>
       </c>
       <c r="I24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20076556281429395</v>
       </c>
       <c r="J24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.9537124407597243E-2</v>
       </c>
       <c r="K24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.6422180606561071E-2</v>
       </c>
       <c r="L24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6879745303044567E-2</v>
       </c>
       <c r="M24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11629215114226027</v>
       </c>
       <c r="N24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17598837968553932</v>
       </c>
       <c r="O24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.0344281642420695E-2</v>
       </c>
       <c r="P24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.0097252233779601E-2</v>
       </c>
       <c r="Q24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13509429761119718</v>
       </c>
       <c r="R24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12851020783368303</v>
       </c>
       <c r="S24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10720868782990856</v>
       </c>
       <c r="T24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48983029318066279</v>
       </c>
       <c r="U24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13327616126726244</v>
       </c>
       <c r="V24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17585754605284931</v>
       </c>
       <c r="W24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14396481790758336</v>
       </c>
       <c r="X24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10482571111311897</v>
       </c>
       <c r="Y24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23284596954990056</v>
       </c>
       <c r="Z24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.891333052359172E-2</v>
       </c>
       <c r="AA24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11775658552747396</v>
       </c>
       <c r="AB24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.8238110264470733E-2</v>
       </c>
       <c r="AC24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.9132290471338791E-2</v>
       </c>
       <c r="AD24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.8733674508960146E-2</v>
       </c>
       <c r="AE24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14363908727723138</v>
       </c>
       <c r="AF24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
@@ -6394,107 +6394,107 @@
         <v>2020</v>
       </c>
       <c r="G25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.2718404005341231E-2</v>
       </c>
       <c r="H25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2476395718090483</v>
       </c>
       <c r="I25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20603624964526884</v>
       </c>
       <c r="J25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1887737410560347E-2</v>
       </c>
       <c r="K25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.8428487740469136E-2</v>
       </c>
       <c r="L25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.7847947145898793E-2</v>
       </c>
       <c r="M25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11934516233092819</v>
       </c>
       <c r="N25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18060859254580552</v>
       </c>
       <c r="O25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.2191026042654552E-2</v>
       </c>
       <c r="P25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13864092047508828</v>
       </c>
       <c r="R25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13188397896544515</v>
       </c>
       <c r="S25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11002323137607375</v>
       </c>
       <c r="T25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50268977983509444</v>
       </c>
       <c r="U25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1367750527017661</v>
       </c>
       <c r="V25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18047432414524395</v>
       </c>
       <c r="W25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14774431803316554</v>
       </c>
       <c r="X25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10757769450791341</v>
       </c>
       <c r="Y25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23895886146297948</v>
       </c>
       <c r="Z25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.967239053514998E-2</v>
       </c>
       <c r="AA25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12084804242824897</v>
       </c>
       <c r="AB25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.068468710900795E-2</v>
       </c>
       <c r="AD25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1474100360152161</v>
       </c>
       <c r="AF25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
@@ -6509,107 +6509,107 @@
         <v>2030</v>
       </c>
       <c r="G26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.2151233573399967E-2</v>
       </c>
       <c r="H26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.4708779581996561</v>
       </c>
       <c r="I26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24290202478423006</v>
       </c>
       <c r="J26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10832908048119906</v>
       </c>
       <c r="K26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2461586277774524E-2</v>
       </c>
       <c r="L26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.4620026871453208E-2</v>
       </c>
       <c r="M26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14069942366110599</v>
       </c>
       <c r="N26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21292463291453403</v>
       </c>
       <c r="O26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5108064368296127E-2</v>
       </c>
       <c r="P26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.6907978014310434E-2</v>
       </c>
       <c r="Q26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16344774455625344</v>
       </c>
       <c r="R26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15548179304594056</v>
       </c>
       <c r="S26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12970953276699687</v>
       </c>
       <c r="T26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59263535213104257</v>
       </c>
       <c r="U26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16124801969764282</v>
       </c>
       <c r="V26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2127663400587036</v>
       </c>
       <c r="W26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17418000018156132</v>
       </c>
       <c r="X26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12682641944114589</v>
       </c>
       <c r="Y26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28171543303387286</v>
       </c>
       <c r="Z26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.4981629463676549E-2</v>
       </c>
       <c r="AA26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14247121197153992</v>
       </c>
       <c r="AB26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.0461062667068239E-2</v>
       </c>
       <c r="AC26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.1542912461054778E-2</v>
       </c>
       <c r="AD26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.3159424729279119E-2</v>
       </c>
       <c r="AE26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17378590555428736</v>
       </c>
       <c r="AF26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.7013553434566345E-2</v>
       </c>
     </row>
@@ -6624,107 +6624,107 @@
         <v>2050</v>
       </c>
       <c r="G27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.1016892709517424E-2</v>
       </c>
       <c r="H27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.9173547309808718</v>
       </c>
       <c r="I27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31663357506215251</v>
       </c>
       <c r="J27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14121176662247656</v>
       </c>
       <c r="K27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12052778335238534</v>
       </c>
       <c r="L27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.8164186322562053E-2</v>
       </c>
       <c r="M27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1834079463214616</v>
       </c>
       <c r="N27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27755671365199108</v>
       </c>
       <c r="O27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11094214101957932</v>
       </c>
       <c r="P27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12632385241733773</v>
       </c>
       <c r="Q27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21306139271858376</v>
       </c>
       <c r="R27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20267742120693139</v>
       </c>
       <c r="S27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16908213554884313</v>
       </c>
       <c r="T27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7725264967229386</v>
       </c>
       <c r="U27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21019395368939628</v>
       </c>
       <c r="V27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27735037188562289</v>
       </c>
       <c r="W27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22705136447835297</v>
       </c>
       <c r="X27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16532386930761089</v>
       </c>
       <c r="Y27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36722857617565963</v>
       </c>
       <c r="Z27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.5600107320729701E-2</v>
       </c>
       <c r="AA27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18571755105812188</v>
       </c>
       <c r="AB27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.18491239205209E-2</v>
       </c>
       <c r="AC27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.3259363165148407E-2</v>
       </c>
       <c r="AD27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10840200272325237</v>
       </c>
       <c r="AE27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22653764463242995</v>
       </c>
       <c r="AF27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.7355142553685775E-2</v>
       </c>
     </row>
@@ -6740,107 +6740,107 @@
         <v>2019</v>
       </c>
       <c r="G28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1629624043332934</v>
       </c>
       <c r="H28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.8566862597502731</v>
       </c>
       <c r="I28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63689641701986843</v>
       </c>
       <c r="J28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28404210824846116</v>
       </c>
       <c r="K28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24243706105207907</v>
       </c>
       <c r="L28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11699505291074819</v>
       </c>
       <c r="M28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36891812197168955</v>
       </c>
       <c r="N28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55829479362718504</v>
       </c>
       <c r="O28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22315590536478461</v>
       </c>
       <c r="P28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25409563396097901</v>
       </c>
       <c r="Q28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42856490377273548</v>
       </c>
       <c r="R28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4076779392462821</v>
       </c>
       <c r="S28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34010229740161857</v>
       </c>
       <c r="T28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5539077235229115</v>
       </c>
       <c r="U28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42279715901176512</v>
       </c>
       <c r="V28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5578797449967432</v>
       </c>
       <c r="W28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45670520091670769</v>
       </c>
       <c r="X28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33254268751887739</v>
       </c>
       <c r="Y28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.738666341204264</v>
       </c>
       <c r="Z28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1722884923348305E-2</v>
       </c>
       <c r="AA28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37356380422829233</v>
       </c>
       <c r="AB28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18475102622932804</v>
       </c>
       <c r="AC28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18758766893807341</v>
       </c>
       <c r="AD28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21804651360382518</v>
       </c>
       <c r="AE28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45567187294712425</v>
       </c>
       <c r="AF28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17571155329873456</v>
       </c>
     </row>
@@ -6856,107 +6856,107 @@
         <v>2020</v>
       </c>
       <c r="G29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16235731275947515</v>
       </c>
       <c r="H29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.8423660957334085</v>
       </c>
       <c r="I29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63453157307374231</v>
       </c>
       <c r="J29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28298743869437681</v>
       </c>
       <c r="K29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24153687414440531</v>
       </c>
       <c r="L29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11656064154461539</v>
       </c>
       <c r="M29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3675483014419349</v>
       </c>
       <c r="N29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55622180337699523</v>
       </c>
       <c r="O29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22232731082767995</v>
       </c>
       <c r="P29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25315215790168288</v>
       </c>
       <c r="Q29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42697361028901426</v>
       </c>
       <c r="R29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40616420062123709</v>
       </c>
       <c r="S29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3388394721798389</v>
       </c>
       <c r="T29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5481379481330504</v>
       </c>
       <c r="U29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4212272815949526</v>
       </c>
       <c r="V29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55580829585310521</v>
       </c>
       <c r="W29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45500942040877851</v>
       </c>
       <c r="X29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33130793169298151</v>
       </c>
       <c r="Y29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.73592361793165129</v>
       </c>
       <c r="Z29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1382311003734881E-2</v>
       </c>
       <c r="AA29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37217673393347922</v>
       </c>
       <c r="AB29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18406503187570397</v>
       </c>
       <c r="AC29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18689114191829229</v>
       </c>
       <c r="AD29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21723689061978846</v>
       </c>
       <c r="AE29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45397992926309294</v>
       </c>
       <c r="AF29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17505912318297531</v>
       </c>
     </row>
@@ -6972,107 +6972,107 @@
         <v>2030</v>
       </c>
       <c r="G30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10823820850631675</v>
       </c>
       <c r="H30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.5615773971556055</v>
       </c>
       <c r="I30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42302104871582824</v>
       </c>
       <c r="J30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18865829246291785</v>
       </c>
       <c r="K30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16102458276293685</v>
       </c>
       <c r="L30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.770709436307692E-2</v>
       </c>
       <c r="M30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24503220096128994</v>
       </c>
       <c r="N30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37081453558466354</v>
       </c>
       <c r="O30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14821820721845327</v>
       </c>
       <c r="P30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1687681052677886</v>
       </c>
       <c r="Q30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28464907352600949</v>
       </c>
       <c r="R30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27077613374749138</v>
       </c>
       <c r="S30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22589298145322589</v>
       </c>
       <c r="T30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0320919654220335</v>
       </c>
       <c r="U30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28081818772996836</v>
       </c>
       <c r="V30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37053886390207008</v>
       </c>
       <c r="W30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30333961360585232</v>
       </c>
       <c r="X30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22087195446198762</v>
       </c>
       <c r="Y30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49061574528776752</v>
       </c>
       <c r="Z30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.0921540669156587E-2</v>
       </c>
       <c r="AA30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24811782262231949</v>
       </c>
       <c r="AB30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12271002125046931</v>
       </c>
       <c r="AC30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12459409461219485</v>
       </c>
       <c r="AD30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14482459374652562</v>
       </c>
       <c r="AE30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30265328617539522</v>
       </c>
       <c r="AF30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11670608212198352</v>
       </c>
     </row>
@@ -7088,107 +7088,107 @@
         <v>2050</v>
       </c>
       <c r="G31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="I31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="T31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="V31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AB31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7204,107 +7204,107 @@
         <v>2019</v>
       </c>
       <c r="G32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13395677260860595</v>
       </c>
       <c r="I32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6779068407982807E-2</v>
       </c>
       <c r="T32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6352277307537207E-4</v>
       </c>
       <c r="U32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6529102661710439E-2</v>
       </c>
       <c r="V32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2704554615074527E-5</v>
       </c>
       <c r="AB32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7319,107 +7319,107 @@
         <v>2020</v>
       </c>
       <c r="G33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13395677260860595</v>
       </c>
       <c r="I33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6779068407982807E-2</v>
       </c>
       <c r="T33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6352277307537207E-4</v>
       </c>
       <c r="U33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6529102661710439E-2</v>
       </c>
       <c r="V33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2704554615074527E-5</v>
       </c>
       <c r="AB33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7434,107 +7434,107 @@
         <v>2030</v>
       </c>
       <c r="G34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13429585799734914</v>
       </c>
       <c r="I34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6897480476945606E-2</v>
       </c>
       <c r="T34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6469609038243213E-4</v>
       </c>
       <c r="U34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6646881991240993E-2</v>
       </c>
       <c r="V34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2939218076486528E-5</v>
       </c>
       <c r="AB34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7549,107 +7549,107 @@
         <v>2050</v>
       </c>
       <c r="G35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1349740287748355</v>
       </c>
       <c r="I35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7134304614871211E-2</v>
       </c>
       <c r="T35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6704272499655208E-4</v>
       </c>
       <c r="U35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6882440650302074E-2</v>
       </c>
       <c r="V35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.340854499931053E-5</v>
       </c>
       <c r="AB35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7665,107 +7665,107 @@
         <v>2019</v>
       </c>
       <c r="G36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>40.559731289160872</v>
       </c>
       <c r="I36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.401587408534509</v>
       </c>
       <c r="T36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2205531132921634</v>
       </c>
       <c r="U36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24198661780769198</v>
       </c>
       <c r="V36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6908520936307182</v>
       </c>
       <c r="AB36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7781,107 +7781,107 @@
         <v>2020</v>
       </c>
       <c r="G37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>41.184477806263274</v>
       </c>
       <c r="I37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.4385793540260186</v>
       </c>
       <c r="T37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2547565653239303</v>
       </c>
       <c r="U37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24571396736982151</v>
       </c>
       <c r="V37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.70149337318584271</v>
       </c>
       <c r="AB37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7897,107 +7897,107 @@
         <v>2030</v>
       </c>
       <c r="G38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>43.374559050865884</v>
       </c>
       <c r="I38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.5682565331771237</v>
       </c>
       <c r="T38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.3746585363551027</v>
       </c>
       <c r="U38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25878038413987231</v>
       </c>
       <c r="V38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.73879692932304564</v>
       </c>
       <c r="AB38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8013,107 +8013,107 @@
         <v>2050</v>
       </c>
       <c r="G39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>47.75472154007111</v>
       </c>
       <c r="I39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8276108914793352</v>
       </c>
       <c r="T39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6144624784174479</v>
       </c>
       <c r="U39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28491321767997396</v>
       </c>
       <c r="V39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81340404159745194</v>
       </c>
       <c r="AB39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8890,8 +8890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H20" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8908,7 +8908,7 @@
     <col min="16" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:18" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:17" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8942,22 +8942,25 @@
         <v>2020</v>
       </c>
       <c r="K2" s="13">
+        <v>2021</v>
+      </c>
+      <c r="L2" s="13">
         <v>2030</v>
       </c>
-      <c r="L2" s="13">
+      <c r="M2" s="13">
         <v>2050</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="N2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>194</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8981,24 +8984,27 @@
         <v>1.81463172003468</v>
       </c>
       <c r="K3" s="30">
-        <f>J3*2/3+L3/3</f>
+        <v>1.7972395625350801</v>
+      </c>
+      <c r="L3" s="30">
+        <f>J3*2/3+M3/3</f>
         <v>1.2424177917923365</v>
       </c>
-      <c r="L3">
-        <f>(P3+Q3)/2</f>
+      <c r="M3">
+        <f>(Q3+R3)/2</f>
         <v>9.7989935307649739E-2</v>
       </c>
-      <c r="M3" s="33">
-        <v>0</v>
-      </c>
-      <c r="P3" s="35">
+      <c r="N3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="35">
         <v>0.126438626203419</v>
       </c>
-      <c r="Q3" s="30">
+      <c r="R3" s="30">
         <v>6.9541244411880462E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9022,24 +9028,27 @@
         <v>22.997393933436499</v>
       </c>
       <c r="K4" s="30">
-        <f t="shared" ref="K4:K36" si="0">J4*2/3+L4/3</f>
+        <v>23.206398476760199</v>
+      </c>
+      <c r="L4" s="30">
+        <f>J4*2/3+M4/3</f>
         <v>24.113674024676317</v>
       </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L36" si="1">(P4+Q4)/2</f>
+      <c r="M4">
+        <f t="shared" ref="M4:M36" si="0">(Q4+R4)/2</f>
         <v>26.346234207155959</v>
       </c>
-      <c r="M4" s="33">
-        <v>0</v>
-      </c>
-      <c r="P4" s="35">
+      <c r="N4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="35">
         <v>33.995140912459298</v>
       </c>
-      <c r="Q4" s="30">
+      <c r="R4" s="30">
         <v>18.697327501852616</v>
       </c>
     </row>
-    <row r="5" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9063,24 +9072,27 @@
         <v>1.3579701788487999</v>
       </c>
       <c r="K5" s="30">
+        <v>1.42973411467998</v>
+      </c>
+      <c r="L5" s="30">
+        <f>J5*2/3+M5/3</f>
+        <v>2.1898093743587719</v>
+      </c>
+      <c r="M5">
         <f t="shared" si="0"/>
-        <v>2.1898093743587719</v>
-      </c>
-      <c r="L5">
-        <f t="shared" si="1"/>
         <v>3.8534877653787154</v>
       </c>
-      <c r="M5" s="33">
-        <v>0</v>
-      </c>
-      <c r="P5" s="35">
+      <c r="N5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="35">
         <v>4.9722422779080198</v>
       </c>
-      <c r="Q5" s="30">
+      <c r="R5" s="30">
         <v>2.7347332528494115</v>
       </c>
     </row>
-    <row r="6" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9104,24 +9116,27 @@
         <v>5.7274313907438001</v>
       </c>
       <c r="K6" s="30">
+        <v>5.7714923131207199</v>
+      </c>
+      <c r="L6" s="30">
+        <f>J6*2/3+M6/3</f>
+        <v>5.7952377870093468</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="0"/>
-        <v>5.7952377870093468</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="1"/>
         <v>5.9308505795404391</v>
       </c>
-      <c r="M6" s="33">
-        <v>0</v>
-      </c>
-      <c r="P6" s="35">
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="35">
         <v>7.6527104252134697</v>
       </c>
-      <c r="Q6" s="30">
+      <c r="R6" s="30">
         <v>4.2089907338674086</v>
       </c>
     </row>
-    <row r="7" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9145,24 +9160,27 @@
         <v>1.1453307514123801</v>
       </c>
       <c r="K7" s="30">
+        <v>1.17197510213696</v>
+      </c>
+      <c r="L7" s="30">
+        <f>J7*2/3+M7/3</f>
+        <v>1.3606420861006083</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="0"/>
-        <v>1.3606420861006083</v>
-      </c>
-      <c r="L7">
-        <f t="shared" si="1"/>
         <v>1.7912647554770649</v>
       </c>
-      <c r="M7" s="33">
-        <v>0</v>
-      </c>
-      <c r="P7" s="35">
+      <c r="N7" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="35">
         <v>2.3113093619058902</v>
       </c>
-      <c r="Q7" s="30">
+      <c r="R7" s="30">
         <v>1.2712201490482398</v>
       </c>
     </row>
-    <row r="8" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9186,24 +9204,27 @@
         <v>10.4827865863979</v>
       </c>
       <c r="K8" s="30">
+        <v>10.5428293661965</v>
+      </c>
+      <c r="L8" s="30">
+        <f>J8*2/3+M8/3</f>
+        <v>10.374502745077734</v>
+      </c>
+      <c r="M8">
         <f t="shared" si="0"/>
-        <v>10.374502745077734</v>
-      </c>
-      <c r="L8">
-        <f t="shared" si="1"/>
         <v>10.157935062437405</v>
       </c>
-      <c r="M8" s="33">
-        <v>0</v>
-      </c>
-      <c r="P8" s="35">
+      <c r="N8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="35">
         <v>13.107012983790201</v>
       </c>
-      <c r="Q8" s="30">
+      <c r="R8" s="30">
         <v>7.2088571410846098</v>
       </c>
     </row>
-    <row r="9" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9227,24 +9248,27 @@
         <v>1.05400776614231</v>
       </c>
       <c r="K9" s="30">
+        <v>1.0560918609379499</v>
+      </c>
+      <c r="L9" s="30">
+        <f>J9*2/3+M9/3</f>
+        <v>0.93198510816426949</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="0"/>
-        <v>0.93198510816426949</v>
-      </c>
-      <c r="L9">
-        <f t="shared" si="1"/>
         <v>0.68793979220818868</v>
       </c>
-      <c r="M9" s="33">
-        <v>0</v>
-      </c>
-      <c r="P9" s="35">
+      <c r="N9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="35">
         <v>0.88766424801056598</v>
       </c>
-      <c r="Q9" s="30">
+      <c r="R9" s="30">
         <v>0.48821533640581133</v>
       </c>
     </row>
-    <row r="10" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9268,24 +9292,27 @@
         <v>16.2067419529189</v>
       </c>
       <c r="K10" s="30">
+        <v>18.038812365039959</v>
+      </c>
+      <c r="L10" s="30">
+        <f>J10*2/3+M10/3</f>
+        <v>16.422469181106088</v>
+      </c>
+      <c r="M10">
         <f t="shared" si="0"/>
-        <v>16.422469181106088</v>
-      </c>
-      <c r="L10">
-        <f t="shared" si="1"/>
         <v>16.853923637480463</v>
       </c>
-      <c r="M10" s="33">
-        <v>0</v>
-      </c>
-      <c r="P10" s="35">
+      <c r="N10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="35">
         <v>24.822798092583323</v>
       </c>
-      <c r="Q10" s="30">
+      <c r="R10" s="30">
         <v>8.8850491823775997</v>
       </c>
     </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9309,24 +9336,27 @@
         <v>17.9214706310973</v>
       </c>
       <c r="K11" s="30">
+        <v>18.007471512750399</v>
+      </c>
+      <c r="L11" s="30">
+        <f>J11*2/3+M11/3</f>
+        <v>17.562318638528279</v>
+      </c>
+      <c r="M11">
         <f t="shared" si="0"/>
-        <v>17.562318638528279</v>
-      </c>
-      <c r="L11">
-        <f t="shared" si="1"/>
         <v>16.844014653390236</v>
       </c>
-      <c r="M11" s="33">
-        <v>0</v>
-      </c>
-      <c r="P11" s="35">
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="35">
         <v>21.7342124559874</v>
       </c>
-      <c r="Q11" s="30">
+      <c r="R11" s="30">
         <v>11.953816850793071</v>
       </c>
     </row>
-    <row r="12" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9350,24 +9380,27 @@
         <v>2.2861941894738802</v>
       </c>
       <c r="K12" s="30">
+        <v>2.2724834198886699</v>
+      </c>
+      <c r="L12" s="30">
+        <f>J12*2/3+M12/3</f>
+        <v>1.9598564422664884</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="0"/>
-        <v>1.9598564422664884</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="1"/>
         <v>1.3071809478517049</v>
       </c>
-      <c r="M12" s="33">
-        <v>0</v>
-      </c>
-      <c r="P12" s="35">
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="35">
         <v>1.6866850940022</v>
       </c>
-      <c r="Q12" s="30">
+      <c r="R12" s="30">
         <v>0.92767680170120992</v>
       </c>
     </row>
-    <row r="13" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9391,24 +9424,27 @@
         <v>5.7966251432017799</v>
       </c>
       <c r="K13" s="30">
+        <v>6.0384328428305096</v>
+      </c>
+      <c r="L13" s="30">
+        <f>J13*2/3+M13/3</f>
+        <v>8.0932733029327437</v>
+      </c>
+      <c r="M13">
         <f t="shared" si="0"/>
-        <v>8.0932733029327437</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="1"/>
         <v>12.686569622394671</v>
       </c>
-      <c r="M13" s="33">
-        <v>0</v>
-      </c>
-      <c r="P13" s="35">
+      <c r="N13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="35">
         <v>16.369767254702801</v>
       </c>
-      <c r="Q13" s="30">
+      <c r="R13" s="30">
         <v>9.0033719900865421</v>
       </c>
     </row>
-    <row r="14" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9432,24 +9468,27 @@
         <v>0.19444424313328701</v>
       </c>
       <c r="K14" s="30">
+        <v>0.19096988348358901</v>
+      </c>
+      <c r="L14" s="30">
+        <f>J14*2/3+M14/3</f>
+        <v>0.14050573996902802</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="0"/>
-        <v>0.14050573996902802</v>
-      </c>
-      <c r="L14">
-        <f t="shared" si="1"/>
         <v>3.2628733640509965E-2</v>
       </c>
-      <c r="M14" s="33">
-        <v>0</v>
-      </c>
-      <c r="P14" s="35">
+      <c r="N14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="35">
         <v>4.2101591794206403E-2</v>
       </c>
-      <c r="Q14" s="30">
+      <c r="R14" s="30">
         <v>2.3155875486813523E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9473,24 +9512,27 @@
         <v>4.5897245674903298</v>
       </c>
       <c r="K15" s="30">
+        <v>4.5894976142623198</v>
+      </c>
+      <c r="L15" s="30">
+        <f>J15*2/3+M15/3</f>
+        <v>4.6396322321485517</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="0"/>
-        <v>4.6396322321485517</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="1"/>
         <v>4.7394475614649956</v>
       </c>
-      <c r="M15" s="33">
-        <v>0</v>
-      </c>
-      <c r="P15" s="35">
+      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="35">
         <v>6.1154162083419301</v>
       </c>
-      <c r="Q15" s="30">
+      <c r="R15" s="30">
         <v>3.3634789145880619</v>
       </c>
     </row>
-    <row r="16" spans="3:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:18" x14ac:dyDescent="0.35">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9514,24 +9556,27 @@
         <v>3.5251257971202601</v>
       </c>
       <c r="K16" s="30">
+        <v>3.5792625600137602</v>
+      </c>
+      <c r="L16" s="30">
+        <f>J16*2/3+M16/3</f>
+        <v>3.873858842159847</v>
+      </c>
+      <c r="M16">
         <f t="shared" si="0"/>
-        <v>3.873858842159847</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="1"/>
         <v>4.5713249322390208</v>
       </c>
-      <c r="M16" s="33">
-        <v>0</v>
-      </c>
-      <c r="P16" s="35">
+      <c r="N16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="35">
         <v>5.8984837835342203</v>
       </c>
-      <c r="Q16" s="30">
+      <c r="R16" s="30">
         <v>3.2441660809438213</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9556,24 +9601,27 @@
         <v>10.76129175</v>
       </c>
       <c r="K17" s="30">
+        <v>15.490769824884</v>
+      </c>
+      <c r="L17" s="30">
+        <f>J17*2/3+M17/3</f>
+        <v>13.776893905258575</v>
+      </c>
+      <c r="M17">
         <f t="shared" si="0"/>
-        <v>13.776893905258575</v>
-      </c>
-      <c r="L17">
-        <f t="shared" si="1"/>
         <v>19.808098215775729</v>
       </c>
-      <c r="M17" s="33">
-        <v>0</v>
-      </c>
-      <c r="P17" s="35">
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="35">
         <v>21.065548257939199</v>
       </c>
-      <c r="Q17" s="30">
+      <c r="R17" s="30">
         <v>18.550648173612263</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9598,24 +9646,27 @@
         <v>23.13677727</v>
       </c>
       <c r="K18" s="30">
+        <v>33.305155123500498</v>
+      </c>
+      <c r="L18" s="30">
+        <f>J18*2/3+M18/3</f>
+        <v>27.974935251608869</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="0"/>
-        <v>27.974935251608869</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="1"/>
         <v>37.651251214826601</v>
       </c>
-      <c r="M18" s="33">
-        <v>0</v>
-      </c>
-      <c r="P18" s="35">
+      <c r="N18" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="35">
         <v>45.290928754569201</v>
       </c>
-      <c r="Q18" s="30">
+      <c r="R18" s="30">
         <v>30.011573675084005</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9640,24 +9691,27 @@
         <v>19.908389740000001</v>
       </c>
       <c r="K19" s="30">
+        <v>28.657924176035301</v>
+      </c>
+      <c r="L19" s="30">
+        <f>J19*2/3+M19/3</f>
+        <v>24.065518898081876</v>
+      </c>
+      <c r="M19">
         <f t="shared" si="0"/>
-        <v>24.065518898081876</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="1"/>
         <v>32.379777214245621</v>
       </c>
-      <c r="M19" s="33">
-        <v>0</v>
-      </c>
-      <c r="P19" s="35">
+      <c r="N19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="35">
         <v>38.971264277187501</v>
       </c>
-      <c r="Q19" s="30">
+      <c r="R19" s="30">
         <v>25.788290151303741</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9682,24 +9736,27 @@
         <v>11.754512350000001</v>
       </c>
       <c r="K20" s="30">
+        <v>12.787492999999998</v>
+      </c>
+      <c r="L20" s="30">
+        <f>J20*2/3+M20/3</f>
+        <v>13.60103602924678</v>
+      </c>
+      <c r="M20">
         <f t="shared" si="0"/>
-        <v>13.60103602924678</v>
-      </c>
-      <c r="L20">
-        <f t="shared" si="1"/>
         <v>17.294083387740336</v>
       </c>
-      <c r="M20" s="33">
-        <v>0</v>
-      </c>
-      <c r="P20" s="35">
+      <c r="N20" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="35">
         <v>25.138166775480673</v>
       </c>
-      <c r="Q20" s="30">
+      <c r="R20" s="30">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9724,24 +9781,27 @@
         <v>9.9341345454545458</v>
       </c>
       <c r="K21" s="30">
+        <v>8.9407210909090917</v>
+      </c>
+      <c r="L21" s="30">
+        <f>J21*2/3+M21/3</f>
+        <v>6.6227563636363636</v>
+      </c>
+      <c r="M21">
         <f t="shared" si="0"/>
-        <v>6.6227563636363636</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="33">
-        <v>0</v>
-      </c>
-      <c r="P21" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="35">
+        <v>0</v>
+      </c>
+      <c r="R21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9766,25 +9826,28 @@
         <v>4.4094344637268001</v>
       </c>
       <c r="K22" s="30">
+        <v>4.5291674028165003</v>
+      </c>
+      <c r="L22" s="30">
+        <f>J22*2/3+M22/3</f>
+        <v>5.1984083443405851</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="0"/>
-        <v>5.1984083443405851</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="1"/>
         <v>6.7763561055681549</v>
       </c>
-      <c r="M22" s="33">
-        <v>0</v>
-      </c>
-      <c r="P22" s="35">
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="35">
         <v>10.039412402408599</v>
       </c>
-      <c r="Q22" s="30">
+      <c r="R22" s="30">
         <f>H22</f>
         <v>3.5132998087277101</v>
       </c>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9809,24 +9872,27 @@
         <v>13.57977245</v>
       </c>
       <c r="K23" s="30">
+        <v>13.45641792</v>
+      </c>
+      <c r="L23" s="30">
+        <f>J23*2/3+M23/3</f>
+        <v>9.0531816333333328</v>
+      </c>
+      <c r="M23">
         <f t="shared" si="0"/>
-        <v>9.0531816333333328</v>
-      </c>
-      <c r="L23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="33">
-        <v>0</v>
-      </c>
-      <c r="P23" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="35">
+        <v>0</v>
+      </c>
+      <c r="R23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9851,25 +9917,28 @@
         <v>0.23</v>
       </c>
       <c r="K24" s="30">
+        <v>0.23</v>
+      </c>
+      <c r="L24" s="30">
+        <f>J24*2/3+M24/3</f>
+        <v>0.2305822000477632</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="0"/>
-        <v>0.2305822000477632</v>
-      </c>
-      <c r="L24">
-        <f t="shared" si="1"/>
         <v>0.23174660014328952</v>
       </c>
-      <c r="M24" s="33">
-        <v>0</v>
-      </c>
-      <c r="P24" s="35">
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="35">
         <v>0.23</v>
       </c>
-      <c r="Q24" s="30">
+      <c r="R24" s="30">
         <f>H24</f>
         <v>0.23349320028657899</v>
       </c>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9893,26 +9962,27 @@
       <c r="J25" s="30">
         <v>46.814427170000002</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="30"/>
+      <c r="L25" s="30">
+        <f>J25*2/3+M25/3</f>
+        <v>49.30389418240533</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="0"/>
-        <v>49.30389418240533</v>
-      </c>
-      <c r="L25">
-        <f t="shared" si="1"/>
         <v>54.282828207215999</v>
       </c>
-      <c r="M25" s="33">
-        <v>0</v>
-      </c>
-      <c r="P25" s="35">
+      <c r="N25" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="35">
         <v>62.629819759999997</v>
       </c>
-      <c r="Q25" s="30">
+      <c r="R25" s="30">
         <f>H25</f>
         <v>45.935836654432002</v>
       </c>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9935,25 +10005,28 @@
       <c r="J26" s="32">
         <v>29.618106901468909</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="32">
+        <v>30.592051000616877</v>
+      </c>
+      <c r="L26" s="30">
+        <f>J26*2/3+M26/3</f>
+        <v>33.106056329901776</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="0"/>
-        <v>33.106056329901776</v>
-      </c>
-      <c r="L26">
-        <f t="shared" si="1"/>
         <v>40.081955186767516</v>
       </c>
-      <c r="M26" s="33">
-        <v>0</v>
-      </c>
-      <c r="P26" s="35">
+      <c r="N26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="35">
         <v>47.391759323456121</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="R26" s="30">
         <v>32.772151050078904</v>
       </c>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9976,25 +10049,28 @@
       <c r="J27" s="32">
         <v>59.593058464401295</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="32">
+        <v>61.552680928952022</v>
+      </c>
+      <c r="L27" s="30">
+        <f>J27*2/3+M27/3</f>
+        <v>66.636013592767867</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="0"/>
-        <v>66.636013592767867</v>
-      </c>
-      <c r="L27">
-        <f t="shared" si="1"/>
         <v>80.721923849501025</v>
       </c>
-      <c r="M27" s="33">
-        <v>0</v>
-      </c>
-      <c r="P27" s="35">
+      <c r="N27" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="35">
         <v>95.354503699002038</v>
       </c>
-      <c r="Q27" s="30">
+      <c r="R27" s="30">
         <v>66.089343999999997</v>
       </c>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10013,24 +10089,26 @@
       </c>
       <c r="I28" s="31"/>
       <c r="J28" s="31"/>
-      <c r="K28" s="30">
-        <f>(H28*20/32+L28*12/32)</f>
-        <v>14.768235000000001</v>
-      </c>
-      <c r="L28">
+      <c r="K28" s="31">
+        <v>14.3748</v>
+      </c>
+      <c r="L28" s="30">
+        <v>25</v>
+      </c>
+      <c r="M28">
         <v>30</v>
       </c>
-      <c r="M28" s="33">
-        <v>0</v>
-      </c>
-      <c r="P28" s="35">
+      <c r="N28" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="35">
         <v>40.299999999999997</v>
       </c>
-      <c r="Q28" s="30">
+      <c r="R28" s="30">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10049,22 +10127,23 @@
       </c>
       <c r="I29" s="31"/>
       <c r="J29" s="31"/>
-      <c r="K29" s="30"/>
-      <c r="L29">
-        <f t="shared" si="1"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="30"/>
+      <c r="M29">
+        <f t="shared" si="0"/>
         <v>0.5575</v>
       </c>
-      <c r="M29" s="33">
-        <v>0</v>
-      </c>
-      <c r="P29" s="35">
+      <c r="N29" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="35">
         <v>0.57499999999999996</v>
       </c>
-      <c r="Q29" s="30">
+      <c r="R29" s="30">
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>185</v>
       </c>
@@ -10086,25 +10165,28 @@
       <c r="J30" s="31">
         <v>1.211542406</v>
       </c>
-      <c r="K30" s="30">
+      <c r="K30" s="31">
+        <v>1.2318444230000001</v>
+      </c>
+      <c r="L30" s="30">
+        <f>J30*2/3+M30/3</f>
+        <v>1.3618984463333335</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="0"/>
-        <v>1.3618984463333335</v>
-      </c>
-      <c r="L30">
-        <f t="shared" si="1"/>
         <v>1.662610527</v>
       </c>
-      <c r="M30" s="33">
-        <v>0</v>
-      </c>
-      <c r="P30" s="35">
+      <c r="N30" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="35">
         <v>1.7132210539999999</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="R30" s="30">
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>185</v>
       </c>
@@ -10126,25 +10208,28 @@
       <c r="J31" s="31">
         <v>2.1455261499999998</v>
       </c>
-      <c r="K31" s="30">
+      <c r="K31" s="31">
+        <v>2.181479087</v>
+      </c>
+      <c r="L31" s="30">
+        <f>J31*2/3+M31/3</f>
+        <v>2.4120093048333331</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="0"/>
-        <v>2.4120093048333331</v>
-      </c>
-      <c r="L31">
-        <f t="shared" si="1"/>
         <v>2.9449756144999997</v>
       </c>
-      <c r="M31" s="33">
-        <v>0</v>
-      </c>
-      <c r="P31" s="35">
+      <c r="N31" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="35">
         <v>3.0339512289999999</v>
       </c>
-      <c r="Q31" s="30">
+      <c r="R31" s="30">
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>185</v>
       </c>
@@ -10166,21 +10251,24 @@
       <c r="J32" s="31">
         <v>0.82777258099999995</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="31">
+        <v>0.84164370300000002</v>
+      </c>
+      <c r="L32" s="30">
+        <f>J32*2/3+M32/3</f>
+        <v>0.90693818999999998</v>
+      </c>
+      <c r="M32">
         <f t="shared" si="0"/>
-        <v>0.90693818999999998</v>
-      </c>
-      <c r="L32">
-        <f t="shared" si="1"/>
         <v>1.065269408</v>
       </c>
-      <c r="M32" s="33">
-        <v>0</v>
-      </c>
-      <c r="P32" s="35">
+      <c r="N32" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="35">
         <v>1.1705388160000001</v>
       </c>
-      <c r="Q32" s="30">
+      <c r="R32" s="30">
         <v>0.96</v>
       </c>
     </row>
@@ -10206,21 +10294,24 @@
       <c r="J33" s="31">
         <v>1.103699397</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="31">
+        <v>1.1221942709999999</v>
+      </c>
+      <c r="L33" s="30">
+        <f>J33*2/3+M33/3</f>
+        <v>1.3170866196666666</v>
+      </c>
+      <c r="M33">
         <f t="shared" si="0"/>
-        <v>1.3170866196666666</v>
-      </c>
-      <c r="L33">
-        <f t="shared" si="1"/>
         <v>1.7438610649999999</v>
       </c>
-      <c r="M33" s="33">
-        <v>0</v>
-      </c>
-      <c r="P33" s="35">
+      <c r="N33" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="35">
         <v>1.56072213</v>
       </c>
-      <c r="Q33" s="30">
+      <c r="R33" s="30">
         <v>1.927</v>
       </c>
     </row>
@@ -10246,21 +10337,24 @@
       <c r="J34" s="31">
         <v>0.89075901800000001</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="31">
+        <v>0.905685615</v>
+      </c>
+      <c r="L34" s="30">
+        <f>J34*2/3+M34/3</f>
+        <v>1.063273819</v>
+      </c>
+      <c r="M34">
         <f t="shared" si="0"/>
-        <v>1.063273819</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
         <v>1.4083034209999998</v>
       </c>
-      <c r="M34" s="33">
-        <v>0</v>
-      </c>
-      <c r="P34" s="35">
+      <c r="N34" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="35">
         <v>1.2596068419999999</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="R34" s="30">
         <v>1.5569999999999999</v>
       </c>
     </row>
@@ -10286,21 +10380,24 @@
       <c r="J35" s="31">
         <v>9.8875790139999999</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="31">
+        <v>10.053266819999999</v>
+      </c>
+      <c r="L35" s="30">
+        <f>J35*2/3+M35/3</f>
+        <v>10.786194941000002</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="0"/>
-        <v>10.786194941000002</v>
-      </c>
-      <c r="L35">
-        <f t="shared" si="1"/>
         <v>12.583426795000001</v>
       </c>
-      <c r="M35" s="33">
-        <v>0</v>
-      </c>
-      <c r="P35" s="35">
+      <c r="N35" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="35">
         <v>13.98185359</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="R35" s="30">
         <v>11.185</v>
       </c>
     </row>
@@ -10326,21 +10423,24 @@
       <c r="J36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="1">
+        <v>0</v>
+      </c>
+      <c r="L36" s="30">
+        <f>J36*2/3+M36/3</f>
+        <v>0</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M36" s="33">
-        <v>0</v>
-      </c>
-      <c r="P36" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="30">
+      <c r="N36" s="33">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="35">
+        <v>0</v>
+      </c>
+      <c r="R36" s="30">
         <v>0</v>
       </c>
     </row>

--- a/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52636B4-48BE-4743-A37C-8B78CEC5FFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F508959-8C0C-41AC-AA0D-628CCA339693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3962,107 +3962,107 @@
         <v>2019</v>
       </c>
       <c r="G4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19494949782577736</v>
       </c>
       <c r="H4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.8975026936826151</v>
       </c>
       <c r="I4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71879726596538862</v>
       </c>
       <c r="J4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33347553807893826</v>
       </c>
       <c r="K4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2629119756998361</v>
       </c>
       <c r="L4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13210430135999357</v>
       </c>
       <c r="M4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37881071863438415</v>
       </c>
       <c r="N4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.62353214363397302</v>
       </c>
       <c r="O4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25811291366671996</v>
       </c>
       <c r="P4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29256819683641966</v>
       </c>
       <c r="Q4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50919673828166878</v>
       </c>
       <c r="R4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45041133164401598</v>
       </c>
       <c r="S4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39641700387724033</v>
       </c>
       <c r="T4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.6763947608716003</v>
       </c>
       <c r="U4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51327284556254194</v>
       </c>
       <c r="V4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61203628664178844</v>
       </c>
       <c r="W4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55797519895916559</v>
       </c>
       <c r="X4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37051345400022451</v>
       </c>
       <c r="Y4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.82812242154746152</v>
       </c>
       <c r="Z4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10628326817910465</v>
       </c>
       <c r="AA4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44349982050028319</v>
       </c>
       <c r="AB4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23199920298175605</v>
       </c>
       <c r="AC4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20454179048719831</v>
       </c>
       <c r="AD4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22814579239883884</v>
       </c>
       <c r="AE4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44256348247820942</v>
       </c>
       <c r="AF4" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2122596962048626</v>
       </c>
     </row>
@@ -4078,107 +4078,107 @@
         <v>2020</v>
       </c>
       <c r="G5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14102260336618419</v>
       </c>
       <c r="H5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8193762108637852</v>
       </c>
       <c r="I5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51996369762144268</v>
       </c>
       <c r="J5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2412295956815371</v>
       </c>
       <c r="K5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19018531303154435</v>
       </c>
       <c r="L5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.5561633661176384E-2</v>
       </c>
       <c r="M5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27402416687719383</v>
       </c>
       <c r="N5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45105079601868803</v>
       </c>
       <c r="O5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18671376666095213</v>
       </c>
       <c r="P5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21163803569729758</v>
       </c>
       <c r="Q5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36834282959899767</v>
       </c>
       <c r="R5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32581863140183054</v>
       </c>
       <c r="S5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28676020471389613</v>
       </c>
       <c r="T5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2126707484972317</v>
       </c>
       <c r="U5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37129140482878509</v>
       </c>
       <c r="V5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44273492088669852</v>
       </c>
       <c r="W5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40362820139863753</v>
       </c>
       <c r="X5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26802209006972721</v>
       </c>
       <c r="Y5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59904734864666986</v>
       </c>
       <c r="Z5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.6883209959732524E-2</v>
       </c>
       <c r="AA5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32081898120752922</v>
       </c>
       <c r="AB5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1678236258531208</v>
       </c>
       <c r="AC5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14796147778469043</v>
       </c>
       <c r="AD5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16503614500140071</v>
       </c>
       <c r="AE5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32014165283799628</v>
       </c>
       <c r="AF5" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15354445783325901</v>
       </c>
     </row>
@@ -4194,107 +4194,107 @@
         <v>2030</v>
       </c>
       <c r="G6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18054091367045041</v>
       </c>
       <c r="H6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6094409331556592</v>
       </c>
       <c r="I6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6656714512657429</v>
       </c>
       <c r="J6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30882858895754395</v>
       </c>
       <c r="K6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24348033125056551</v>
       </c>
       <c r="L6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12234056272688766</v>
       </c>
       <c r="M6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35081307730031303</v>
       </c>
       <c r="N6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5774473090214185</v>
       </c>
       <c r="O6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23903596461262591</v>
       </c>
       <c r="P6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2709446813500801</v>
       </c>
       <c r="Q6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47156235534160001</v>
       </c>
       <c r="R6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41712173793444168</v>
       </c>
       <c r="S6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36711809403304924</v>
       </c>
       <c r="T6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5524935697479687</v>
       </c>
       <c r="U6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47533720031896581</v>
       </c>
       <c r="V6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56680110296322883</v>
       </c>
       <c r="W6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51673563332574557</v>
       </c>
       <c r="X6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34312905782489267</v>
       </c>
       <c r="Y6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.76691645931183072</v>
       </c>
       <c r="Z6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.8427944462239333E-2</v>
       </c>
       <c r="AA6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41072105185599805</v>
       </c>
       <c r="AB6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2148523004382123</v>
       </c>
       <c r="AC6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18942424653666262</v>
       </c>
       <c r="AD6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21128369279804798</v>
       </c>
       <c r="AE6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40985391793724002</v>
       </c>
       <c r="AF6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19657172711717047</v>
       </c>
     </row>
@@ -4310,107 +4310,107 @@
         <v>2050</v>
       </c>
       <c r="G7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25957753427898295</v>
       </c>
       <c r="H7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.1895703777394084</v>
       </c>
       <c r="I7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.95708695855434356</v>
       </c>
       <c r="J7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44402657550955765</v>
       </c>
       <c r="K7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35007036768860789</v>
       </c>
       <c r="L7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17589842085831023</v>
       </c>
       <c r="M7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50439089814655136</v>
       </c>
       <c r="N7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.83024033502687966</v>
       </c>
       <c r="O7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34368036051597356</v>
       </c>
       <c r="P7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38955797265564523</v>
       </c>
       <c r="Q7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.67800140682680488</v>
       </c>
       <c r="R7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59972795099966403</v>
       </c>
       <c r="S7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52783387267135551</v>
       </c>
       <c r="T7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2321392122494434</v>
       </c>
       <c r="U7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68342879129932732</v>
       </c>
       <c r="V7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81493346711628945</v>
       </c>
       <c r="W7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74295049717996164</v>
       </c>
       <c r="X7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49334299333522352</v>
       </c>
       <c r="Y7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1026546806421527</v>
       </c>
       <c r="Z7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14151741346725299</v>
       </c>
       <c r="AA7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59052519315293606</v>
       </c>
       <c r="AB7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30890964960839534</v>
       </c>
       <c r="AC7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27234978404060711</v>
       </c>
       <c r="AD7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30377878839134259</v>
       </c>
       <c r="AE7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58927844813572761</v>
       </c>
       <c r="AF7" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28262626568499355</v>
       </c>
     </row>
@@ -4426,107 +4426,107 @@
         <v>2019</v>
       </c>
       <c r="G8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44504487721842145</v>
       </c>
       <c r="H8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.7937079104025209</v>
       </c>
       <c r="I8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5870469217794945</v>
       </c>
       <c r="J8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75371941599977788</v>
       </c>
       <c r="K8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56707222956060799</v>
       </c>
       <c r="L8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29215269212908374</v>
       </c>
       <c r="M8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.78692852808848446</v>
       </c>
       <c r="N8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3661978764195406</v>
       </c>
       <c r="O8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57898198131513856</v>
       </c>
       <c r="P8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65358230250256555</v>
       </c>
       <c r="Q8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1591453120223312</v>
       </c>
       <c r="R8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98363731275831134</v>
       </c>
       <c r="S8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89211010866799778</v>
       </c>
       <c r="T8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6052969056240896</v>
       </c>
       <c r="U8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1800127078014957</v>
       </c>
       <c r="V8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3289979498467648</v>
       </c>
       <c r="W8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2889705463689798</v>
       </c>
       <c r="X8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81318189166940957</v>
       </c>
       <c r="Y8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8206653161788104</v>
       </c>
       <c r="Z8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23862041442976697</v>
       </c>
       <c r="AA8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0083408487910557</v>
       </c>
       <c r="AB8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54292180091605458</v>
       </c>
       <c r="AC8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44291300994417443</v>
       </c>
       <c r="AD8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48125689749079964</v>
       </c>
       <c r="AE8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88631243709750096</v>
       </c>
       <c r="AF8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48743823497682215</v>
       </c>
     </row>
@@ -4542,107 +4542,107 @@
         <v>2020</v>
       </c>
       <c r="G9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32193664473309486</v>
       </c>
       <c r="H9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.637813854608976</v>
       </c>
       <c r="I9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1480382927336128</v>
       </c>
       <c r="J9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54522568908947855</v>
       </c>
       <c r="K9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41020881320348074</v>
       </c>
       <c r="L9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21133746790128183</v>
       </c>
       <c r="M9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56924850267004323</v>
       </c>
       <c r="N9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98828046988197249</v>
       </c>
       <c r="O9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41882409160736161</v>
       </c>
       <c r="P9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47278848560105868</v>
       </c>
       <c r="Q9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.83850274795415447</v>
       </c>
       <c r="R9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71154373932557857</v>
       </c>
       <c r="S9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64533477367968184</v>
       </c>
       <c r="T9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6080003354214218</v>
       </c>
       <c r="U9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.8535978085319772</v>
       </c>
       <c r="V9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.96137078018953437</v>
       </c>
       <c r="W9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.932415749736074</v>
       </c>
       <c r="X9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58823966562202801</v>
       </c>
       <c r="Y9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3170332096303565</v>
       </c>
       <c r="Z9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17261327906182664</v>
       </c>
       <c r="AA9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72941378774211518</v>
       </c>
       <c r="AB9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39273887171064176</v>
       </c>
       <c r="AC9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32039449419408184</v>
       </c>
       <c r="AD9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34813170258514758</v>
       </c>
       <c r="AE9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64114085295794276</v>
       </c>
       <c r="AF9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35260315962707711</v>
       </c>
     </row>
@@ -4658,107 +4658,107 @@
         <v>2030</v>
       </c>
       <c r="G10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3892571850620809</v>
       </c>
       <c r="H10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.8167435638416176</v>
       </c>
       <c r="I10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3881058943863189</v>
       </c>
       <c r="J10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65923845710219742</v>
       </c>
       <c r="K10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4959880477341298</v>
       </c>
       <c r="L10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25553048775048037</v>
       </c>
       <c r="M10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68828470873159586</v>
       </c>
       <c r="N10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.194940930309512</v>
       </c>
       <c r="O10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50640487686770397</v>
       </c>
       <c r="P10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57165382706715362</v>
       </c>
       <c r="Q10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0138430174857962</v>
       </c>
       <c r="R10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.86033546522189086</v>
       </c>
       <c r="S10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7802814669746253</v>
       </c>
       <c r="T10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.153362271165975</v>
       </c>
       <c r="U10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0320946234616748</v>
       </c>
       <c r="V10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1624041245996282</v>
       </c>
       <c r="W10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1273942745807057</v>
       </c>
       <c r="X10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71124713550930441</v>
       </c>
       <c r="Y10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5924395318185049</v>
       </c>
       <c r="Z10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20870863945186316</v>
       </c>
       <c r="AA10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88194233992020643</v>
       </c>
       <c r="AB10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47486494677636343</v>
       </c>
       <c r="AC10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38739255365842112</v>
       </c>
       <c r="AD10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.420929921449335</v>
       </c>
       <c r="AE10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.77521055068961786</v>
       </c>
       <c r="AF10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42633640999216782</v>
       </c>
     </row>
@@ -4774,107 +4774,107 @@
         <v>2050</v>
       </c>
       <c r="G11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52389826572005282</v>
       </c>
       <c r="H11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1746029823068991</v>
       </c>
       <c r="I11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8682410976917312</v>
       </c>
       <c r="J11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88726399312763493</v>
       </c>
       <c r="K11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.66754651679542798</v>
       </c>
       <c r="L11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3439165274488773</v>
       </c>
       <c r="M11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.92635712085470101</v>
       </c>
       <c r="N11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.6082618511645903</v>
       </c>
       <c r="O11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68156644738838867</v>
       </c>
       <c r="P11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.76938450999934316</v>
       </c>
       <c r="Q11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3645235565490794</v>
       </c>
       <c r="R11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1579189170145152</v>
       </c>
       <c r="S11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0501748535645117</v>
       </c>
       <c r="T11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.2440861426550791</v>
       </c>
       <c r="U11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3890882533210698</v>
       </c>
       <c r="V11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5644708134198158</v>
       </c>
       <c r="W11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5173513242699688</v>
       </c>
       <c r="X11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.95726207528385721</v>
       </c>
       <c r="Y11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.1432521761948022</v>
       </c>
       <c r="Z11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28089936023193618</v>
       </c>
       <c r="AA11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1869994442763889</v>
       </c>
       <c r="AB11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6391170969078066</v>
       </c>
       <c r="AC11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52138867258709964</v>
       </c>
       <c r="AD11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56652635917770966</v>
       </c>
       <c r="AE11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0433499461529676</v>
       </c>
       <c r="AF11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57380291072234901</v>
       </c>
     </row>
@@ -4890,107 +4890,107 @@
         <v>2019</v>
       </c>
       <c r="G12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37926872049762789</v>
       </c>
       <c r="H12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.7564300396473245</v>
       </c>
       <c r="I12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3651288565890147</v>
       </c>
       <c r="J12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6573642766274751</v>
       </c>
       <c r="K12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48841646133907779</v>
       </c>
       <c r="L12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.251491627138621</v>
       </c>
       <c r="M12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68336533267305366</v>
       </c>
       <c r="N12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.162072263976734</v>
       </c>
       <c r="O12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50087352131013296</v>
       </c>
       <c r="P12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5550828629753175</v>
       </c>
       <c r="Q12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98659875855138779</v>
       </c>
       <c r="R12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.84482869568365948</v>
       </c>
       <c r="S12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75747508723845136</v>
       </c>
       <c r="T12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.0886844490300494</v>
       </c>
       <c r="U12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0271865360143977</v>
       </c>
       <c r="V12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1378934179320885</v>
       </c>
       <c r="W12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1008328480688923</v>
       </c>
       <c r="X12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.69324706204747966</v>
       </c>
       <c r="Y12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5750464525866097</v>
       </c>
       <c r="Z12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20319350320920349</v>
       </c>
       <c r="AA12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.87339211119017246</v>
       </c>
       <c r="AB12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4577994904920954</v>
       </c>
       <c r="AC12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3815792132296843</v>
       </c>
       <c r="AD12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40809739213380453</v>
       </c>
       <c r="AE12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75174517940800556</v>
       </c>
       <c r="AF12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43424277040967463</v>
       </c>
     </row>
@@ -5006,107 +5006,107 @@
         <v>2020</v>
       </c>
       <c r="G13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27435547637321495</v>
       </c>
       <c r="H13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.8874675973215007</v>
       </c>
       <c r="I13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98750716185845822</v>
       </c>
       <c r="J13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47552429060912443</v>
       </c>
       <c r="K13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35331078909799174</v>
       </c>
       <c r="L13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18192405921838437</v>
       </c>
       <c r="M13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49433293928500699</v>
       </c>
       <c r="N13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.84062004677085211</v>
       </c>
       <c r="O13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36232197941731037</v>
       </c>
       <c r="P13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40153594290187117</v>
       </c>
       <c r="Q13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71368599033539704</v>
       </c>
       <c r="R13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61113233633908892</v>
       </c>
       <c r="S13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54794246709160832</v>
       </c>
       <c r="T13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2342931214267647</v>
       </c>
       <c r="U13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74304638421703217</v>
       </c>
       <c r="V13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.82312954869858934</v>
       </c>
       <c r="W13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.79632066689536773</v>
       </c>
       <c r="X13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5014811864865022</v>
       </c>
       <c r="Y13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1393573908292929</v>
       </c>
       <c r="Z13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14698615350023855</v>
       </c>
       <c r="AA13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63179454507028443</v>
       </c>
       <c r="AB13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33116307912916709</v>
       </c>
       <c r="AC13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27602684102814479</v>
       </c>
       <c r="AD13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2952095661319819</v>
       </c>
       <c r="AE13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54379756531765255</v>
       </c>
       <c r="AF13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31412261464919838</v>
       </c>
     </row>
@@ -5122,107 +5122,107 @@
         <v>2030</v>
       </c>
       <c r="G14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33164444677241184</v>
       </c>
       <c r="H14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.9080340179789657</v>
       </c>
       <c r="I14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1937114239805877</v>
       </c>
       <c r="J14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57481991017877587</v>
       </c>
       <c r="K14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42708664954707387</v>
       </c>
       <c r="L14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21991215474043635</v>
       </c>
       <c r="M14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59755604786084004</v>
       </c>
       <c r="N14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0161523802713346</v>
       </c>
       <c r="O14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43797949290386534</v>
       </c>
       <c r="P14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48538183893139442</v>
       </c>
       <c r="Q14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.86271285181866131</v>
       </c>
       <c r="R14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.73874466903003644</v>
       </c>
       <c r="S14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.66235993815011118</v>
       </c>
       <c r="T14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.7008424106504432</v>
       </c>
       <c r="U14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89820407552089609</v>
       </c>
       <c r="V14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.99500964008028858</v>
       </c>
       <c r="W14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.96260271716499135</v>
       </c>
       <c r="X14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.60619694149223746</v>
       </c>
       <c r="Y14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3772699439161975</v>
       </c>
       <c r="Z14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17767876262283552</v>
       </c>
       <c r="AA14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.76372141407022565</v>
       </c>
       <c r="AB14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40031421140592738</v>
       </c>
       <c r="AC14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33366481397508846</v>
       </c>
       <c r="AD14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35685314007941266</v>
       </c>
       <c r="AE14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65734952729948315</v>
       </c>
       <c r="AF14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37971547763938718</v>
       </c>
     </row>
@@ -5238,107 +5238,107 @@
         <v>2050</v>
       </c>
       <c r="G15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44622238757080546</v>
       </c>
       <c r="H15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.949166859293892</v>
       </c>
       <c r="I15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.6061199482248465</v>
       </c>
       <c r="J15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.77341114931807842</v>
       </c>
       <c r="K15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57463837044523791</v>
       </c>
       <c r="L15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29588834578454021</v>
       </c>
       <c r="M15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.80400226501250582</v>
       </c>
       <c r="N15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3672170472722989</v>
       </c>
       <c r="O15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58929451987697501</v>
       </c>
       <c r="P15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6530736309904408</v>
       </c>
       <c r="Q15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1607665747851894</v>
       </c>
       <c r="R15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.99396933441193125</v>
       </c>
       <c r="S15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89119488026711646</v>
       </c>
       <c r="T15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6339409890977992</v>
       </c>
       <c r="U15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2085194581286236</v>
       </c>
       <c r="V15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3387698228436864</v>
       </c>
       <c r="W15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2951668177042381</v>
       </c>
       <c r="X15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81562845150370777</v>
       </c>
       <c r="Y15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8530950500900067</v>
       </c>
       <c r="Z15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23906398086802944</v>
       </c>
       <c r="AA15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0275751520701077</v>
       </c>
       <c r="AB15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53861647595944773</v>
       </c>
       <c r="AC15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44894075986897575</v>
       </c>
       <c r="AD15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4801402879742741</v>
       </c>
       <c r="AE15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.88445345126314423</v>
       </c>
       <c r="AF15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51090120361976454</v>
       </c>
     </row>
@@ -5354,107 +5354,107 @@
         <v>2019</v>
       </c>
       <c r="G16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2178146269505315</v>
       </c>
       <c r="H16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.2532352952549441</v>
       </c>
       <c r="I16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59035591066396753</v>
       </c>
       <c r="J16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37964907365901629</v>
       </c>
       <c r="K16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2704057614094616</v>
       </c>
       <c r="L16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13049216248614431</v>
       </c>
       <c r="M16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34195983528392676</v>
       </c>
       <c r="N16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5291116374087359</v>
       </c>
       <c r="O16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24890023926754198</v>
       </c>
       <c r="P16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28340932312027484</v>
       </c>
       <c r="Q16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57281742387914369</v>
       </c>
       <c r="R16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3778873214697962</v>
       </c>
       <c r="S16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37186096343983388</v>
       </c>
       <c r="T16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.9896591411313085</v>
       </c>
       <c r="U16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54135919368811836</v>
       </c>
       <c r="V16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.60997441370730043</v>
       </c>
       <c r="W16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49935221643128408</v>
       </c>
       <c r="X16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46383071132724779</v>
       </c>
       <c r="Y16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74064511268734978</v>
       </c>
       <c r="Z16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.8775540783756666E-2</v>
       </c>
       <c r="AA16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41714780682374364</v>
       </c>
       <c r="AB16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18524594530412608</v>
       </c>
       <c r="AC16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20201145503880613</v>
       </c>
       <c r="AD16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23481230791235341</v>
       </c>
       <c r="AE16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49070889678091939</v>
       </c>
       <c r="AF16" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18922217409036649</v>
       </c>
     </row>
@@ -5470,107 +5470,107 @@
         <v>2020</v>
       </c>
       <c r="G17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17991488188042462</v>
       </c>
       <c r="H17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6871723541686299</v>
       </c>
       <c r="I17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48763398226070803</v>
       </c>
       <c r="J17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3135901348759621</v>
       </c>
       <c r="K17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22335515894815736</v>
       </c>
       <c r="L17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10778652622510916</v>
       </c>
       <c r="M17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2824588239748011</v>
       </c>
       <c r="N17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43704621254646414</v>
       </c>
       <c r="O17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20559159765702764</v>
       </c>
       <c r="P17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23409610092244049</v>
       </c>
       <c r="Q17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47314719217489071</v>
       </c>
       <c r="R17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31213492756751032</v>
       </c>
       <c r="S17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30715715583422787</v>
       </c>
       <c r="T17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.643458450750628</v>
       </c>
       <c r="U17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44716269403431846</v>
       </c>
       <c r="V17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50383886577623815</v>
       </c>
       <c r="W17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41246493081645397</v>
       </c>
       <c r="X17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38312416759737483</v>
       </c>
       <c r="Y17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61177286314532875</v>
       </c>
       <c r="Z17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.1588596696128737E-2</v>
       </c>
       <c r="AA17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34456408847334713</v>
       </c>
       <c r="AB17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15301315083761008</v>
       </c>
       <c r="AC17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16686146187994025</v>
       </c>
       <c r="AD17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1939549663563945</v>
       </c>
       <c r="AE17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40532554878448751</v>
       </c>
       <c r="AF17" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15629751581539669</v>
       </c>
     </row>
@@ -5586,107 +5586,107 @@
         <v>2030</v>
       </c>
       <c r="G18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20817782293225748</v>
       </c>
       <c r="H18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.1093019359364078</v>
       </c>
       <c r="I18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56423670879149446</v>
       </c>
       <c r="J18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36285220482705244</v>
       </c>
       <c r="K18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25844216022896338</v>
       </c>
       <c r="L18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12471877888282305</v>
       </c>
       <c r="M18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32683045687215972</v>
       </c>
       <c r="N18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50570207476878482</v>
       </c>
       <c r="O18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23788811001110061</v>
       </c>
       <c r="P18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27087040347975844</v>
       </c>
       <c r="Q18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5474741798121161</v>
       </c>
       <c r="R18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36116839809454465</v>
       </c>
       <c r="S18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35540866509381824</v>
       </c>
       <c r="T18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.9016303642089742</v>
       </c>
       <c r="U18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51740776064570804</v>
       </c>
       <c r="V18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58298722756945731</v>
       </c>
       <c r="W18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47725930415440593</v>
       </c>
       <c r="X18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44330938213417909</v>
       </c>
       <c r="Y18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.70787664393028393</v>
       </c>
       <c r="Z18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.440540025803211E-2</v>
       </c>
       <c r="AA18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39869187612113649</v>
       </c>
       <c r="AB18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17705008217468987</v>
       </c>
       <c r="AC18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19307383303926301</v>
       </c>
       <c r="AD18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22442347303881718</v>
       </c>
       <c r="AE18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46899839214444627</v>
       </c>
       <c r="AF18" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18085039009610454</v>
       </c>
     </row>
@@ -5702,107 +5702,107 @@
         <v>2050</v>
       </c>
       <c r="G19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26470370503592316</v>
       </c>
       <c r="H19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.9535610994719645</v>
       </c>
       <c r="I19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7174421618530672</v>
       </c>
       <c r="J19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46137634472923306</v>
       </c>
       <c r="K19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32861616279057554</v>
       </c>
       <c r="L19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15858328419825077</v>
       </c>
       <c r="M19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41557372266687692</v>
       </c>
       <c r="N19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64301379921342605</v>
       </c>
       <c r="O19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30248113471924648</v>
       </c>
       <c r="P19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34441900859439423</v>
       </c>
       <c r="Q19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.69612815508656667</v>
       </c>
       <c r="R19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45923533914861325</v>
       </c>
       <c r="S19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45191168361299899</v>
       </c>
       <c r="T19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.4179741911256665</v>
       </c>
       <c r="U19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65789789386848718</v>
       </c>
       <c r="V19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74128395115589563</v>
       </c>
       <c r="W19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.60684805083030968</v>
       </c>
       <c r="X19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56367981120778743</v>
       </c>
       <c r="Y19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.90008420550019419</v>
       </c>
       <c r="Z19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12003900738183884</v>
       </c>
       <c r="AA19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50694745141671516</v>
       </c>
       <c r="AB19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22512394484884937</v>
       </c>
       <c r="AC19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24549857535790856</v>
       </c>
       <c r="AD19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28536048640366246</v>
       </c>
       <c r="AE19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59634407886436391</v>
       </c>
       <c r="AF19" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22995613865752026</v>
       </c>
     </row>
@@ -5818,107 +5818,107 @@
         <v>2019</v>
       </c>
       <c r="G20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13064779508364899</v>
       </c>
       <c r="H20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.0919251481787136</v>
       </c>
       <c r="I20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51060312297639665</v>
       </c>
       <c r="J20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22771801450398094</v>
       </c>
       <c r="K20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1943630348521006</v>
       </c>
       <c r="L20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.3795533767547012E-2</v>
       </c>
       <c r="M20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29576354987636128</v>
       </c>
       <c r="N20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4475877985016371</v>
       </c>
       <c r="O20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1789052334805798</v>
       </c>
       <c r="P20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20370977252820086</v>
       </c>
       <c r="Q20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3435826806631439</v>
       </c>
       <c r="R20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32683749411207558</v>
       </c>
       <c r="S20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27266175557601846</v>
       </c>
       <c r="T20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2457757890372787</v>
       </c>
       <c r="U20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33895865011628784</v>
       </c>
       <c r="V20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44725505188660325</v>
       </c>
       <c r="W20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3661429011624644</v>
       </c>
       <c r="X20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26660117757391238</v>
       </c>
       <c r="Y20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5921925929827917</v>
       </c>
       <c r="Z20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.3534707118324452E-2</v>
       </c>
       <c r="AA20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29948801716050255</v>
       </c>
       <c r="AB20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14811584497082575</v>
       </c>
       <c r="AC20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15038999597426655</v>
       </c>
       <c r="AD20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17480900790929571</v>
       </c>
       <c r="AE20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36531447683124091</v>
       </c>
       <c r="AF20" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14086885317580392</v>
       </c>
     </row>
@@ -5933,107 +5933,107 @@
         <v>2020</v>
       </c>
       <c r="G21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11877072280331726</v>
       </c>
       <c r="H21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8108410437988307</v>
       </c>
       <c r="I21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46418465725126973</v>
       </c>
       <c r="J21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20701637682180085</v>
       </c>
       <c r="K21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17669366804736417</v>
       </c>
       <c r="L21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5268667061406372E-2</v>
       </c>
       <c r="M21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26887595443305573</v>
       </c>
       <c r="N21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40689799863785192</v>
       </c>
       <c r="O21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16264112134598166</v>
       </c>
       <c r="P21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18519070229836443</v>
       </c>
       <c r="Q21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31234789151194903</v>
       </c>
       <c r="R21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29712499464734149</v>
       </c>
       <c r="S21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2478743232509259</v>
       </c>
       <c r="T21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1325234445793442</v>
       </c>
       <c r="U21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30814422737844349</v>
       </c>
       <c r="V21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4065955017150939</v>
       </c>
       <c r="W21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33285718287496763</v>
       </c>
       <c r="X21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2423647068853749</v>
       </c>
       <c r="Y21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53835690271162884</v>
       </c>
       <c r="Z21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.6849733743931328E-2</v>
       </c>
       <c r="AA21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27226183378227509</v>
       </c>
       <c r="AB21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13465076815529611</v>
       </c>
       <c r="AC21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13671817815842413</v>
       </c>
       <c r="AD21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15891727991754154</v>
       </c>
       <c r="AE21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33210406984658275</v>
       </c>
       <c r="AF21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12806259379618537</v>
       </c>
     </row>
@@ -6048,107 +6048,107 @@
         <v>2030</v>
       </c>
       <c r="G22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.9180481868878175E-2</v>
       </c>
       <c r="H22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.8738940291992201</v>
       </c>
       <c r="I22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30945643816751311</v>
       </c>
       <c r="J22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13801091788120054</v>
       </c>
       <c r="K22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11779577869824279</v>
       </c>
       <c r="L22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.6845778040937579E-2</v>
       </c>
       <c r="M22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17925063628870383</v>
       </c>
       <c r="N22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2712653324252346</v>
       </c>
       <c r="O22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10842741423065444</v>
       </c>
       <c r="P22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1234604681989096</v>
       </c>
       <c r="Q22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20823192767463269</v>
       </c>
       <c r="R22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19808332976489432</v>
       </c>
       <c r="S22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1652495488339506</v>
       </c>
       <c r="T22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75501562971956282</v>
       </c>
       <c r="U22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20542948491896232</v>
       </c>
       <c r="V22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27106366781006258</v>
       </c>
       <c r="W22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22190478858331172</v>
       </c>
       <c r="X22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16157647125691657</v>
       </c>
       <c r="Y22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35890460180775258</v>
       </c>
       <c r="Z22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.4566489162620883E-2</v>
       </c>
       <c r="AA22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18150788918818334</v>
       </c>
       <c r="AB22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.9767178770197409E-2</v>
       </c>
       <c r="AC22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1145452105616087E-2</v>
       </c>
       <c r="AD22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10594485327836103</v>
       </c>
       <c r="AE22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22140271323105512</v>
       </c>
       <c r="AF22" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5375062530790247E-2</v>
       </c>
     </row>
@@ -6163,107 +6163,107 @@
         <v>2050</v>
       </c>
       <c r="G23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="I23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="T23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="V23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AB23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF23" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6279,107 +6279,107 @@
         <v>2019</v>
       </c>
       <c r="G24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.1369795698699275E-2</v>
       </c>
       <c r="H24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2157232586735747</v>
       </c>
       <c r="I24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20076556281429395</v>
       </c>
       <c r="J24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.9537124407597243E-2</v>
       </c>
       <c r="K24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.6422180606561071E-2</v>
       </c>
       <c r="L24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.6879745303044567E-2</v>
       </c>
       <c r="M24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11629215114226027</v>
       </c>
       <c r="N24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17598837968553932</v>
       </c>
       <c r="O24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.0344281642420695E-2</v>
       </c>
       <c r="P24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.0097252233779601E-2</v>
       </c>
       <c r="Q24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13509429761119718</v>
       </c>
       <c r="R24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12851020783368303</v>
       </c>
       <c r="S24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10720868782990856</v>
       </c>
       <c r="T24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48983029318066279</v>
       </c>
       <c r="U24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13327616126726244</v>
       </c>
       <c r="V24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17585754605284931</v>
       </c>
       <c r="W24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14396481790758336</v>
       </c>
       <c r="X24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10482571111311897</v>
       </c>
       <c r="Y24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23284596954990056</v>
       </c>
       <c r="Z24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.891333052359172E-2</v>
       </c>
       <c r="AA24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11775658552747396</v>
       </c>
       <c r="AB24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.8238110264470733E-2</v>
       </c>
       <c r="AC24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.9132290471338791E-2</v>
       </c>
       <c r="AD24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.8733674508960146E-2</v>
       </c>
       <c r="AE24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14363908727723138</v>
       </c>
       <c r="AF24" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
@@ -6394,107 +6394,107 @@
         <v>2020</v>
       </c>
       <c r="G25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.2718404005341231E-2</v>
       </c>
       <c r="H25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2476395718090483</v>
       </c>
       <c r="I25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20603624964526884</v>
       </c>
       <c r="J25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1887737410560347E-2</v>
       </c>
       <c r="K25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.8428487740469136E-2</v>
       </c>
       <c r="L25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.7847947145898793E-2</v>
       </c>
       <c r="M25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11934516233092819</v>
       </c>
       <c r="N25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18060859254580552</v>
       </c>
       <c r="O25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.2191026042654552E-2</v>
       </c>
       <c r="P25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13864092047508828</v>
       </c>
       <c r="R25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13188397896544515</v>
       </c>
       <c r="S25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11002323137607375</v>
       </c>
       <c r="T25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50268977983509444</v>
       </c>
       <c r="U25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1367750527017661</v>
       </c>
       <c r="V25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18047432414524395</v>
       </c>
       <c r="W25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14774431803316554</v>
       </c>
       <c r="X25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10757769450791341</v>
       </c>
       <c r="Y25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23895886146297948</v>
       </c>
       <c r="Z25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.967239053514998E-2</v>
       </c>
       <c r="AA25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12084804242824897</v>
       </c>
       <c r="AB25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.068468710900795E-2</v>
       </c>
       <c r="AD25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1474100360152161</v>
       </c>
       <c r="AF25" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
@@ -6509,107 +6509,107 @@
         <v>2030</v>
       </c>
       <c r="G26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.2151233573399967E-2</v>
       </c>
       <c r="H26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.4708779581996561</v>
       </c>
       <c r="I26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24290202478423006</v>
       </c>
       <c r="J26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10832908048119906</v>
       </c>
       <c r="K26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2461586277774524E-2</v>
       </c>
       <c r="L26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.4620026871453208E-2</v>
       </c>
       <c r="M26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14069942366110599</v>
       </c>
       <c r="N26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21292463291453403</v>
       </c>
       <c r="O26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5108064368296127E-2</v>
       </c>
       <c r="P26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.6907978014310434E-2</v>
       </c>
       <c r="Q26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16344774455625344</v>
       </c>
       <c r="R26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15548179304594056</v>
       </c>
       <c r="S26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12970953276699687</v>
       </c>
       <c r="T26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59263535213104257</v>
       </c>
       <c r="U26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16124801969764282</v>
       </c>
       <c r="V26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2127663400587036</v>
       </c>
       <c r="W26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17418000018156132</v>
       </c>
       <c r="X26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12682641944114589</v>
       </c>
       <c r="Y26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28171543303387286</v>
       </c>
       <c r="Z26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.4981629463676549E-2</v>
       </c>
       <c r="AA26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14247121197153992</v>
       </c>
       <c r="AB26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.0461062667068239E-2</v>
       </c>
       <c r="AC26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.1542912461054778E-2</v>
       </c>
       <c r="AD26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.3159424729279119E-2</v>
       </c>
       <c r="AE26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17378590555428736</v>
       </c>
       <c r="AF26" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.7013553434566345E-2</v>
       </c>
     </row>
@@ -6624,107 +6624,107 @@
         <v>2050</v>
       </c>
       <c r="G27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.1016892709517424E-2</v>
       </c>
       <c r="H27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.9173547309808718</v>
       </c>
       <c r="I27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31663357506215251</v>
       </c>
       <c r="J27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14121176662247656</v>
       </c>
       <c r="K27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12052778335238534</v>
       </c>
       <c r="L27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.8164186322562053E-2</v>
       </c>
       <c r="M27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1834079463214616</v>
       </c>
       <c r="N27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27755671365199108</v>
       </c>
       <c r="O27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11094214101957932</v>
       </c>
       <c r="P27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12632385241733773</v>
       </c>
       <c r="Q27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21306139271858376</v>
       </c>
       <c r="R27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20267742120693139</v>
       </c>
       <c r="S27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16908213554884313</v>
       </c>
       <c r="T27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7725264967229386</v>
       </c>
       <c r="U27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21019395368939628</v>
       </c>
       <c r="V27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27735037188562289</v>
       </c>
       <c r="W27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22705136447835297</v>
       </c>
       <c r="X27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16532386930761089</v>
       </c>
       <c r="Y27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36722857617565963</v>
       </c>
       <c r="Z27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.5600107320729701E-2</v>
       </c>
       <c r="AA27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18571755105812188</v>
       </c>
       <c r="AB27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.18491239205209E-2</v>
       </c>
       <c r="AC27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.3259363165148407E-2</v>
       </c>
       <c r="AD27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10840200272325237</v>
       </c>
       <c r="AE27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22653764463242995</v>
       </c>
       <c r="AF27" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.7355142553685775E-2</v>
       </c>
     </row>
@@ -6740,107 +6740,107 @@
         <v>2019</v>
       </c>
       <c r="G28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1629624043332934</v>
       </c>
       <c r="H28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.8566862597502731</v>
       </c>
       <c r="I28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63689641701986843</v>
       </c>
       <c r="J28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28404210824846116</v>
       </c>
       <c r="K28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24243706105207907</v>
       </c>
       <c r="L28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11699505291074819</v>
       </c>
       <c r="M28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36891812197168955</v>
       </c>
       <c r="N28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55829479362718504</v>
       </c>
       <c r="O28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22315590536478461</v>
       </c>
       <c r="P28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25409563396097901</v>
       </c>
       <c r="Q28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42856490377273548</v>
       </c>
       <c r="R28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4076779392462821</v>
       </c>
       <c r="S28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34010229740161857</v>
       </c>
       <c r="T28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5539077235229115</v>
       </c>
       <c r="U28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42279715901176512</v>
       </c>
       <c r="V28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5578797449967432</v>
       </c>
       <c r="W28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45670520091670769</v>
       </c>
       <c r="X28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33254268751887739</v>
       </c>
       <c r="Y28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.738666341204264</v>
       </c>
       <c r="Z28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1722884923348305E-2</v>
       </c>
       <c r="AA28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37356380422829233</v>
       </c>
       <c r="AB28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18475102622932804</v>
       </c>
       <c r="AC28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18758766893807341</v>
       </c>
       <c r="AD28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21804651360382518</v>
       </c>
       <c r="AE28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45567187294712425</v>
       </c>
       <c r="AF28" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17571155329873456</v>
       </c>
     </row>
@@ -6856,107 +6856,107 @@
         <v>2020</v>
       </c>
       <c r="G29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16235731275947515</v>
       </c>
       <c r="H29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.8423660957334085</v>
       </c>
       <c r="I29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63453157307374231</v>
       </c>
       <c r="J29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28298743869437681</v>
       </c>
       <c r="K29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24153687414440531</v>
       </c>
       <c r="L29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11656064154461539</v>
       </c>
       <c r="M29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3675483014419349</v>
       </c>
       <c r="N29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55622180337699523</v>
       </c>
       <c r="O29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22232731082767995</v>
       </c>
       <c r="P29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25315215790168288</v>
       </c>
       <c r="Q29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42697361028901426</v>
       </c>
       <c r="R29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40616420062123709</v>
       </c>
       <c r="S29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3388394721798389</v>
       </c>
       <c r="T29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5481379481330504</v>
       </c>
       <c r="U29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4212272815949526</v>
       </c>
       <c r="V29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55580829585310521</v>
       </c>
       <c r="W29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45500942040877851</v>
       </c>
       <c r="X29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33130793169298151</v>
       </c>
       <c r="Y29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.73592361793165129</v>
       </c>
       <c r="Z29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1382311003734881E-2</v>
       </c>
       <c r="AA29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37217673393347922</v>
       </c>
       <c r="AB29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18406503187570397</v>
       </c>
       <c r="AC29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18689114191829229</v>
       </c>
       <c r="AD29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21723689061978846</v>
       </c>
       <c r="AE29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45397992926309294</v>
       </c>
       <c r="AF29" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17505912318297531</v>
       </c>
     </row>
@@ -6972,107 +6972,107 @@
         <v>2030</v>
       </c>
       <c r="G30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10823820850631675</v>
       </c>
       <c r="H30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.5615773971556055</v>
       </c>
       <c r="I30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42302104871582824</v>
       </c>
       <c r="J30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18865829246291785</v>
       </c>
       <c r="K30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16102458276293685</v>
       </c>
       <c r="L30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.770709436307692E-2</v>
       </c>
       <c r="M30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24503220096128994</v>
       </c>
       <c r="N30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37081453558466354</v>
       </c>
       <c r="O30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14821820721845327</v>
       </c>
       <c r="P30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1687681052677886</v>
       </c>
       <c r="Q30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28464907352600949</v>
       </c>
       <c r="R30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27077613374749138</v>
       </c>
       <c r="S30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22589298145322589</v>
       </c>
       <c r="T30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0320919654220335</v>
       </c>
       <c r="U30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28081818772996836</v>
       </c>
       <c r="V30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37053886390207008</v>
       </c>
       <c r="W30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30333961360585232</v>
       </c>
       <c r="X30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22087195446198762</v>
       </c>
       <c r="Y30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49061574528776752</v>
       </c>
       <c r="Z30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.0921540669156587E-2</v>
       </c>
       <c r="AA30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24811782262231949</v>
       </c>
       <c r="AB30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12271002125046931</v>
       </c>
       <c r="AC30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12459409461219485</v>
       </c>
       <c r="AD30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14482459374652562</v>
       </c>
       <c r="AE30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30265328617539522</v>
       </c>
       <c r="AF30" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11670608212198352</v>
       </c>
     </row>
@@ -7088,107 +7088,107 @@
         <v>2050</v>
       </c>
       <c r="G31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="I31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="T31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="V31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AB31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF31" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7204,107 +7204,107 @@
         <v>2019</v>
       </c>
       <c r="G32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13395677260860595</v>
       </c>
       <c r="I32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6779068407982807E-2</v>
       </c>
       <c r="T32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6352277307537207E-4</v>
       </c>
       <c r="U32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6529102661710439E-2</v>
       </c>
       <c r="V32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2704554615074527E-5</v>
       </c>
       <c r="AB32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF32" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7319,107 +7319,107 @@
         <v>2020</v>
       </c>
       <c r="G33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13395677260860595</v>
       </c>
       <c r="I33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6779068407982807E-2</v>
       </c>
       <c r="T33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6352277307537207E-4</v>
       </c>
       <c r="U33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6529102661710439E-2</v>
       </c>
       <c r="V33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2704554615074527E-5</v>
       </c>
       <c r="AB33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF33" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7434,107 +7434,107 @@
         <v>2030</v>
       </c>
       <c r="G34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13429585799734914</v>
       </c>
       <c r="I34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6897480476945606E-2</v>
       </c>
       <c r="T34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6469609038243213E-4</v>
       </c>
       <c r="U34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6646881991240993E-2</v>
       </c>
       <c r="V34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2939218076486528E-5</v>
       </c>
       <c r="AB34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF34" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7549,107 +7549,107 @@
         <v>2050</v>
       </c>
       <c r="G35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1349740287748355</v>
       </c>
       <c r="I35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7134304614871211E-2</v>
       </c>
       <c r="T35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6704272499655208E-4</v>
       </c>
       <c r="U35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6882440650302074E-2</v>
       </c>
       <c r="V35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.340854499931053E-5</v>
       </c>
       <c r="AB35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF35" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7665,107 +7665,107 @@
         <v>2019</v>
       </c>
       <c r="G36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>40.559731289160872</v>
       </c>
       <c r="I36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.401587408534509</v>
       </c>
       <c r="T36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2205531132921634</v>
       </c>
       <c r="U36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24198661780769198</v>
       </c>
       <c r="V36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.6908520936307182</v>
       </c>
       <c r="AB36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF36" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7781,107 +7781,107 @@
         <v>2020</v>
       </c>
       <c r="G37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>41.184477806263274</v>
       </c>
       <c r="I37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.4385793540260186</v>
       </c>
       <c r="T37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2547565653239303</v>
       </c>
       <c r="U37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24571396736982151</v>
       </c>
       <c r="V37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.70149337318584271</v>
       </c>
       <c r="AB37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF37" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7897,107 +7897,107 @@
         <v>2030</v>
       </c>
       <c r="G38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>43.374559050865884</v>
       </c>
       <c r="I38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.5682565331771237</v>
       </c>
       <c r="T38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.3746585363551027</v>
       </c>
       <c r="U38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25878038413987231</v>
       </c>
       <c r="V38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.73879692932304564</v>
       </c>
       <c r="AB38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF38" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8013,107 +8013,107 @@
         <v>2050</v>
       </c>
       <c r="G39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>47.75472154007111</v>
       </c>
       <c r="I39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8276108914793352</v>
       </c>
       <c r="T39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6144624784174479</v>
       </c>
       <c r="U39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28491321767997396</v>
       </c>
       <c r="V39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81340404159745194</v>
       </c>
       <c r="AB39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF39" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CP$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -8890,8 +8890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P26" sqref="P26"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8902,13 +8902,15 @@
     <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.453125" customWidth="1"/>
     <col min="10" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="17" max="17" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:26" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -8916,7 +8918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8945,22 +8947,46 @@
         <v>2021</v>
       </c>
       <c r="L2" s="13">
+        <v>2022</v>
+      </c>
+      <c r="M2" s="13">
+        <v>2023</v>
+      </c>
+      <c r="N2" s="13">
+        <v>2024</v>
+      </c>
+      <c r="O2" s="13">
+        <v>2025</v>
+      </c>
+      <c r="P2" s="13">
+        <v>2026</v>
+      </c>
+      <c r="Q2" s="13">
+        <v>2027</v>
+      </c>
+      <c r="R2" s="13">
+        <v>2028</v>
+      </c>
+      <c r="S2" s="13">
+        <v>2029</v>
+      </c>
+      <c r="T2" s="13">
         <v>2030</v>
       </c>
-      <c r="M2" s="13">
+      <c r="U2" s="13">
         <v>2050</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="V2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Y2" t="s">
         <v>194</v>
       </c>
-      <c r="R2" t="s">
+      <c r="Z2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8987,24 +9013,46 @@
         <v>1.7972395625350801</v>
       </c>
       <c r="L3" s="30">
-        <f>J3*2/3+M3/3</f>
-        <v>1.2424177917923365</v>
-      </c>
-      <c r="M3">
-        <f>(Q3+R3)/2</f>
+        <v>1.7355926991192092</v>
+      </c>
+      <c r="M3" s="30">
+        <v>1.6739458357033499</v>
+      </c>
+      <c r="N3" s="30">
+        <v>1.6122989722874905</v>
+      </c>
+      <c r="O3" s="30">
+        <v>1.5506521088716312</v>
+      </c>
+      <c r="P3" s="30">
+        <v>1.4890052454557718</v>
+      </c>
+      <c r="Q3" s="30">
+        <v>1.4273583820399125</v>
+      </c>
+      <c r="R3" s="30">
+        <v>1.3657115186240389</v>
+      </c>
+      <c r="S3" s="30">
+        <v>1.3040646552081796</v>
+      </c>
+      <c r="T3" s="30">
+        <v>1.2424177917923203</v>
+      </c>
+      <c r="U3">
         <v>9.7989935307649739E-2</v>
       </c>
-      <c r="N3" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="35">
+      <c r="V3" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="35">
         <v>0.126438626203419</v>
       </c>
-      <c r="R3" s="30">
+      <c r="Z3" s="30">
         <v>6.9541244411880462E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9031,24 +9079,46 @@
         <v>23.206398476760199</v>
       </c>
       <c r="L4" s="30">
-        <f>J4*2/3+M4/3</f>
+        <v>23.307206870973118</v>
+      </c>
+      <c r="M4" s="30">
+        <v>23.408015265186009</v>
+      </c>
+      <c r="N4" s="30">
+        <v>23.5088236593989</v>
+      </c>
+      <c r="O4" s="30">
+        <v>23.609632053611818</v>
+      </c>
+      <c r="P4" s="30">
+        <v>23.710440447824709</v>
+      </c>
+      <c r="Q4" s="30">
+        <v>23.811248842037628</v>
+      </c>
+      <c r="R4" s="30">
+        <v>23.912057236250519</v>
+      </c>
+      <c r="S4" s="30">
+        <v>24.012865630463409</v>
+      </c>
+      <c r="T4" s="30">
         <v>24.113674024676317</v>
       </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M36" si="0">(Q4+R4)/2</f>
+      <c r="U4">
         <v>26.346234207155959</v>
       </c>
-      <c r="N4" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="35">
+      <c r="V4" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="35">
         <v>33.995140912459298</v>
       </c>
-      <c r="R4" s="30">
+      <c r="Z4" s="30">
         <v>18.697327501852616</v>
       </c>
     </row>
-    <row r="5" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9075,24 +9145,46 @@
         <v>1.42973411467998</v>
       </c>
       <c r="L5" s="30">
-        <f>J5*2/3+M5/3</f>
+        <v>1.5141869213109658</v>
+      </c>
+      <c r="M5" s="30">
+        <v>1.5986397279419293</v>
+      </c>
+      <c r="N5" s="30">
+        <v>1.6830925345729213</v>
+      </c>
+      <c r="O5" s="30">
+        <v>1.7675453412038848</v>
+      </c>
+      <c r="P5" s="30">
+        <v>1.8519981478348768</v>
+      </c>
+      <c r="Q5" s="30">
+        <v>1.9364509544658404</v>
+      </c>
+      <c r="R5" s="30">
+        <v>2.0209037610968323</v>
+      </c>
+      <c r="S5" s="30">
+        <v>2.1053565677277959</v>
+      </c>
+      <c r="T5" s="30">
         <v>2.1898093743587719</v>
       </c>
-      <c r="M5">
-        <f t="shared" si="0"/>
+      <c r="U5">
         <v>3.8534877653787154</v>
       </c>
-      <c r="N5" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="35">
+      <c r="V5" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="35">
         <v>4.9722422779080198</v>
       </c>
-      <c r="R5" s="30">
+      <c r="Z5" s="30">
         <v>2.7347332528494115</v>
       </c>
     </row>
-    <row r="6" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9119,24 +9211,46 @@
         <v>5.7714923131207199</v>
       </c>
       <c r="L6" s="30">
-        <f>J6*2/3+M6/3</f>
+        <v>5.774130699108345</v>
+      </c>
+      <c r="M6" s="30">
+        <v>5.7767690850959701</v>
+      </c>
+      <c r="N6" s="30">
+        <v>5.7794074710835952</v>
+      </c>
+      <c r="O6" s="30">
+        <v>5.7820458570712203</v>
+      </c>
+      <c r="P6" s="30">
+        <v>5.7846842430588463</v>
+      </c>
+      <c r="Q6" s="30">
+        <v>5.7873226290464714</v>
+      </c>
+      <c r="R6" s="30">
+        <v>5.7899610150340965</v>
+      </c>
+      <c r="S6" s="30">
+        <v>5.7925994010217217</v>
+      </c>
+      <c r="T6" s="30">
         <v>5.7952377870093468</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
+      <c r="U6">
         <v>5.9308505795404391</v>
       </c>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="35">
+      <c r="V6" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="35">
         <v>7.6527104252134697</v>
       </c>
-      <c r="R6" s="30">
+      <c r="Z6" s="30">
         <v>4.2089907338674086</v>
       </c>
     </row>
-    <row r="7" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9163,24 +9277,46 @@
         <v>1.17197510213696</v>
       </c>
       <c r="L7" s="30">
-        <f>J7*2/3+M7/3</f>
+        <v>1.1929381003551427</v>
+      </c>
+      <c r="M7" s="30">
+        <v>1.2139010985733236</v>
+      </c>
+      <c r="N7" s="30">
+        <v>1.2348640967915046</v>
+      </c>
+      <c r="O7" s="30">
+        <v>1.2558270950096926</v>
+      </c>
+      <c r="P7" s="30">
+        <v>1.2767900932278735</v>
+      </c>
+      <c r="Q7" s="30">
+        <v>1.2977530914460544</v>
+      </c>
+      <c r="R7" s="30">
+        <v>1.3187160896642425</v>
+      </c>
+      <c r="S7" s="30">
+        <v>1.3396790878824234</v>
+      </c>
+      <c r="T7" s="30">
         <v>1.3606420861006083</v>
       </c>
-      <c r="M7">
-        <f t="shared" si="0"/>
+      <c r="U7">
         <v>1.7912647554770649</v>
       </c>
-      <c r="N7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="35">
+      <c r="V7" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="35">
         <v>2.3113093619058902</v>
       </c>
-      <c r="R7" s="30">
+      <c r="Z7" s="30">
         <v>1.2712201490482398</v>
       </c>
     </row>
-    <row r="8" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9207,24 +9343,46 @@
         <v>10.5428293661965</v>
       </c>
       <c r="L8" s="30">
-        <f>J8*2/3+M8/3</f>
+        <v>10.524126408294414</v>
+      </c>
+      <c r="M8" s="30">
+        <v>10.505423450392328</v>
+      </c>
+      <c r="N8" s="30">
+        <v>10.486720492490242</v>
+      </c>
+      <c r="O8" s="30">
+        <v>10.468017534588157</v>
+      </c>
+      <c r="P8" s="30">
+        <v>10.449314576686078</v>
+      </c>
+      <c r="Q8" s="30">
+        <v>10.430611618783992</v>
+      </c>
+      <c r="R8" s="30">
+        <v>10.411908660881906</v>
+      </c>
+      <c r="S8" s="30">
+        <v>10.39320570297982</v>
+      </c>
+      <c r="T8" s="30">
         <v>10.374502745077734</v>
       </c>
-      <c r="M8">
-        <f t="shared" si="0"/>
+      <c r="U8">
         <v>10.157935062437405</v>
       </c>
-      <c r="N8" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="35">
+      <c r="V8" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="35">
         <v>13.107012983790201</v>
       </c>
-      <c r="R8" s="30">
+      <c r="Z8" s="30">
         <v>7.2088571410846098</v>
       </c>
     </row>
-    <row r="9" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9251,24 +9409,46 @@
         <v>1.0560918609379499</v>
       </c>
       <c r="L9" s="30">
-        <f>J9*2/3+M9/3</f>
+        <v>1.0423022217408722</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1.0285125825437973</v>
+      </c>
+      <c r="N9" s="30">
+        <v>1.0147229433467224</v>
+      </c>
+      <c r="O9" s="30">
+        <v>1.0009333041496475</v>
+      </c>
+      <c r="P9" s="30">
+        <v>0.98714366495257266</v>
+      </c>
+      <c r="Q9" s="30">
+        <v>0.97335402575549423</v>
+      </c>
+      <c r="R9" s="30">
+        <v>0.95956438655841936</v>
+      </c>
+      <c r="S9" s="30">
+        <v>0.94577474736134448</v>
+      </c>
+      <c r="T9" s="30">
         <v>0.93198510816426949</v>
       </c>
-      <c r="M9">
-        <f t="shared" si="0"/>
+      <c r="U9">
         <v>0.68793979220818868</v>
       </c>
-      <c r="N9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="35">
+      <c r="V9" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="35">
         <v>0.88766424801056598</v>
       </c>
-      <c r="R9" s="30">
+      <c r="Z9" s="30">
         <v>0.48821533640581133</v>
       </c>
     </row>
-    <row r="10" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9295,24 +9475,46 @@
         <v>18.038812365039959</v>
       </c>
       <c r="L10" s="30">
-        <f>J10*2/3+M10/3</f>
+        <v>17.859218677936212</v>
+      </c>
+      <c r="M10" s="30">
+        <v>17.679624990832451</v>
+      </c>
+      <c r="N10" s="30">
+        <v>17.50003130372869</v>
+      </c>
+      <c r="O10" s="30">
+        <v>17.320437616624929</v>
+      </c>
+      <c r="P10" s="30">
+        <v>17.140843929521168</v>
+      </c>
+      <c r="Q10" s="30">
+        <v>16.961250242417407</v>
+      </c>
+      <c r="R10" s="30">
+        <v>16.781656555313646</v>
+      </c>
+      <c r="S10" s="30">
+        <v>16.602062868209885</v>
+      </c>
+      <c r="T10" s="30">
         <v>16.422469181106088</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="0"/>
+      <c r="U10">
         <v>16.853923637480463</v>
       </c>
-      <c r="N10" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="35">
+      <c r="V10" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="35">
         <v>24.822798092583323</v>
       </c>
-      <c r="R10" s="30">
+      <c r="Z10" s="30">
         <v>8.8850491823775997</v>
       </c>
     </row>
-    <row r="11" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9339,24 +9541,46 @@
         <v>18.007471512750399</v>
       </c>
       <c r="L11" s="30">
-        <f>J11*2/3+M11/3</f>
+        <v>17.958010082281277</v>
+      </c>
+      <c r="M11" s="30">
+        <v>17.90854865181214</v>
+      </c>
+      <c r="N11" s="30">
+        <v>17.859087221343017</v>
+      </c>
+      <c r="O11" s="30">
+        <v>17.809625790873895</v>
+      </c>
+      <c r="P11" s="30">
+        <v>17.760164360404772</v>
+      </c>
+      <c r="Q11" s="30">
+        <v>17.71070292993565</v>
+      </c>
+      <c r="R11" s="30">
+        <v>17.661241499466527</v>
+      </c>
+      <c r="S11" s="30">
+        <v>17.611780068997405</v>
+      </c>
+      <c r="T11" s="30">
         <v>17.562318638528279</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="0"/>
+      <c r="U11">
         <v>16.844014653390236</v>
       </c>
-      <c r="N11" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="35">
+      <c r="V11" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="35">
         <v>21.7342124559874</v>
       </c>
-      <c r="R11" s="30">
+      <c r="Z11" s="30">
         <v>11.953816850793071</v>
       </c>
     </row>
-    <row r="12" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9383,24 +9607,46 @@
         <v>2.2724834198886699</v>
       </c>
       <c r="L12" s="30">
-        <f>J12*2/3+M12/3</f>
+        <v>2.2377470890417612</v>
+      </c>
+      <c r="M12" s="30">
+        <v>2.2030107581948499</v>
+      </c>
+      <c r="N12" s="30">
+        <v>2.1682744273479386</v>
+      </c>
+      <c r="O12" s="30">
+        <v>2.1335380965010273</v>
+      </c>
+      <c r="P12" s="30">
+        <v>2.0988017656541302</v>
+      </c>
+      <c r="Q12" s="30">
+        <v>2.0640654348072189</v>
+      </c>
+      <c r="R12" s="30">
+        <v>2.0293291039603076</v>
+      </c>
+      <c r="S12" s="30">
+        <v>1.9945927731133963</v>
+      </c>
+      <c r="T12" s="30">
         <v>1.9598564422664884</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="0"/>
+      <c r="U12">
         <v>1.3071809478517049</v>
       </c>
-      <c r="N12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="35">
+      <c r="V12" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="35">
         <v>1.6866850940022</v>
       </c>
-      <c r="R12" s="30">
+      <c r="Z12" s="30">
         <v>0.92767680170120992</v>
       </c>
     </row>
-    <row r="13" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9427,24 +9673,46 @@
         <v>6.0384328428305096</v>
       </c>
       <c r="L13" s="30">
-        <f>J13*2/3+M13/3</f>
+        <v>6.2667484495085546</v>
+      </c>
+      <c r="M13" s="30">
+        <v>6.4950640561865498</v>
+      </c>
+      <c r="N13" s="30">
+        <v>6.7233796628646019</v>
+      </c>
+      <c r="O13" s="30">
+        <v>6.9516952695426539</v>
+      </c>
+      <c r="P13" s="30">
+        <v>7.1800108762206492</v>
+      </c>
+      <c r="Q13" s="30">
+        <v>7.4083264828987012</v>
+      </c>
+      <c r="R13" s="30">
+        <v>7.6366420895766964</v>
+      </c>
+      <c r="S13" s="30">
+        <v>7.8649576962547485</v>
+      </c>
+      <c r="T13" s="30">
         <v>8.0932733029327437</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="0"/>
+      <c r="U13">
         <v>12.686569622394671</v>
       </c>
-      <c r="N13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="35">
+      <c r="V13" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="35">
         <v>16.369767254702801</v>
       </c>
-      <c r="R13" s="30">
+      <c r="Z13" s="30">
         <v>9.0033719900865421</v>
       </c>
     </row>
-    <row r="14" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9471,24 +9739,46 @@
         <v>0.19096988348358901</v>
       </c>
       <c r="L14" s="30">
-        <f>J14*2/3+M14/3</f>
+        <v>0.1853627564264162</v>
+      </c>
+      <c r="M14" s="30">
+        <v>0.17975562936924305</v>
+      </c>
+      <c r="N14" s="30">
+        <v>0.17414850231206991</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0.16854137525489676</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0.16293424819772362</v>
+      </c>
+      <c r="Q14" s="30">
+        <v>0.15732712114055047</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0.15171999408337555</v>
+      </c>
+      <c r="S14" s="30">
+        <v>0.14611286702620241</v>
+      </c>
+      <c r="T14" s="30">
         <v>0.14050573996902802</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
+      <c r="U14">
         <v>3.2628733640509965E-2</v>
       </c>
-      <c r="N14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="35">
+      <c r="V14" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="35">
         <v>4.2101591794206403E-2</v>
       </c>
-      <c r="R14" s="30">
+      <c r="Z14" s="30">
         <v>2.3155875486813523E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9515,24 +9805,46 @@
         <v>4.5894976142623198</v>
       </c>
       <c r="L15" s="30">
-        <f>J15*2/3+M15/3</f>
+        <v>4.5950681273607898</v>
+      </c>
+      <c r="M15" s="30">
+        <v>4.6006386404592607</v>
+      </c>
+      <c r="N15" s="30">
+        <v>4.6062091535577299</v>
+      </c>
+      <c r="O15" s="30">
+        <v>4.6117796666562008</v>
+      </c>
+      <c r="P15" s="30">
+        <v>4.6173501797546717</v>
+      </c>
+      <c r="Q15" s="30">
+        <v>4.6229206928531408</v>
+      </c>
+      <c r="R15" s="30">
+        <v>4.6284912059516117</v>
+      </c>
+      <c r="S15" s="30">
+        <v>4.6340617190500808</v>
+      </c>
+      <c r="T15" s="30">
         <v>4.6396322321485517</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
+      <c r="U15">
         <v>4.7394475614649956</v>
       </c>
-      <c r="N15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="35">
+      <c r="V15" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="35">
         <v>6.1154162083419301</v>
       </c>
-      <c r="R15" s="30">
+      <c r="Z15" s="30">
         <v>3.3634789145880619</v>
       </c>
     </row>
-    <row r="16" spans="3:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.35">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9559,24 +9871,46 @@
         <v>3.5792625600137602</v>
       </c>
       <c r="L16" s="30">
-        <f>J16*2/3+M16/3</f>
+        <v>3.6119954802522116</v>
+      </c>
+      <c r="M16" s="30">
+        <v>3.6447284004906706</v>
+      </c>
+      <c r="N16" s="30">
+        <v>3.6774613207291154</v>
+      </c>
+      <c r="O16" s="30">
+        <v>3.7101942409675743</v>
+      </c>
+      <c r="P16" s="30">
+        <v>3.7429271612060333</v>
+      </c>
+      <c r="Q16" s="30">
+        <v>3.7756600814444781</v>
+      </c>
+      <c r="R16" s="30">
+        <v>3.808393001682937</v>
+      </c>
+      <c r="S16" s="30">
+        <v>3.841125921921396</v>
+      </c>
+      <c r="T16" s="30">
         <v>3.873858842159847</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
+      <c r="U16">
         <v>4.5713249322390208</v>
       </c>
-      <c r="N16" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="35">
+      <c r="V16" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="35">
         <v>5.8984837835342203</v>
       </c>
-      <c r="R16" s="30">
+      <c r="Z16" s="30">
         <v>3.2441660809438213</v>
       </c>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9591,7 +9925,6 @@
         <v>35</v>
       </c>
       <c r="H17" s="31">
-        <f>VLOOKUP(F17,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>14.5565610923972</v>
       </c>
       <c r="I17" s="30">
@@ -9604,24 +9937,46 @@
         <v>15.490769824884</v>
       </c>
       <c r="L17" s="30">
-        <f>J17*2/3+M17/3</f>
+        <v>15.300339167147797</v>
+      </c>
+      <c r="M17" s="30">
+        <v>15.109908509411639</v>
+      </c>
+      <c r="N17" s="30">
+        <v>14.919477851675481</v>
+      </c>
+      <c r="O17" s="30">
+        <v>14.729047193939323</v>
+      </c>
+      <c r="P17" s="30">
+        <v>14.538616536203165</v>
+      </c>
+      <c r="Q17" s="30">
+        <v>14.348185878467007</v>
+      </c>
+      <c r="R17" s="30">
+        <v>14.157755220730849</v>
+      </c>
+      <c r="S17" s="30">
+        <v>13.96732456299469</v>
+      </c>
+      <c r="T17" s="30">
         <v>13.776893905258575</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
+      <c r="U17">
         <v>19.808098215775729</v>
       </c>
-      <c r="N17" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="35">
+      <c r="V17" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="35">
         <v>21.065548257939199</v>
       </c>
-      <c r="R17" s="30">
+      <c r="Z17" s="30">
         <v>18.550648173612263</v>
       </c>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9636,7 +9991,6 @@
         <v>37</v>
       </c>
       <c r="H18" s="31">
-        <f>VLOOKUP(F18,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>31.276118540281001</v>
       </c>
       <c r="I18" s="30">
@@ -9649,24 +10003,46 @@
         <v>33.305155123500498</v>
       </c>
       <c r="L18" s="30">
-        <f>J18*2/3+M18/3</f>
+        <v>32.712908471068204</v>
+      </c>
+      <c r="M18" s="30">
+        <v>32.120661818635881</v>
+      </c>
+      <c r="N18" s="30">
+        <v>31.528415166203331</v>
+      </c>
+      <c r="O18" s="30">
+        <v>30.936168513771008</v>
+      </c>
+      <c r="P18" s="30">
+        <v>30.343921861338686</v>
+      </c>
+      <c r="Q18" s="30">
+        <v>29.751675208906136</v>
+      </c>
+      <c r="R18" s="30">
+        <v>29.159428556473813</v>
+      </c>
+      <c r="S18" s="30">
+        <v>28.56718190404149</v>
+      </c>
+      <c r="T18" s="30">
         <v>27.974935251608869</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="0"/>
+      <c r="U18">
         <v>37.651251214826601</v>
       </c>
-      <c r="N18" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="35">
+      <c r="V18" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="35">
         <v>45.290928754569201</v>
       </c>
-      <c r="R18" s="30">
+      <c r="Z18" s="30">
         <v>30.011573675084005</v>
       </c>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9681,7 +10057,6 @@
         <v>39</v>
       </c>
       <c r="H19" s="31">
-        <f>VLOOKUP(F19,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>27.131577542973599</v>
       </c>
       <c r="I19" s="30">
@@ -9694,24 +10069,46 @@
         <v>28.657924176035301</v>
       </c>
       <c r="L19" s="30">
-        <f>J19*2/3+M19/3</f>
+        <v>28.1476569229294</v>
+      </c>
+      <c r="M19" s="30">
+        <v>27.637389669823506</v>
+      </c>
+      <c r="N19" s="30">
+        <v>27.127122416717384</v>
+      </c>
+      <c r="O19" s="30">
+        <v>26.61685516361149</v>
+      </c>
+      <c r="P19" s="30">
+        <v>26.106587910505596</v>
+      </c>
+      <c r="Q19" s="30">
+        <v>25.596320657399701</v>
+      </c>
+      <c r="R19" s="30">
+        <v>25.086053404293807</v>
+      </c>
+      <c r="S19" s="30">
+        <v>24.575786151187685</v>
+      </c>
+      <c r="T19" s="30">
         <v>24.065518898081876</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
+      <c r="U19">
         <v>32.379777214245621</v>
       </c>
-      <c r="N19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="35">
+      <c r="V19" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="35">
         <v>38.971264277187501</v>
       </c>
-      <c r="R19" s="30">
+      <c r="Z19" s="30">
         <v>25.788290151303741</v>
       </c>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9726,7 +10123,6 @@
         <v>41</v>
       </c>
       <c r="H20" s="31">
-        <f>VLOOKUP(F20,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>11.625551</v>
       </c>
       <c r="I20" s="30">
@@ -9739,24 +10135,46 @@
         <v>12.787492999999998</v>
       </c>
       <c r="L20" s="30">
-        <f>J20*2/3+M20/3</f>
+        <v>12.877886669916336</v>
+      </c>
+      <c r="M20" s="30">
+        <v>12.968280339832631</v>
+      </c>
+      <c r="N20" s="30">
+        <v>13.058674009748955</v>
+      </c>
+      <c r="O20" s="30">
+        <v>13.149067679665251</v>
+      </c>
+      <c r="P20" s="30">
+        <v>13.239461349581546</v>
+      </c>
+      <c r="Q20" s="30">
+        <v>13.32985501949787</v>
+      </c>
+      <c r="R20" s="30">
+        <v>13.420248689414166</v>
+      </c>
+      <c r="S20" s="30">
+        <v>13.51064235933049</v>
+      </c>
+      <c r="T20" s="30">
         <v>13.60103602924678</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="0"/>
+      <c r="U20">
         <v>17.294083387740336</v>
       </c>
-      <c r="N20" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="35">
+      <c r="V20" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="35">
         <v>25.138166775480673</v>
       </c>
-      <c r="R20" s="30">
+      <c r="Z20" s="30">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9771,7 +10189,6 @@
         <v>43</v>
       </c>
       <c r="H21" s="31">
-        <f>VLOOKUP(F21,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>7.7245727925227703</v>
       </c>
       <c r="I21" s="30">
@@ -9784,24 +10201,46 @@
         <v>8.9407210909090917</v>
       </c>
       <c r="L21" s="30">
-        <f>J21*2/3+M21/3</f>
+        <v>8.6831694545453502</v>
+      </c>
+      <c r="M21" s="30">
+        <v>8.4256178181817631</v>
+      </c>
+      <c r="N21" s="30">
+        <v>8.1680661818180624</v>
+      </c>
+      <c r="O21" s="30">
+        <v>7.9105145454544754</v>
+      </c>
+      <c r="P21" s="30">
+        <v>7.6529629090908884</v>
+      </c>
+      <c r="Q21" s="30">
+        <v>7.3954112727271877</v>
+      </c>
+      <c r="R21" s="30">
+        <v>7.1378596363636007</v>
+      </c>
+      <c r="S21" s="30">
+        <v>6.8803079999998999</v>
+      </c>
+      <c r="T21" s="30">
         <v>6.6227563636363636</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="35">
-        <v>0</v>
-      </c>
-      <c r="R21" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9816,7 +10255,6 @@
         <v>45</v>
       </c>
       <c r="H22" s="31">
-        <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>3.5132998087277101</v>
       </c>
       <c r="I22" s="30">
@@ -9829,25 +10267,47 @@
         <v>4.5291674028165003</v>
       </c>
       <c r="L22" s="30">
-        <f>J22*2/3+M22/3</f>
+        <v>4.6035275074302717</v>
+      </c>
+      <c r="M22" s="30">
+        <v>4.67788761204406</v>
+      </c>
+      <c r="N22" s="30">
+        <v>4.7522477166578483</v>
+      </c>
+      <c r="O22" s="30">
+        <v>4.8266078212716366</v>
+      </c>
+      <c r="P22" s="30">
+        <v>4.9009679258854248</v>
+      </c>
+      <c r="Q22" s="30">
+        <v>4.9753280304992131</v>
+      </c>
+      <c r="R22" s="30">
+        <v>5.0496881351130014</v>
+      </c>
+      <c r="S22" s="30">
+        <v>5.1240482397267897</v>
+      </c>
+      <c r="T22" s="30">
         <v>5.1984083443405851</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="0"/>
+      <c r="U22">
         <v>6.7763561055681549</v>
       </c>
-      <c r="N22" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="35">
+      <c r="V22" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="35">
         <v>10.039412402408599</v>
       </c>
-      <c r="R22" s="30">
+      <c r="Z22" s="30">
         <f>H22</f>
         <v>3.5132998087277101</v>
       </c>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9862,7 +10322,6 @@
         <v>47</v>
       </c>
       <c r="H23" s="31">
-        <f>VLOOKUP(F23,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>21.784659175997099</v>
       </c>
       <c r="I23" s="30">
@@ -9875,24 +10334,46 @@
         <v>13.45641792</v>
       </c>
       <c r="L23" s="30">
-        <f>J23*2/3+M23/3</f>
+        <v>12.96716944370371</v>
+      </c>
+      <c r="M23" s="30">
+        <v>12.477920967407499</v>
+      </c>
+      <c r="N23" s="30">
+        <v>11.988672491111174</v>
+      </c>
+      <c r="O23" s="30">
+        <v>11.499424014814849</v>
+      </c>
+      <c r="P23" s="30">
+        <v>11.010175538518524</v>
+      </c>
+      <c r="Q23" s="30">
+        <v>10.520927062222313</v>
+      </c>
+      <c r="R23" s="30">
+        <v>10.031678585925988</v>
+      </c>
+      <c r="S23" s="30">
+        <v>9.5424301096296631</v>
+      </c>
+      <c r="T23" s="30">
         <v>9.0531816333333328</v>
       </c>
-      <c r="M23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="35">
-        <v>0</v>
-      </c>
-      <c r="R23" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9907,7 +10388,6 @@
         <v>49</v>
       </c>
       <c r="H24" s="31">
-        <f>VLOOKUP(F24,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>0.23349320028657899</v>
       </c>
       <c r="I24" s="30">
@@ -9920,25 +10400,47 @@
         <v>0.23</v>
       </c>
       <c r="L24" s="30">
-        <f>J24*2/3+M24/3</f>
+        <v>0.2300646888941959</v>
+      </c>
+      <c r="M24" s="30">
+        <v>0.23012937778839179</v>
+      </c>
+      <c r="N24" s="30">
+        <v>0.23019406668258771</v>
+      </c>
+      <c r="O24" s="30">
+        <v>0.23025875557678363</v>
+      </c>
+      <c r="P24" s="30">
+        <v>0.23032344447097952</v>
+      </c>
+      <c r="Q24" s="30">
+        <v>0.23038813336517544</v>
+      </c>
+      <c r="R24" s="30">
+        <v>0.23045282225937136</v>
+      </c>
+      <c r="S24" s="30">
+        <v>0.23051751115356725</v>
+      </c>
+      <c r="T24" s="30">
         <v>0.2305822000477632</v>
       </c>
-      <c r="M24">
-        <f t="shared" si="0"/>
+      <c r="U24">
         <v>0.23174660014328952</v>
       </c>
-      <c r="N24" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="35">
+      <c r="V24" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="35">
         <v>0.23</v>
       </c>
-      <c r="R24" s="30">
+      <c r="Z24" s="30">
         <f>H24</f>
         <v>0.23349320028657899</v>
       </c>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9953,7 +10455,6 @@
         <v>51</v>
       </c>
       <c r="H25" s="31">
-        <f>VLOOKUP(F25,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
         <v>45.935836654432002</v>
       </c>
       <c r="I25" s="30">
@@ -9962,27 +10463,51 @@
       <c r="J25" s="30">
         <v>46.814427170000002</v>
       </c>
-      <c r="K25" s="30"/>
+      <c r="K25" s="30">
+        <v>47.063373871240515</v>
+      </c>
       <c r="L25" s="30">
-        <f>J25*2/3+M25/3</f>
+        <v>47.312320572481042</v>
+      </c>
+      <c r="M25" s="30">
+        <v>47.561267273721626</v>
+      </c>
+      <c r="N25" s="30">
+        <v>47.810213974962153</v>
+      </c>
+      <c r="O25" s="30">
+        <v>48.05916067620268</v>
+      </c>
+      <c r="P25" s="30">
+        <v>48.308107377443207</v>
+      </c>
+      <c r="Q25" s="30">
+        <v>48.557054078683734</v>
+      </c>
+      <c r="R25" s="30">
+        <v>48.806000779924261</v>
+      </c>
+      <c r="S25" s="30">
+        <v>49.054947481164788</v>
+      </c>
+      <c r="T25" s="30">
         <v>49.30389418240533</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="0"/>
+      <c r="U25">
         <v>54.282828207215999</v>
       </c>
-      <c r="N25" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="35">
+      <c r="V25" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="35">
         <v>62.629819759999997</v>
       </c>
-      <c r="R25" s="30">
+      <c r="Z25" s="30">
         <f>H25</f>
         <v>45.935836654432002</v>
       </c>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10008,25 +10533,47 @@
       <c r="K26" s="32">
         <v>30.592051000616877</v>
       </c>
-      <c r="L26" s="30">
-        <f>J26*2/3+M26/3</f>
+      <c r="L26" s="32">
+        <v>30.871384926093015</v>
+      </c>
+      <c r="M26" s="32">
+        <v>31.150718851569195</v>
+      </c>
+      <c r="N26" s="32">
+        <v>31.430052777045262</v>
+      </c>
+      <c r="O26" s="32">
+        <v>31.709386702521329</v>
+      </c>
+      <c r="P26" s="32">
+        <v>31.988720627997509</v>
+      </c>
+      <c r="Q26" s="32">
+        <v>32.268054553473576</v>
+      </c>
+      <c r="R26" s="32">
+        <v>32.547388478949642</v>
+      </c>
+      <c r="S26" s="32">
+        <v>32.826722404425709</v>
+      </c>
+      <c r="T26" s="30">
         <v>33.106056329901776</v>
       </c>
-      <c r="M26">
-        <f t="shared" si="0"/>
+      <c r="U26">
         <v>40.081955186767516</v>
       </c>
-      <c r="N26" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="35">
+      <c r="V26" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="35">
         <v>47.391759323456121</v>
       </c>
-      <c r="R26" s="30">
+      <c r="Z26" s="30">
         <v>32.772151050078904</v>
       </c>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10052,25 +10599,47 @@
       <c r="K27" s="32">
         <v>61.552680928952022</v>
       </c>
-      <c r="L27" s="30">
-        <f>J27*2/3+M27/3</f>
+      <c r="L27" s="32">
+        <v>62.117495669376012</v>
+      </c>
+      <c r="M27" s="32">
+        <v>62.682310409800039</v>
+      </c>
+      <c r="N27" s="32">
+        <v>63.247125150224065</v>
+      </c>
+      <c r="O27" s="32">
+        <v>63.811939890647864</v>
+      </c>
+      <c r="P27" s="32">
+        <v>64.37675463107189</v>
+      </c>
+      <c r="Q27" s="32">
+        <v>64.941569371495916</v>
+      </c>
+      <c r="R27" s="32">
+        <v>65.506384111919942</v>
+      </c>
+      <c r="S27" s="32">
+        <v>66.071198852343969</v>
+      </c>
+      <c r="T27" s="30">
         <v>66.636013592767867</v>
       </c>
-      <c r="M27">
-        <f t="shared" si="0"/>
+      <c r="U27">
         <v>80.721923849501025</v>
       </c>
-      <c r="N27" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="35">
+      <c r="V27" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="35">
         <v>95.354503699002038</v>
       </c>
-      <c r="R27" s="30">
+      <c r="Z27" s="30">
         <v>66.089343999999997</v>
       </c>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10087,28 +10656,56 @@
       <c r="H28" s="31">
         <v>5.6291760000000002</v>
       </c>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="I28" s="31">
+        <v>8.544383999999809</v>
+      </c>
+      <c r="J28" s="31">
+        <v>11.459592000000157</v>
+      </c>
       <c r="K28" s="31">
         <v>14.3748</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="31">
+        <v>15.555377777777721</v>
+      </c>
+      <c r="M28" s="31">
+        <v>16.735955555555392</v>
+      </c>
+      <c r="N28" s="31">
+        <v>17.916533333333064</v>
+      </c>
+      <c r="O28" s="31">
+        <v>19.09711111111119</v>
+      </c>
+      <c r="P28" s="31">
+        <v>20.277688888888861</v>
+      </c>
+      <c r="Q28" s="31">
+        <v>21.458266666666532</v>
+      </c>
+      <c r="R28" s="31">
+        <v>22.638844444444203</v>
+      </c>
+      <c r="S28" s="31">
+        <v>23.819422222222329</v>
+      </c>
+      <c r="T28" s="30">
         <v>25</v>
       </c>
-      <c r="M28">
+      <c r="U28">
         <v>30</v>
       </c>
-      <c r="N28" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="35">
+      <c r="V28" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="35">
         <v>40.299999999999997</v>
       </c>
-      <c r="R28" s="30">
+      <c r="Z28" s="30">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10125,25 +10722,56 @@
       <c r="H29" s="31">
         <v>0.48</v>
       </c>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="30"/>
-      <c r="M29">
-        <f t="shared" si="0"/>
+      <c r="I29" s="31">
+        <v>0.482421875</v>
+      </c>
+      <c r="J29" s="31">
+        <v>0.48484375000000046</v>
+      </c>
+      <c r="K29" s="31">
+        <v>0.48726562500000004</v>
+      </c>
+      <c r="L29" s="31">
+        <v>0.4896875000000005</v>
+      </c>
+      <c r="M29" s="31">
+        <v>0.49210937500000007</v>
+      </c>
+      <c r="N29" s="31">
+        <v>0.49453124999999964</v>
+      </c>
+      <c r="O29" s="31">
+        <v>0.49695312500000011</v>
+      </c>
+      <c r="P29" s="31">
+        <v>0.49937499999999968</v>
+      </c>
+      <c r="Q29" s="31">
+        <v>0.50179687500000014</v>
+      </c>
+      <c r="R29" s="31">
+        <v>0.50421874999999972</v>
+      </c>
+      <c r="S29" s="31">
+        <v>0.50664062500000018</v>
+      </c>
+      <c r="T29" s="30">
+        <v>0.50906249999999975</v>
+      </c>
+      <c r="U29">
         <v>0.5575</v>
       </c>
-      <c r="N29" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="35">
+      <c r="V29" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="35">
         <v>0.57499999999999996</v>
       </c>
-      <c r="R29" s="30">
+      <c r="Z29" s="30">
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D30" t="s">
         <v>185</v>
       </c>
@@ -10168,25 +10796,47 @@
       <c r="K30" s="31">
         <v>1.2318444230000001</v>
       </c>
-      <c r="L30" s="30">
-        <f>J30*2/3+M30/3</f>
+      <c r="L30" s="31">
+        <v>1.2462948700370369</v>
+      </c>
+      <c r="M30" s="31">
+        <v>1.2607453170740754</v>
+      </c>
+      <c r="N30" s="31">
+        <v>1.2751957641111105</v>
+      </c>
+      <c r="O30" s="31">
+        <v>1.289646211148149</v>
+      </c>
+      <c r="P30" s="31">
+        <v>1.3040966581851841</v>
+      </c>
+      <c r="Q30" s="31">
+        <v>1.3185471052222226</v>
+      </c>
+      <c r="R30" s="31">
+        <v>1.3329975522592612</v>
+      </c>
+      <c r="S30" s="31">
+        <v>1.3474479992962962</v>
+      </c>
+      <c r="T30" s="30">
         <v>1.3618984463333335</v>
       </c>
-      <c r="M30">
-        <f t="shared" si="0"/>
+      <c r="U30">
         <v>1.662610527</v>
       </c>
-      <c r="N30" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="35">
+      <c r="V30" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="35">
         <v>1.7132210539999999</v>
       </c>
-      <c r="R30" s="30">
+      <c r="Z30" s="30">
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D31" t="s">
         <v>185</v>
       </c>
@@ -10211,25 +10861,47 @@
       <c r="K31" s="31">
         <v>2.181479087</v>
       </c>
-      <c r="L31" s="30">
-        <f>J31*2/3+M31/3</f>
+      <c r="L31" s="31">
+        <v>2.2070935556481501</v>
+      </c>
+      <c r="M31" s="31">
+        <v>2.2327080242963007</v>
+      </c>
+      <c r="N31" s="31">
+        <v>2.2583224929444441</v>
+      </c>
+      <c r="O31" s="31">
+        <v>2.2839369615925946</v>
+      </c>
+      <c r="P31" s="31">
+        <v>2.3095514302407381</v>
+      </c>
+      <c r="Q31" s="31">
+        <v>2.3351658988888886</v>
+      </c>
+      <c r="R31" s="31">
+        <v>2.3607803675370391</v>
+      </c>
+      <c r="S31" s="31">
+        <v>2.3863948361851826</v>
+      </c>
+      <c r="T31" s="30">
         <v>2.4120093048333331</v>
       </c>
-      <c r="M31">
-        <f t="shared" si="0"/>
+      <c r="U31">
         <v>2.9449756144999997</v>
       </c>
-      <c r="N31" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="35">
+      <c r="V31" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="35">
         <v>3.0339512289999999</v>
       </c>
-      <c r="R31" s="30">
+      <c r="Z31" s="30">
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:26" x14ac:dyDescent="0.35">
       <c r="D32" t="s">
         <v>185</v>
       </c>
@@ -10254,21 +10926,43 @@
       <c r="K32" s="31">
         <v>0.84164370300000002</v>
       </c>
-      <c r="L32" s="30">
-        <f>J32*2/3+M32/3</f>
+      <c r="L32" s="31">
+        <v>0.84889864600000031</v>
+      </c>
+      <c r="M32" s="31">
+        <v>0.85615358899999983</v>
+      </c>
+      <c r="N32" s="31">
+        <v>0.86340853199999934</v>
+      </c>
+      <c r="O32" s="31">
+        <v>0.87066347500000063</v>
+      </c>
+      <c r="P32" s="31">
+        <v>0.87791841800000014</v>
+      </c>
+      <c r="Q32" s="31">
+        <v>0.88517336099999966</v>
+      </c>
+      <c r="R32" s="31">
+        <v>0.89242830400000095</v>
+      </c>
+      <c r="S32" s="31">
+        <v>0.89968324700000046</v>
+      </c>
+      <c r="T32" s="30">
         <v>0.90693818999999998</v>
       </c>
-      <c r="M32">
-        <f t="shared" si="0"/>
+      <c r="U32">
         <v>1.065269408</v>
       </c>
-      <c r="N32" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="35">
+      <c r="V32" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="35">
         <v>1.1705388160000001</v>
       </c>
-      <c r="R32" s="30">
+      <c r="Z32" s="30">
         <v>0.96</v>
       </c>
     </row>
@@ -10297,21 +10991,43 @@
       <c r="K33" s="31">
         <v>1.1221942709999999</v>
       </c>
-      <c r="L33" s="30">
-        <f>J33*2/3+M33/3</f>
+      <c r="L33" s="31">
+        <v>1.1438489764074049</v>
+      </c>
+      <c r="M33" s="31">
+        <v>1.165503681814819</v>
+      </c>
+      <c r="N33" s="31">
+        <v>1.187158387222226</v>
+      </c>
+      <c r="O33" s="31">
+        <v>1.208813092629633</v>
+      </c>
+      <c r="P33" s="31">
+        <v>1.23046779803704</v>
+      </c>
+      <c r="Q33" s="31">
+        <v>1.252122503444447</v>
+      </c>
+      <c r="R33" s="31">
+        <v>1.273777208851854</v>
+      </c>
+      <c r="S33" s="31">
+        <v>1.295431914259261</v>
+      </c>
+      <c r="T33" s="30">
         <v>1.3170866196666666</v>
       </c>
-      <c r="M33">
-        <f t="shared" si="0"/>
+      <c r="U33">
         <v>1.7438610649999999</v>
       </c>
-      <c r="N33" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="35">
+      <c r="V33" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="35">
         <v>1.56072213</v>
       </c>
-      <c r="R33" s="30">
+      <c r="Z33" s="30">
         <v>1.927</v>
       </c>
     </row>
@@ -10340,21 +11056,43 @@
       <c r="K34" s="31">
         <v>0.905685615</v>
       </c>
-      <c r="L34" s="30">
-        <f>J34*2/3+M34/3</f>
+      <c r="L34" s="31">
+        <v>0.92319541544444661</v>
+      </c>
+      <c r="M34" s="31">
+        <v>0.94070521588889022</v>
+      </c>
+      <c r="N34" s="31">
+        <v>0.95821501633333384</v>
+      </c>
+      <c r="O34" s="31">
+        <v>0.97572481677777745</v>
+      </c>
+      <c r="P34" s="31">
+        <v>0.99323461722222106</v>
+      </c>
+      <c r="Q34" s="31">
+        <v>1.0107444176666718</v>
+      </c>
+      <c r="R34" s="31">
+        <v>1.0282542181111154</v>
+      </c>
+      <c r="S34" s="31">
+        <v>1.045764018555559</v>
+      </c>
+      <c r="T34" s="30">
         <v>1.063273819</v>
       </c>
-      <c r="M34">
-        <f t="shared" si="0"/>
+      <c r="U34">
         <v>1.4083034209999998</v>
       </c>
-      <c r="N34" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="35">
+      <c r="V34" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="35">
         <v>1.2596068419999999</v>
       </c>
-      <c r="R34" s="30">
+      <c r="Z34" s="30">
         <v>1.5569999999999999</v>
       </c>
     </row>
@@ -10383,21 +11121,43 @@
       <c r="K35" s="31">
         <v>10.053266819999999</v>
       </c>
-      <c r="L35" s="30">
-        <f>J35*2/3+M35/3</f>
+      <c r="L35" s="31">
+        <v>10.13470327788886</v>
+      </c>
+      <c r="M35" s="31">
+        <v>10.216139735777773</v>
+      </c>
+      <c r="N35" s="31">
+        <v>10.297576193666657</v>
+      </c>
+      <c r="O35" s="31">
+        <v>10.379012651555541</v>
+      </c>
+      <c r="P35" s="31">
+        <v>10.460449109444426</v>
+      </c>
+      <c r="Q35" s="31">
+        <v>10.54188556733331</v>
+      </c>
+      <c r="R35" s="31">
+        <v>10.623322025222222</v>
+      </c>
+      <c r="S35" s="31">
+        <v>10.704758483111107</v>
+      </c>
+      <c r="T35" s="30">
         <v>10.786194941000002</v>
       </c>
-      <c r="M35">
-        <f t="shared" si="0"/>
+      <c r="U35">
         <v>12.583426795000001</v>
       </c>
-      <c r="N35" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="35">
+      <c r="V35" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="35">
         <v>13.98185359</v>
       </c>
-      <c r="R35" s="30">
+      <c r="Z35" s="30">
         <v>11.185</v>
       </c>
     </row>
@@ -10426,21 +11186,43 @@
       <c r="K36" s="1">
         <v>0</v>
       </c>
-      <c r="L36" s="30">
-        <f>J36*2/3+M36/3</f>
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N36" s="33">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="35">
-        <v>0</v>
-      </c>
-      <c r="R36" s="30">
+      <c r="L36" s="1">
+        <v>0</v>
+      </c>
+      <c r="M36" s="1">
+        <v>0</v>
+      </c>
+      <c r="N36" s="1">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+      <c r="P36" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="30">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36" s="33">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="35">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="30">
         <v>0</v>
       </c>
     </row>

--- a/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIMES-Ireland-model-CB\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F508959-8C0C-41AC-AA0D-628CCA339693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2BCC61-CB24-47CC-9A29-A77B9DA1E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -20,9 +20,6 @@
     <sheet name="Residential" sheetId="8" r:id="rId5"/>
     <sheet name="Services" sheetId="9" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
@@ -971,7 +968,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -1015,11 +1012,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1057,7 +1051,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>31750</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1105,29 +1099,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="BY-Demands"/>
-      <sheetName val="REG_TRA_DEMANDS"/>
-      <sheetName val="Regions"/>
-      <sheetName val="DEMANDS"/>
-      <sheetName val="Residential"/>
-      <sheetName val="Services"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1395,25 +1366,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226CF39-0357-4B21-823B-1B3093B14EE8}">
   <dimension ref="C4:AK42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.1796875" style="3"/>
-    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="3"/>
-    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1548,7 +1519,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1647,7 +1618,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1746,7 +1717,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1845,7 +1816,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1944,7 +1915,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -2043,7 +2014,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2142,7 +2113,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2241,7 +2212,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2340,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2439,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2488,7 +2459,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2537,7 +2508,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2586,7 +2557,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2635,7 +2606,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2684,7 +2655,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2733,7 +2704,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2782,7 +2753,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2831,7 +2802,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2880,7 +2851,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2929,7 +2900,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2978,7 +2949,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -3027,7 +2998,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3076,7 +3047,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3125,7 +3096,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3174,7 +3145,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3223,7 +3194,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3272,7 +3243,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3321,7 +3292,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3370,7 +3341,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3419,7 +3390,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3468,7 +3439,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3517,7 +3488,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3566,7 +3537,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3615,7 +3586,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3660,7 +3631,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3705,7 +3676,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3754,7 +3725,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3814,22 +3785,22 @@
   <dimension ref="B2:AF39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.1796875" style="3"/>
-    <col min="4" max="4" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3950,7 +3921,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4066,7 +4037,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4182,7 +4153,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4298,7 +4269,7 @@
         <v>0.19657172711717047</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4414,7 +4385,7 @@
         <v>0.28262626568499355</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4530,7 +4501,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4646,7 +4617,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4762,7 +4733,7 @@
         <v>0.42633640999216782</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4878,7 +4849,7 @@
         <v>0.57380291072234901</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4994,7 +4965,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5110,7 +5081,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5226,7 +5197,7 @@
         <v>0.37971547763938718</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5342,7 +5313,7 @@
         <v>0.51090120361976454</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5458,7 +5429,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5574,7 +5545,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5690,7 +5661,7 @@
         <v>0.18085039009610454</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5806,7 +5777,7 @@
         <v>0.22995613865752026</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5922,7 +5893,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -6037,7 +6008,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6152,7 +6123,7 @@
         <v>8.5375062530790247E-2</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -6267,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -6383,7 +6354,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -6498,7 +6469,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -6613,7 +6584,7 @@
         <v>6.7013553434566345E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -6728,7 +6699,7 @@
         <v>8.7355142553685775E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -6844,7 +6815,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -6960,7 +6931,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -7076,7 +7047,7 @@
         <v>0.11670608212198352</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -7192,7 +7163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -7308,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -7423,7 +7394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -7538,7 +7509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -7653,7 +7624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -7769,7 +7740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -7885,7 +7856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -8001,7 +7972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -8130,38 +8101,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.1796875" style="3"/>
+    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -8275,12 +8246,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -8395,7 +8366,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -8512,7 +8483,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -8629,7 +8600,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -8637,7 +8608,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -8645,7 +8616,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -8653,7 +8624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -8661,7 +8632,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -8669,7 +8640,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -8677,7 +8648,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -8685,7 +8656,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -8693,7 +8664,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -8701,7 +8672,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -8709,7 +8680,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -8717,7 +8688,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -8725,7 +8696,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -8733,7 +8704,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -8741,7 +8712,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -8749,7 +8720,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -8757,7 +8728,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -8765,7 +8736,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -8773,7 +8744,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -8781,7 +8752,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -8789,7 +8760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -8797,7 +8768,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -8805,7 +8776,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -8813,7 +8784,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -8821,7 +8792,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -8829,7 +8800,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -8837,7 +8808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -8845,7 +8816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -8871,7 +8842,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>31750</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8890,27 +8861,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.453125" customWidth="1"/>
-    <col min="10" max="11" width="15.81640625" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="12.81640625" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" customWidth="1"/>
-    <col min="17" max="17" width="10.54296875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
+    <col min="16" max="16" width="8.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -8918,7 +8889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8986,7 +8957,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9042,17 +9013,17 @@
       <c r="U3">
         <v>9.7989935307649739E-2</v>
       </c>
-      <c r="V3" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="35">
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="32">
         <v>0.126438626203419</v>
       </c>
       <c r="Z3" s="30">
         <v>6.9541244411880462E-2</v>
       </c>
     </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9108,17 +9079,17 @@
       <c r="U4">
         <v>26.346234207155959</v>
       </c>
-      <c r="V4" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="35">
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="32">
         <v>33.995140912459298</v>
       </c>
       <c r="Z4" s="30">
         <v>18.697327501852616</v>
       </c>
     </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9174,17 +9145,17 @@
       <c r="U5">
         <v>3.8534877653787154</v>
       </c>
-      <c r="V5" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="35">
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="32">
         <v>4.9722422779080198</v>
       </c>
       <c r="Z5" s="30">
         <v>2.7347332528494115</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9240,17 +9211,17 @@
       <c r="U6">
         <v>5.9308505795404391</v>
       </c>
-      <c r="V6" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="35">
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="32">
         <v>7.6527104252134697</v>
       </c>
       <c r="Z6" s="30">
         <v>4.2089907338674086</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9306,17 +9277,17 @@
       <c r="U7">
         <v>1.7912647554770649</v>
       </c>
-      <c r="V7" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="35">
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="32">
         <v>2.3113093619058902</v>
       </c>
       <c r="Z7" s="30">
         <v>1.2712201490482398</v>
       </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9372,17 +9343,17 @@
       <c r="U8">
         <v>10.157935062437405</v>
       </c>
-      <c r="V8" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="35">
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="32">
         <v>13.107012983790201</v>
       </c>
       <c r="Z8" s="30">
         <v>7.2088571410846098</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9438,17 +9409,17 @@
       <c r="U9">
         <v>0.68793979220818868</v>
       </c>
-      <c r="V9" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="35">
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="32">
         <v>0.88766424801056598</v>
       </c>
       <c r="Z9" s="30">
         <v>0.48821533640581133</v>
       </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9504,17 +9475,17 @@
       <c r="U10">
         <v>16.853923637480463</v>
       </c>
-      <c r="V10" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="35">
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="32">
         <v>24.822798092583323</v>
       </c>
       <c r="Z10" s="30">
         <v>8.8850491823775997</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9570,17 +9541,17 @@
       <c r="U11">
         <v>16.844014653390236</v>
       </c>
-      <c r="V11" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="35">
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="32">
         <v>21.7342124559874</v>
       </c>
       <c r="Z11" s="30">
         <v>11.953816850793071</v>
       </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9636,17 +9607,17 @@
       <c r="U12">
         <v>1.3071809478517049</v>
       </c>
-      <c r="V12" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="35">
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="32">
         <v>1.6866850940022</v>
       </c>
       <c r="Z12" s="30">
         <v>0.92767680170120992</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9702,17 +9673,17 @@
       <c r="U13">
         <v>12.686569622394671</v>
       </c>
-      <c r="V13" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="35">
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="32">
         <v>16.369767254702801</v>
       </c>
       <c r="Z13" s="30">
         <v>9.0033719900865421</v>
       </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9768,17 +9739,17 @@
       <c r="U14">
         <v>3.2628733640509965E-2</v>
       </c>
-      <c r="V14" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="35">
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="32">
         <v>4.2101591794206403E-2</v>
       </c>
       <c r="Z14" s="30">
         <v>2.3155875486813523E-2</v>
       </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9834,17 +9805,17 @@
       <c r="U15">
         <v>4.7394475614649956</v>
       </c>
-      <c r="V15" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="35">
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="32">
         <v>6.1154162083419301</v>
       </c>
       <c r="Z15" s="30">
         <v>3.3634789145880619</v>
       </c>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9900,17 +9871,17 @@
       <c r="U16">
         <v>4.5713249322390208</v>
       </c>
-      <c r="V16" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="35">
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="32">
         <v>5.8984837835342203</v>
       </c>
       <c r="Z16" s="30">
         <v>3.2441660809438213</v>
       </c>
     </row>
-    <row r="17" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9966,17 +9937,17 @@
       <c r="U17">
         <v>19.808098215775729</v>
       </c>
-      <c r="V17" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="35">
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="32">
         <v>21.065548257939199</v>
       </c>
       <c r="Z17" s="30">
         <v>18.550648173612263</v>
       </c>
     </row>
-    <row r="18" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10032,17 +10003,17 @@
       <c r="U18">
         <v>37.651251214826601</v>
       </c>
-      <c r="V18" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="35">
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="32">
         <v>45.290928754569201</v>
       </c>
       <c r="Z18" s="30">
         <v>30.011573675084005</v>
       </c>
     </row>
-    <row r="19" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10098,17 +10069,17 @@
       <c r="U19">
         <v>32.379777214245621</v>
       </c>
-      <c r="V19" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="35">
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="32">
         <v>38.971264277187501</v>
       </c>
       <c r="Z19" s="30">
         <v>25.788290151303741</v>
       </c>
     </row>
-    <row r="20" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10164,17 +10135,17 @@
       <c r="U20">
         <v>17.294083387740336</v>
       </c>
-      <c r="V20" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="35">
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="32">
         <v>25.138166775480673</v>
       </c>
       <c r="Z20" s="30">
         <v>9.4499999999999993</v>
       </c>
     </row>
-    <row r="21" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10230,17 +10201,17 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="35">
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="32">
         <v>0</v>
       </c>
       <c r="Z21" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10296,10 +10267,10 @@
       <c r="U22">
         <v>6.7763561055681549</v>
       </c>
-      <c r="V22" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="35">
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="32">
         <v>10.039412402408599</v>
       </c>
       <c r="Z22" s="30">
@@ -10307,7 +10278,7 @@
         <v>3.5132998087277101</v>
       </c>
     </row>
-    <row r="23" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10363,17 +10334,17 @@
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="35">
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="32">
         <v>0</v>
       </c>
       <c r="Z23" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10429,10 +10400,10 @@
       <c r="U24">
         <v>0.23174660014328952</v>
       </c>
-      <c r="V24" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="35">
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="32">
         <v>0.23</v>
       </c>
       <c r="Z24" s="30">
@@ -10440,7 +10411,7 @@
         <v>0.23349320028657899</v>
       </c>
     </row>
-    <row r="25" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -10496,10 +10467,10 @@
       <c r="U25">
         <v>54.282828207215999</v>
       </c>
-      <c r="V25" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="35">
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="32">
         <v>62.629819759999997</v>
       </c>
       <c r="Z25" s="30">
@@ -10507,7 +10478,7 @@
         <v>45.935836654432002</v>
       </c>
     </row>
-    <row r="26" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10524,37 +10495,37 @@
       <c r="H26" s="31">
         <v>28.901664567933956</v>
       </c>
-      <c r="I26" s="32">
+      <c r="I26" s="30">
         <v>29.285472960899106</v>
       </c>
-      <c r="J26" s="32">
+      <c r="J26" s="30">
         <v>29.618106901468909</v>
       </c>
-      <c r="K26" s="32">
+      <c r="K26" s="30">
         <v>30.592051000616877</v>
       </c>
-      <c r="L26" s="32">
+      <c r="L26" s="30">
         <v>30.871384926093015</v>
       </c>
-      <c r="M26" s="32">
+      <c r="M26" s="30">
         <v>31.150718851569195</v>
       </c>
-      <c r="N26" s="32">
+      <c r="N26" s="30">
         <v>31.430052777045262</v>
       </c>
-      <c r="O26" s="32">
+      <c r="O26" s="30">
         <v>31.709386702521329</v>
       </c>
-      <c r="P26" s="32">
+      <c r="P26" s="30">
         <v>31.988720627997509</v>
       </c>
-      <c r="Q26" s="32">
+      <c r="Q26" s="30">
         <v>32.268054553473576</v>
       </c>
-      <c r="R26" s="32">
+      <c r="R26" s="30">
         <v>32.547388478949642</v>
       </c>
-      <c r="S26" s="32">
+      <c r="S26" s="30">
         <v>32.826722404425709</v>
       </c>
       <c r="T26" s="30">
@@ -10563,17 +10534,17 @@
       <c r="U26">
         <v>40.081955186767516</v>
       </c>
-      <c r="V26" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="35">
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="32">
         <v>47.391759323456121</v>
       </c>
       <c r="Z26" s="30">
         <v>32.772151050078904</v>
       </c>
     </row>
-    <row r="27" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10590,37 +10561,37 @@
       <c r="H27" s="31">
         <v>58.151541961987604</v>
       </c>
-      <c r="I27" s="32">
+      <c r="I27" s="30">
         <v>58.923782945423504</v>
       </c>
-      <c r="J27" s="32">
+      <c r="J27" s="30">
         <v>59.593058464401295</v>
       </c>
-      <c r="K27" s="32">
+      <c r="K27" s="30">
         <v>61.552680928952022</v>
       </c>
-      <c r="L27" s="32">
+      <c r="L27" s="30">
         <v>62.117495669376012</v>
       </c>
-      <c r="M27" s="32">
+      <c r="M27" s="30">
         <v>62.682310409800039</v>
       </c>
-      <c r="N27" s="32">
+      <c r="N27" s="30">
         <v>63.247125150224065</v>
       </c>
-      <c r="O27" s="32">
+      <c r="O27" s="30">
         <v>63.811939890647864</v>
       </c>
-      <c r="P27" s="32">
+      <c r="P27" s="30">
         <v>64.37675463107189</v>
       </c>
-      <c r="Q27" s="32">
+      <c r="Q27" s="30">
         <v>64.941569371495916</v>
       </c>
-      <c r="R27" s="32">
+      <c r="R27" s="30">
         <v>65.506384111919942</v>
       </c>
-      <c r="S27" s="32">
+      <c r="S27" s="30">
         <v>66.071198852343969</v>
       </c>
       <c r="T27" s="30">
@@ -10629,17 +10600,17 @@
       <c r="U27">
         <v>80.721923849501025</v>
       </c>
-      <c r="V27" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="35">
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="32">
         <v>95.354503699002038</v>
       </c>
       <c r="Z27" s="30">
         <v>66.089343999999997</v>
       </c>
     </row>
-    <row r="28" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10695,17 +10666,17 @@
       <c r="U28">
         <v>30</v>
       </c>
-      <c r="V28" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="35">
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="32">
         <v>40.299999999999997</v>
       </c>
       <c r="Z28" s="30">
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -10761,17 +10732,17 @@
       <c r="U29">
         <v>0.5575</v>
       </c>
-      <c r="V29" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="35">
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="32">
         <v>0.57499999999999996</v>
       </c>
       <c r="Z29" s="30">
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>185</v>
       </c>
@@ -10826,17 +10797,17 @@
       <c r="U30">
         <v>1.662610527</v>
       </c>
-      <c r="V30" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="35">
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="32">
         <v>1.7132210539999999</v>
       </c>
       <c r="Z30" s="30">
         <v>1.6120000000000001</v>
       </c>
     </row>
-    <row r="31" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>185</v>
       </c>
@@ -10891,17 +10862,17 @@
       <c r="U31">
         <v>2.9449756144999997</v>
       </c>
-      <c r="V31" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="35">
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="32">
         <v>3.0339512289999999</v>
       </c>
       <c r="Z31" s="30">
         <v>2.8559999999999999</v>
       </c>
     </row>
-    <row r="32" spans="4:26" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>185</v>
       </c>
@@ -10956,17 +10927,17 @@
       <c r="U32">
         <v>1.065269408</v>
       </c>
-      <c r="V32" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="35">
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="32">
         <v>1.1705388160000001</v>
       </c>
       <c r="Z32" s="30">
         <v>0.96</v>
       </c>
     </row>
-    <row r="33" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>185</v>
       </c>
@@ -11021,17 +10992,17 @@
       <c r="U33">
         <v>1.7438610649999999</v>
       </c>
-      <c r="V33" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="35">
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="32">
         <v>1.56072213</v>
       </c>
       <c r="Z33" s="30">
         <v>1.927</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>185</v>
       </c>
@@ -11086,17 +11057,17 @@
       <c r="U34">
         <v>1.4083034209999998</v>
       </c>
-      <c r="V34" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="35">
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="32">
         <v>1.2596068419999999</v>
       </c>
       <c r="Z34" s="30">
         <v>1.5569999999999999</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>185</v>
       </c>
@@ -11151,17 +11122,17 @@
       <c r="U35">
         <v>12.583426795000001</v>
       </c>
-      <c r="V35" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="35">
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="32">
         <v>13.98185359</v>
       </c>
       <c r="Z35" s="30">
         <v>11.185</v>
       </c>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>185</v>
       </c>
@@ -11216,23 +11187,23 @@
       <c r="U36">
         <v>0</v>
       </c>
-      <c r="V36" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="35">
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="32">
         <v>0</v>
       </c>
       <c r="Z36" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>149</v>
       </c>
@@ -11244,7 +11215,7 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="13" t="s">
         <v>1</v>
       </c>
@@ -11369,7 +11340,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>59</v>
       </c>
@@ -11481,11 +11452,11 @@
       <c r="AP40">
         <v>657.69915193745828</v>
       </c>
-      <c r="AQ40" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="AQ40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>59</v>
       </c>
@@ -11516,7 +11487,7 @@
       <c r="O41">
         <v>850.96976936716078</v>
       </c>
-      <c r="P41" s="34">
+      <c r="P41">
         <v>861.58177341465773</v>
       </c>
       <c r="Q41">
@@ -11597,11 +11568,11 @@
       <c r="AP41">
         <v>1088.4635021002869</v>
       </c>
-      <c r="AQ41" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>59</v>
       </c>
@@ -11632,7 +11603,7 @@
       <c r="O42">
         <v>775.98358172975304</v>
       </c>
-      <c r="P42" s="34">
+      <c r="P42">
         <v>779.02688375026401</v>
       </c>
       <c r="Q42">
@@ -11713,41 +11684,41 @@
       <c r="AP42">
         <v>829.02531795313598</v>
       </c>
-      <c r="AQ42" s="33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="3:43" x14ac:dyDescent="0.35">
+      <c r="AQ42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="44" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
     </row>
-    <row r="45" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="45" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
     </row>
-    <row r="46" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="46" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H46" s="31"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
       <c r="K46" s="30"/>
     </row>
-    <row r="47" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="47" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H47" s="31"/>
       <c r="I47" s="30"/>
       <c r="J47" s="30"/>
       <c r="K47" s="30"/>
     </row>
-    <row r="48" spans="3:43" x14ac:dyDescent="0.35">
+    <row r="48" spans="3:43" x14ac:dyDescent="0.25">
       <c r="H48" s="31"/>
       <c r="I48" s="30"/>
       <c r="J48" s="30"/>
@@ -11765,18 +11736,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="D4:M216"/>
   <sheetViews>
-    <sheetView topLeftCell="B152" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:K216"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="4:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="25" t="s">
         <v>150</v>
       </c>
@@ -11784,7 +11755,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="26"/>
     </row>
-    <row r="5" spans="4:13" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="4:13" ht="25.5" x14ac:dyDescent="0.25">
       <c r="D5" s="27" t="s">
         <v>65</v>
       </c>
@@ -11801,7 +11772,7 @@
         <v>58</v>
       </c>
       <c r="I5" s="27" t="str">
-        <f>IF([1]Regions!AJ5&lt;&gt;"",[1]Regions!AJ5,"*")</f>
+        <f>IF(Regions!AJ5&lt;&gt;"",Regions!AJ5,"*")</f>
         <v>*</v>
       </c>
       <c r="J5" s="27" t="s">
@@ -11817,7 +11788,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="28" t="s">
         <v>153</v>
       </c>
@@ -11833,7 +11804,7 @@
       <c r="L6" s="28"/>
       <c r="M6" s="28"/>
     </row>
-    <row r="7" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>154</v>
       </c>
@@ -11856,7 +11827,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>154</v>
       </c>
@@ -11879,7 +11850,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>154</v>
       </c>
@@ -11902,7 +11873,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>154</v>
       </c>
@@ -11925,7 +11896,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
         <v>154</v>
       </c>
@@ -11948,7 +11919,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>154</v>
       </c>
@@ -11971,7 +11942,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>154</v>
       </c>
@@ -11994,7 +11965,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>154</v>
       </c>
@@ -12017,7 +11988,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>154</v>
       </c>
@@ -12040,7 +12011,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="4:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>154</v>
       </c>
@@ -12063,7 +12034,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>154</v>
       </c>
@@ -12086,7 +12057,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>154</v>
       </c>
@@ -12109,7 +12080,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>154</v>
       </c>
@@ -12132,7 +12103,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>154</v>
       </c>
@@ -12155,7 +12126,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>154</v>
       </c>
@@ -12178,7 +12149,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>154</v>
       </c>
@@ -12201,7 +12172,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>154</v>
       </c>
@@ -12224,7 +12195,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>154</v>
       </c>
@@ -12247,7 +12218,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>154</v>
       </c>
@@ -12270,7 +12241,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
         <v>154</v>
       </c>
@@ -12293,7 +12264,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>154</v>
       </c>
@@ -12316,7 +12287,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>159</v>
       </c>
@@ -12342,7 +12313,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>159</v>
       </c>
@@ -12368,7 +12339,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>159</v>
       </c>
@@ -12394,7 +12365,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>159</v>
       </c>
@@ -12420,7 +12391,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>159</v>
       </c>
@@ -12446,7 +12417,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>159</v>
       </c>
@@ -12472,7 +12443,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>159</v>
       </c>
@@ -12498,7 +12469,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>159</v>
       </c>
@@ -12524,7 +12495,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>159</v>
       </c>
@@ -12550,7 +12521,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>159</v>
       </c>
@@ -12576,7 +12547,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="38" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>159</v>
       </c>
@@ -12602,7 +12573,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="39" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>159</v>
       </c>
@@ -12628,7 +12599,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="40" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>159</v>
       </c>
@@ -12654,7 +12625,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>159</v>
       </c>
@@ -12680,7 +12651,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>159</v>
       </c>
@@ -12706,7 +12677,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>159</v>
       </c>
@@ -12732,7 +12703,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>159</v>
       </c>
@@ -12758,7 +12729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="45" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>159</v>
       </c>
@@ -12784,7 +12755,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>159</v>
       </c>
@@ -12810,7 +12781,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="47" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
         <v>159</v>
       </c>
@@ -12836,7 +12807,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="48" spans="4:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>159</v>
       </c>
@@ -12862,7 +12833,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
         <v>154</v>
       </c>
@@ -12885,7 +12856,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="50" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
         <v>154</v>
       </c>
@@ -12908,7 +12879,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
         <v>154</v>
       </c>
@@ -12931,7 +12902,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="52" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
         <v>154</v>
       </c>
@@ -12954,7 +12925,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
         <v>154</v>
       </c>
@@ -12977,7 +12948,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="54" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
         <v>154</v>
       </c>
@@ -13000,7 +12971,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="55" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
         <v>154</v>
       </c>
@@ -13023,7 +12994,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="56" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
         <v>154</v>
       </c>
@@ -13046,7 +13017,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="57" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
         <v>154</v>
       </c>
@@ -13069,7 +13040,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
         <v>154</v>
       </c>
@@ -13092,7 +13063,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="59" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
         <v>154</v>
       </c>
@@ -13115,7 +13086,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="60" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
         <v>154</v>
       </c>
@@ -13138,7 +13109,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
         <v>154</v>
       </c>
@@ -13161,7 +13132,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="62" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
         <v>154</v>
       </c>
@@ -13184,7 +13155,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
         <v>154</v>
       </c>
@@ -13207,7 +13178,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="64" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
         <v>154</v>
       </c>
@@ -13230,7 +13201,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
         <v>154</v>
       </c>
@@ -13253,7 +13224,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="66" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
         <v>154</v>
       </c>
@@ -13276,7 +13247,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
         <v>154</v>
       </c>
@@ -13299,7 +13270,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="68" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
         <v>154</v>
       </c>
@@ -13322,7 +13293,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
         <v>154</v>
       </c>
@@ -13345,7 +13316,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="70" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
         <v>154</v>
       </c>
@@ -13368,7 +13339,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
         <v>154</v>
       </c>
@@ -13391,7 +13362,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="72" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
         <v>154</v>
       </c>
@@ -13414,7 +13385,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="73" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
         <v>154</v>
       </c>
@@ -13437,7 +13408,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
         <v>154</v>
       </c>
@@ -13460,7 +13431,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="75" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
         <v>154</v>
       </c>
@@ -13483,7 +13454,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="76" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
         <v>154</v>
       </c>
@@ -13506,7 +13477,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="77" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
         <v>154</v>
       </c>
@@ -13529,7 +13500,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="78" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
         <v>154</v>
       </c>
@@ -13552,7 +13523,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
         <v>154</v>
       </c>
@@ -13575,7 +13546,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="80" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
         <v>154</v>
       </c>
@@ -13598,7 +13569,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="81" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
         <v>154</v>
       </c>
@@ -13621,7 +13592,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="82" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
         <v>154</v>
       </c>
@@ -13644,7 +13615,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="83" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
         <v>154</v>
       </c>
@@ -13667,7 +13638,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="84" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
         <v>154</v>
       </c>
@@ -13690,7 +13661,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="85" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
         <v>154</v>
       </c>
@@ -13713,7 +13684,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="86" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
         <v>154</v>
       </c>
@@ -13736,7 +13707,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="87" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
         <v>154</v>
       </c>
@@ -13759,7 +13730,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="88" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
         <v>154</v>
       </c>
@@ -13782,7 +13753,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="89" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
         <v>154</v>
       </c>
@@ -13805,7 +13776,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="90" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
         <v>154</v>
       </c>
@@ -13828,7 +13799,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
         <v>154</v>
       </c>
@@ -13851,7 +13822,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="92" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
         <v>154</v>
       </c>
@@ -13874,7 +13845,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="93" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
         <v>154</v>
       </c>
@@ -13897,7 +13868,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="94" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
         <v>154</v>
       </c>
@@ -13920,7 +13891,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="95" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
         <v>154</v>
       </c>
@@ -13943,7 +13914,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="96" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
         <v>154</v>
       </c>
@@ -13966,7 +13937,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="97" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
         <v>154</v>
       </c>
@@ -13989,7 +13960,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
         <v>154</v>
       </c>
@@ -14012,7 +13983,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="99" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
         <v>154</v>
       </c>
@@ -14035,7 +14006,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
         <v>154</v>
       </c>
@@ -14058,7 +14029,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
         <v>154</v>
       </c>
@@ -14081,7 +14052,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
         <v>154</v>
       </c>
@@ -14104,7 +14075,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="103" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
         <v>154</v>
       </c>
@@ -14127,7 +14098,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
         <v>154</v>
       </c>
@@ -14150,7 +14121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
         <v>154</v>
       </c>
@@ -14173,7 +14144,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="106" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
         <v>154</v>
       </c>
@@ -14196,7 +14167,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="107" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
         <v>154</v>
       </c>
@@ -14219,7 +14190,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
         <v>154</v>
       </c>
@@ -14242,7 +14213,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="109" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
         <v>154</v>
       </c>
@@ -14265,7 +14236,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="110" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
         <v>154</v>
       </c>
@@ -14288,7 +14259,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="111" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
         <v>154</v>
       </c>
@@ -14311,7 +14282,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="112" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
         <v>154</v>
       </c>
@@ -14334,7 +14305,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="113" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="113" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
         <v>154</v>
       </c>
@@ -14357,7 +14328,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="114" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="114" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
         <v>154</v>
       </c>
@@ -14380,7 +14351,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="115" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="115" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
         <v>154</v>
       </c>
@@ -14403,7 +14374,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="116" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
         <v>154</v>
       </c>
@@ -14426,7 +14397,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="117" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="117" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
         <v>154</v>
       </c>
@@ -14449,7 +14420,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="118" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="118" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
         <v>154</v>
       </c>
@@ -14472,7 +14443,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="119" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="119" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
         <v>154</v>
       </c>
@@ -14495,7 +14466,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="120" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="120" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
         <v>154</v>
       </c>
@@ -14518,7 +14489,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="121" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="121" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
         <v>154</v>
       </c>
@@ -14541,7 +14512,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="122" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="122" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
         <v>154</v>
       </c>
@@ -14564,7 +14535,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="123" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="123" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
         <v>154</v>
       </c>
@@ -14587,7 +14558,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="124" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="124" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
         <v>154</v>
       </c>
@@ -14610,7 +14581,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="125" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="125" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
         <v>154</v>
       </c>
@@ -14633,7 +14604,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="126" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="126" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
         <v>154</v>
       </c>
@@ -14656,7 +14627,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="127" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="127" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
         <v>154</v>
       </c>
@@ -14679,7 +14650,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="128" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="128" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
         <v>154</v>
       </c>
@@ -14702,7 +14673,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="129" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="129" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
         <v>154</v>
       </c>
@@ -14725,7 +14696,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="130" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="130" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
         <v>154</v>
       </c>
@@ -14748,7 +14719,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="131" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="131" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
         <v>154</v>
       </c>
@@ -14771,7 +14742,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="132" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="132" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
         <v>154</v>
       </c>
@@ -14794,7 +14765,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="133" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
         <v>154</v>
       </c>
@@ -14817,7 +14788,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="134" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="134" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
         <v>154</v>
       </c>
@@ -14840,7 +14811,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="135" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="135" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
         <v>154</v>
       </c>
@@ -14863,7 +14834,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="136" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="136" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
         <v>154</v>
       </c>
@@ -14886,7 +14857,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="137" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="137" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
         <v>154</v>
       </c>
@@ -14909,7 +14880,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="138" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="138" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
         <v>154</v>
       </c>
@@ -14932,7 +14903,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="139" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="139" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F139" t="s">
         <v>154</v>
       </c>
@@ -14955,7 +14926,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="140" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="140" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
         <v>154</v>
       </c>
@@ -14978,7 +14949,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="141" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="141" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
         <v>154</v>
       </c>
@@ -15001,7 +14972,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="142" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="142" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
         <v>154</v>
       </c>
@@ -15024,7 +14995,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="143" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="143" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
         <v>154</v>
       </c>
@@ -15047,7 +15018,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="144" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="144" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
         <v>154</v>
       </c>
@@ -15070,7 +15041,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="145" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
         <v>154</v>
       </c>
@@ -15093,7 +15064,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="146" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="146" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
         <v>154</v>
       </c>
@@ -15116,7 +15087,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="147" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="147" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
         <v>154</v>
       </c>
@@ -15139,7 +15110,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="148" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="148" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
         <v>154</v>
       </c>
@@ -15162,7 +15133,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="149" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="149" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
         <v>154</v>
       </c>
@@ -15185,7 +15156,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="150" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="150" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
         <v>154</v>
       </c>
@@ -15208,7 +15179,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="151" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
         <v>154</v>
       </c>
@@ -15231,7 +15202,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="152" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="152" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
         <v>154</v>
       </c>
@@ -15254,7 +15225,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="153" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="153" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
         <v>154</v>
       </c>
@@ -15277,7 +15248,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="154" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="154" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
         <v>154</v>
       </c>
@@ -15300,7 +15271,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="155" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
         <v>154</v>
       </c>
@@ -15323,7 +15294,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="156" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="156" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
         <v>154</v>
       </c>
@@ -15346,7 +15317,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="157" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="157" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
         <v>154</v>
       </c>
@@ -15369,7 +15340,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="158" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
         <v>154</v>
       </c>
@@ -15392,7 +15363,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="159" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
         <v>154</v>
       </c>
@@ -15415,7 +15386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="160" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
         <v>154</v>
       </c>
@@ -15438,7 +15409,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="161" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
         <v>154</v>
       </c>
@@ -15461,7 +15432,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="162" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="162" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
         <v>154</v>
       </c>
@@ -15484,7 +15455,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="163" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="163" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F163" t="s">
         <v>154</v>
       </c>
@@ -15507,7 +15478,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="164" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="164" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
         <v>154</v>
       </c>
@@ -15530,7 +15501,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="165" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="165" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F165" t="s">
         <v>154</v>
       </c>
@@ -15553,7 +15524,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="166" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="166" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
         <v>154</v>
       </c>
@@ -15576,7 +15547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="167" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="167" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F167" t="s">
         <v>154</v>
       </c>
@@ -15599,7 +15570,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="168" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="168" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F168" t="s">
         <v>154</v>
       </c>
@@ -15622,7 +15593,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="169" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="169" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
         <v>154</v>
       </c>
@@ -15645,7 +15616,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="170" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="170" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
         <v>154</v>
       </c>
@@ -15668,7 +15639,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="171" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="171" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
         <v>154</v>
       </c>
@@ -15691,7 +15662,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="172" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="172" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
         <v>154</v>
       </c>
@@ -15714,7 +15685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="173" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="173" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
         <v>154</v>
       </c>
@@ -15737,7 +15708,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="174" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="174" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
         <v>154</v>
       </c>
@@ -15760,7 +15731,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="175" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="175" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
         <v>154</v>
       </c>
@@ -15783,7 +15754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="176" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="176" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F176" t="s">
         <v>154</v>
       </c>
@@ -15806,7 +15777,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="177" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="177" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
         <v>154</v>
       </c>
@@ -15829,7 +15800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="178" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="178" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
         <v>154</v>
       </c>
@@ -15852,7 +15823,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="179" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="179" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
         <v>154</v>
       </c>
@@ -15875,7 +15846,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="180" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="180" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
         <v>154</v>
       </c>
@@ -15898,7 +15869,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="181" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="181" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
         <v>154</v>
       </c>
@@ -15921,7 +15892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="182" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="182" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
         <v>154</v>
       </c>
@@ -15944,7 +15915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="183" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="183" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
         <v>154</v>
       </c>
@@ -15967,7 +15938,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="184" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="184" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
         <v>154</v>
       </c>
@@ -15990,7 +15961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="185" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="185" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
         <v>154</v>
       </c>
@@ -16013,7 +15984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="186" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="186" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
         <v>154</v>
       </c>
@@ -16036,7 +16007,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="187" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="187" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
         <v>154</v>
       </c>
@@ -16059,7 +16030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="188" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="188" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
         <v>154</v>
       </c>
@@ -16082,7 +16053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="189" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="189" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
         <v>154</v>
       </c>
@@ -16105,7 +16076,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="190" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="190" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
         <v>154</v>
       </c>
@@ -16128,7 +16099,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="191" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="191" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
         <v>154</v>
       </c>
@@ -16151,7 +16122,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="192" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="192" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F192" t="s">
         <v>154</v>
       </c>
@@ -16174,7 +16145,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="193" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="193" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
         <v>154</v>
       </c>
@@ -16197,7 +16168,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="194" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="194" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F194" t="s">
         <v>154</v>
       </c>
@@ -16220,7 +16191,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="195" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="195" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F195" t="s">
         <v>154</v>
       </c>
@@ -16243,7 +16214,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="196" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="196" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
         <v>154</v>
       </c>
@@ -16266,7 +16237,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="197" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="197" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F197" t="s">
         <v>154</v>
       </c>
@@ -16289,7 +16260,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="198" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="198" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F198" t="s">
         <v>154</v>
       </c>
@@ -16312,7 +16283,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="199" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="199" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
         <v>154</v>
       </c>
@@ -16335,7 +16306,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="200" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="200" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
         <v>154</v>
       </c>
@@ -16358,7 +16329,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="201" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="201" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F201" t="s">
         <v>154</v>
       </c>
@@ -16381,7 +16352,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="202" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="202" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
         <v>154</v>
       </c>
@@ -16404,7 +16375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="203" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="203" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F203" t="s">
         <v>154</v>
       </c>
@@ -16427,7 +16398,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="204" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="204" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F204" t="s">
         <v>154</v>
       </c>
@@ -16450,7 +16421,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="205" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="205" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
         <v>154</v>
       </c>
@@ -16473,7 +16444,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="206" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="206" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F206" t="s">
         <v>154</v>
       </c>
@@ -16496,7 +16467,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="207" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="207" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
         <v>154</v>
       </c>
@@ -16519,7 +16490,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="208" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="208" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F208" t="s">
         <v>154</v>
       </c>
@@ -16542,7 +16513,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="209" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="209" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F209" t="s">
         <v>154</v>
       </c>
@@ -16565,7 +16536,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="210" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="210" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F210" t="s">
         <v>154</v>
       </c>
@@ -16588,7 +16559,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="211" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="211" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
         <v>154</v>
       </c>
@@ -16611,7 +16582,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="212" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="212" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F212" t="s">
         <v>154</v>
       </c>
@@ -16634,7 +16605,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="213" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="213" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F213" t="s">
         <v>154</v>
       </c>
@@ -16657,7 +16628,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="214" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="214" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F214" t="s">
         <v>154</v>
       </c>
@@ -16680,7 +16651,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="215" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="215" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
         <v>154</v>
       </c>
@@ -16703,7 +16674,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="216" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="216" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
         <v>154</v>
       </c>
@@ -16739,18 +16710,18 @@
       <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
         <v>150</v>
       </c>
@@ -16758,7 +16729,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
@@ -16791,7 +16762,7 @@
       </c>
       <c r="N4" s="29"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>153</v>
       </c>
@@ -16807,7 +16778,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -16824,7 +16795,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -16841,7 +16812,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -16858,7 +16829,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -16875,7 +16846,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -16892,7 +16863,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -16909,7 +16880,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -16926,7 +16897,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -16943,7 +16914,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -16960,7 +16931,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -16977,7 +16948,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -16994,7 +16965,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -17011,7 +16982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -17028,7 +16999,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -17045,7 +17016,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -17062,7 +17033,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -17079,7 +17050,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -17096,7 +17067,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -17113,7 +17084,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -17130,7 +17101,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -17147,7 +17118,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -17164,7 +17135,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -17181,7 +17152,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -17198,7 +17169,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -17215,7 +17186,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -17232,7 +17203,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -17249,7 +17220,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -17266,7 +17237,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2BCC61-CB24-47CC-9A29-A77B9DA1E46A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0A119B-27B4-4DA7-BE8F-3D583137C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -506,15 +506,6 @@
     <t>Development</t>
   </si>
   <si>
-    <t>RSDSH_Apt</t>
-  </si>
-  <si>
-    <t>RSDSH_Att</t>
-  </si>
-  <si>
-    <t>RSDSH_Det</t>
-  </si>
-  <si>
     <t>RSDSC_Apt</t>
   </si>
   <si>
@@ -690,6 +681,15 @@
   </si>
   <si>
     <t>2050_LED</t>
+  </si>
+  <si>
+    <t>RSDSH_Apt*</t>
+  </si>
+  <si>
+    <t>RSDSH_Att*</t>
+  </si>
+  <si>
+    <t>RSDSH_Det*</t>
   </si>
 </sst>
 </file>
@@ -1366,7 +1366,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226CF39-0357-4B21-823B-1B3093B14EE8}">
   <dimension ref="C4:AK42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -3600,7 +3600,7 @@
         <v>2018</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
@@ -3645,7 +3645,7 @@
         <v>2018</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="J40" s="22"/>
       <c r="K40" s="22"/>
@@ -3690,7 +3690,7 @@
         <v>2018</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J41" s="22">
         <v>5.6291760000000002</v>
@@ -3739,7 +3739,7 @@
         <v>2018</v>
       </c>
       <c r="I42" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J42" s="22">
         <v>0.48</v>
@@ -8861,8 +8861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:AQ48"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8883,7 +8883,7 @@
   <sheetData>
     <row r="1" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -8948,13 +8948,13 @@
         <v>2050</v>
       </c>
       <c r="V2" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Y2" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="Z2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3" spans="3:26" x14ac:dyDescent="0.25">
@@ -8975,13 +8975,13 @@
         <v>2.0712927345907701</v>
       </c>
       <c r="I3" s="30">
-        <v>2.0621875423309999</v>
+        <v>2.9169885814082672</v>
       </c>
       <c r="J3" s="30">
-        <v>1.81463172003468</v>
+        <v>2.9233084199020065</v>
       </c>
       <c r="K3" s="30">
-        <v>1.7972395625350801</v>
+        <v>2.9160581250770159</v>
       </c>
       <c r="L3" s="30">
         <v>1.7355926991192092</v>
@@ -9041,13 +9041,13 @@
         <v>22.2490403410117</v>
       </c>
       <c r="I4" s="30">
-        <v>21.6662880683004</v>
+        <v>20.829707214475608</v>
       </c>
       <c r="J4" s="30">
-        <v>22.997393933436499</v>
+        <v>21.483394248547164</v>
       </c>
       <c r="K4" s="30">
-        <v>23.206398476760199</v>
+        <v>20.570384916097975</v>
       </c>
       <c r="L4" s="30">
         <v>23.307206870973118</v>
@@ -9107,13 +9107,13 @@
         <v>1.2014578872914701</v>
       </c>
       <c r="I5" s="30">
-        <v>1.2266704416391101</v>
+        <v>0.74181807651109255</v>
       </c>
       <c r="J5" s="30">
-        <v>1.3579701788487999</v>
+        <v>0.7440570217426532</v>
       </c>
       <c r="K5" s="30">
-        <v>1.42973411467998</v>
+        <v>0.73064036372909791</v>
       </c>
       <c r="L5" s="30">
         <v>1.5141869213109658</v>
@@ -9173,13 +9173,13 @@
         <v>6.6890404714869804</v>
       </c>
       <c r="I6" s="30">
-        <v>6.45095434431237</v>
+        <v>6.5639975672352229</v>
       </c>
       <c r="J6" s="30">
-        <v>5.7274313907438001</v>
+        <v>5.780638065059601</v>
       </c>
       <c r="K6" s="30">
-        <v>5.7714923131207199</v>
+        <v>6.5949264310858817</v>
       </c>
       <c r="L6" s="30">
         <v>5.774130699108345</v>
@@ -9239,13 +9239,13 @@
         <v>0.67287296253748397</v>
       </c>
       <c r="I7" s="30">
-        <v>0.68901566323930896</v>
+        <v>0.5707726774555677</v>
       </c>
       <c r="J7" s="30">
-        <v>1.1453307514123801</v>
+        <v>0.56119057639608538</v>
       </c>
       <c r="K7" s="30">
-        <v>1.17197510213696</v>
+        <v>0.55161044480654198</v>
       </c>
       <c r="L7" s="30">
         <v>1.1929381003551427</v>
@@ -9305,13 +9305,13 @@
         <v>10.5976971594968</v>
       </c>
       <c r="I8" s="30">
-        <v>10.425059758064601</v>
+        <v>9.7037603897089575</v>
       </c>
       <c r="J8" s="30">
-        <v>10.4827865863979</v>
+        <v>9.435975307949354</v>
       </c>
       <c r="K8" s="30">
-        <v>10.5428293661965</v>
+        <v>9.2516395819175106</v>
       </c>
       <c r="L8" s="30">
         <v>10.524126408294414</v>
@@ -9371,13 +9371,13 @@
         <v>1.14056826967015</v>
       </c>
       <c r="I9" s="30">
-        <v>1.17</v>
+        <v>1.5498072549825794</v>
       </c>
       <c r="J9" s="30">
-        <v>1.05400776614231</v>
+        <v>1.5053268122598555</v>
       </c>
       <c r="K9" s="30">
-        <v>1.0560918609379499</v>
+        <v>1.4894503267095116</v>
       </c>
       <c r="L9" s="30">
         <v>1.0423022217408722</v>
@@ -9437,13 +9437,13 @@
         <v>17.770098364755199</v>
       </c>
       <c r="I10" s="30">
-        <v>17.352426464494599</v>
+        <v>17.613308735917627</v>
       </c>
       <c r="J10" s="30">
-        <v>16.2067419529189</v>
+        <v>17.067480468046199</v>
       </c>
       <c r="K10" s="30">
-        <v>18.038812365039959</v>
+        <v>18.473544022536192</v>
       </c>
       <c r="L10" s="30">
         <v>17.859218677936212</v>
@@ -9503,13 +9503,13 @@
         <v>19.5397050142764</v>
       </c>
       <c r="I11" s="30">
-        <v>20.047656182086499</v>
+        <v>20.746846228178715</v>
       </c>
       <c r="J11" s="30">
-        <v>17.9214706310973</v>
+        <v>18.66727780331064</v>
       </c>
       <c r="K11" s="30">
-        <v>18.007471512750399</v>
+        <v>19.411458005544933</v>
       </c>
       <c r="L11" s="30">
         <v>17.958010082281277</v>
@@ -9569,13 +9569,13 @@
         <v>1.28965569884044</v>
       </c>
       <c r="I12" s="30">
-        <v>1.3174050900000001</v>
+        <v>1.4943226387301358</v>
       </c>
       <c r="J12" s="30">
-        <v>2.2861941894738802</v>
+        <v>1.4634791461847667</v>
       </c>
       <c r="K12" s="30">
-        <v>2.2724834198886699</v>
+        <v>1.4446377495642824</v>
       </c>
       <c r="L12" s="30">
         <v>2.2377470890417612</v>
@@ -9635,13 +9635,13 @@
         <v>4.2689583715443504</v>
       </c>
       <c r="I13" s="30">
-        <v>5.7587113786598101</v>
+        <v>5.007589393109674</v>
       </c>
       <c r="J13" s="30">
-        <v>5.7966251432017799</v>
+        <v>4.7554316434518897</v>
       </c>
       <c r="K13" s="30">
-        <v>6.0384328428305096</v>
+        <v>4.7269471440454405</v>
       </c>
       <c r="L13" s="30">
         <v>6.2667484495085546</v>
@@ -9701,13 +9701,13 @@
         <v>0.16518244671693</v>
       </c>
       <c r="I14" s="30">
-        <v>0.19765643241907199</v>
+        <v>0.26558264395501924</v>
       </c>
       <c r="J14" s="30">
-        <v>0.19444424313328701</v>
+        <v>0.2542796677646712</v>
       </c>
       <c r="K14" s="30">
-        <v>0.19096988348358901</v>
+        <v>0.25565928356184919</v>
       </c>
       <c r="L14" s="30">
         <v>0.1853627564264162</v>
@@ -9767,13 +9767,13 @@
         <v>4.2546573385120396</v>
       </c>
       <c r="I15" s="30">
-        <v>4.4510147654637802</v>
+        <v>4.3090308460490396</v>
       </c>
       <c r="J15" s="30">
-        <v>4.5897245674903298</v>
+        <v>4.2602225832464828</v>
       </c>
       <c r="K15" s="30">
-        <v>4.5894976142623198</v>
+        <v>4.1432118323518896</v>
       </c>
       <c r="L15" s="30">
         <v>4.5950681273607898</v>
@@ -9833,13 +9833,13 @@
         <v>4.0239683065477196</v>
       </c>
       <c r="I16" s="30">
-        <v>4.3602102234671296</v>
+        <v>2.1699504611733866</v>
       </c>
       <c r="J16" s="30">
-        <v>3.5251257971202601</v>
+        <v>1.9706387130131231</v>
       </c>
       <c r="K16" s="30">
-        <v>3.5792625600137602</v>
+        <v>1.9076981609625141</v>
       </c>
       <c r="L16" s="30">
         <v>3.6119954802522116</v>
@@ -10487,10 +10487,10 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H26" s="31">
         <v>28.901664567933956</v>
@@ -10553,10 +10553,10 @@
         <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="H27" s="31">
         <v>58.151541961987604</v>
@@ -10619,10 +10619,10 @@
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H28" s="31">
         <v>5.6291760000000002</v>
@@ -10631,7 +10631,7 @@
         <v>8.544383999999809</v>
       </c>
       <c r="J28" s="31">
-        <v>11.459592000000157</v>
+        <v>10.868399999999999</v>
       </c>
       <c r="K28" s="31">
         <v>14.3748</v>
@@ -10685,10 +10685,10 @@
         <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G29" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H29" s="31">
         <v>0.48</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="30" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E30" t="s">
         <v>59</v>
@@ -10753,7 +10753,7 @@
         <v>68</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H30" s="31">
         <v>1.1293662452687998</v>
@@ -10809,7 +10809,7 @@
     </row>
     <row r="31" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E31" t="s">
         <v>59</v>
@@ -10818,7 +10818,7 @@
         <v>69</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H31" s="31">
         <v>2</v>
@@ -10874,7 +10874,7 @@
     </row>
     <row r="32" spans="4:26" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E32" t="s">
         <v>59</v>
@@ -10883,7 +10883,7 @@
         <v>70</v>
       </c>
       <c r="G32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H32" s="31">
         <v>0.77162665337257486</v>
@@ -10939,7 +10939,7 @@
     </row>
     <row r="33" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E33" t="s">
         <v>59</v>
@@ -10948,7 +10948,7 @@
         <v>71</v>
       </c>
       <c r="G33" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H33" s="31">
         <v>1.0288379823457823</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="34" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
         <v>59</v>
@@ -11013,7 +11013,7 @@
         <v>72</v>
       </c>
       <c r="G34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H34" s="31">
         <v>0.83034086441921984</v>
@@ -11069,7 +11069,7 @@
     </row>
     <row r="35" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
         <v>59</v>
@@ -11078,7 +11078,7 @@
         <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="H35" s="31">
         <v>9.2169270601309012</v>
@@ -11134,7 +11134,7 @@
     </row>
     <row r="36" spans="3:43" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E36" t="s">
         <v>59</v>
@@ -11143,7 +11143,7 @@
         <v>74</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H36" s="1">
         <v>0</v>
@@ -11205,7 +11205,7 @@
     </row>
     <row r="38" spans="3:43" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D38" t="s">
         <v>0</v>
@@ -11226,10 +11226,10 @@
         <v>3</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>4</v>
@@ -11337,7 +11337,7 @@
         <v>2050</v>
       </c>
       <c r="AQ39" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="3:43" x14ac:dyDescent="0.25">
@@ -11345,7 +11345,7 @@
         <v>59</v>
       </c>
       <c r="E40" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>52</v>
@@ -11461,7 +11461,7 @@
         <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>54</v>
@@ -11577,7 +11577,7 @@
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>56</v>
@@ -11736,8 +11736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="D4:M216"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11749,7 +11749,7 @@
   <sheetData>
     <row r="4" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
@@ -11779,22 +11779,22 @@
         <v>4</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="L5" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M5" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D6" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -11806,7 +11806,7 @@
     </row>
     <row r="7" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G7">
         <v>2020</v>
@@ -11818,18 +11818,18 @@
         <v>1.38721379057928E-2</v>
       </c>
       <c r="J7" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K7" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G8">
         <v>2025</v>
@@ -11841,18 +11841,18 @@
         <v>1.3640935607362899E-2</v>
       </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K8" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G9">
         <v>2030</v>
@@ -11864,18 +11864,18 @@
         <v>1.3409733308933001E-2</v>
       </c>
       <c r="J9" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K9" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G10">
         <v>2035</v>
@@ -11887,18 +11887,18 @@
         <v>1.31785310105031E-2</v>
       </c>
       <c r="J10" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L10" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G11">
         <v>2040</v>
@@ -11910,18 +11910,18 @@
         <v>1.29473287120732E-2</v>
       </c>
       <c r="J11" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K11" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G12">
         <v>2045</v>
@@ -11933,18 +11933,18 @@
         <v>1.27161264136434E-2</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K12" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L12" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G13">
         <v>2050</v>
@@ -11956,18 +11956,18 @@
         <v>1.24849241152135E-2</v>
       </c>
       <c r="J13" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G14">
         <v>2020</v>
@@ -11979,18 +11979,18 @@
         <v>2.82671906295494E-2</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K14" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L14" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G15">
         <v>2025</v>
@@ -12002,18 +12002,18 @@
         <v>2.76547348325758E-2</v>
       </c>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="4:13" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G16">
         <v>2030</v>
@@ -12025,18 +12025,18 @@
         <v>2.7042279035602201E-2</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G17">
         <v>2035</v>
@@ -12048,18 +12048,18 @@
         <v>2.6429823238628702E-2</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K17" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G18">
         <v>2040</v>
@@ -12071,18 +12071,18 @@
         <v>2.5817367441655099E-2</v>
       </c>
       <c r="J18" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G19">
         <v>2045</v>
@@ -12094,18 +12094,18 @@
         <v>2.5204911644681499E-2</v>
       </c>
       <c r="J19" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G20">
         <v>2050</v>
@@ -12117,18 +12117,18 @@
         <v>2.4592455847708E-2</v>
       </c>
       <c r="J20" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K20" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G21">
         <v>2020</v>
@@ -12140,18 +12140,18 @@
         <v>5.1858242929871998E-2</v>
       </c>
       <c r="J21" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K21" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G22">
         <v>2025</v>
@@ -12163,18 +12163,18 @@
         <v>5.0734647666391401E-2</v>
       </c>
       <c r="J22" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K22" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G23">
         <v>2030</v>
@@ -12186,18 +12186,18 @@
         <v>4.9611052402910902E-2</v>
       </c>
       <c r="J23" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K23" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G24">
         <v>2035</v>
@@ -12209,18 +12209,18 @@
         <v>4.8487457139430298E-2</v>
       </c>
       <c r="J24" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G25">
         <v>2040</v>
@@ -12232,18 +12232,18 @@
         <v>4.7363861875949799E-2</v>
       </c>
       <c r="J25" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K25" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L25" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G26">
         <v>2045</v>
@@ -12255,18 +12255,18 @@
         <v>4.6240266612469202E-2</v>
       </c>
       <c r="J26" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G27">
         <v>2050</v>
@@ -12278,21 +12278,21 @@
         <v>4.5116671348988703E-2</v>
       </c>
       <c r="J27" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K27" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G28">
         <v>2020</v>
@@ -12304,21 +12304,21 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K28" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L28" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G29">
         <v>2025</v>
@@ -12330,21 +12330,21 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K29" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G30">
         <v>2030</v>
@@ -12356,21 +12356,21 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K30" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G31">
         <v>2035</v>
@@ -12382,21 +12382,21 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K31" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L31" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G32">
         <v>2040</v>
@@ -12408,21 +12408,21 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L32" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G33">
         <v>2045</v>
@@ -12434,21 +12434,21 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L33" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F34" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G34">
         <v>2050</v>
@@ -12460,21 +12460,21 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K34" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F35" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G35">
         <v>2020</v>
@@ -12486,21 +12486,21 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F36" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G36">
         <v>2025</v>
@@ -12512,21 +12512,21 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L36" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F37" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G37">
         <v>2030</v>
@@ -12538,21 +12538,21 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L37" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F38" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G38">
         <v>2035</v>
@@ -12564,21 +12564,21 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K38" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L38" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G39">
         <v>2040</v>
@@ -12590,21 +12590,21 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K39" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F40" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G40">
         <v>2045</v>
@@ -12616,21 +12616,21 @@
         <v>0</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K40" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L40" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F41" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G41">
         <v>2050</v>
@@ -12642,21 +12642,21 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K41" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L41" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="42" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G42">
         <v>2020</v>
@@ -12668,21 +12668,21 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K42" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L42" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F43" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G43">
         <v>2025</v>
@@ -12694,21 +12694,21 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K43" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L43" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F44" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G44">
         <v>2030</v>
@@ -12720,21 +12720,21 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F45" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G45">
         <v>2035</v>
@@ -12746,21 +12746,21 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F46" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G46">
         <v>2040</v>
@@ -12772,21 +12772,21 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K46" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L46" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F47" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G47">
         <v>2045</v>
@@ -12798,21 +12798,21 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K47" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L47" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F48" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G48">
         <v>2050</v>
@@ -12824,18 +12824,18 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L48" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G49">
         <v>2020</v>
@@ -12847,18 +12847,18 @@
         <v>1.22705451858846E-2</v>
       </c>
       <c r="J49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K49" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L49" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G50">
         <v>2025</v>
@@ -12870,18 +12870,18 @@
         <v>1.19637815562375E-2</v>
       </c>
       <c r="J50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K50" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L50" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F51" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G51">
         <v>2030</v>
@@ -12893,18 +12893,18 @@
         <v>1.16570179265904E-2</v>
       </c>
       <c r="J51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K51" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F52" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G52">
         <v>2035</v>
@@ -12916,18 +12916,18 @@
         <v>1.13502542969432E-2</v>
       </c>
       <c r="J52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K52" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G53">
         <v>2040</v>
@@ -12939,18 +12939,18 @@
         <v>1.10434906672961E-2</v>
       </c>
       <c r="J53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K53" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L53" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F54" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G54">
         <v>2045</v>
@@ -12962,18 +12962,18 @@
         <v>1.0736727037649E-2</v>
       </c>
       <c r="J54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K54" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F55" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G55">
         <v>2050</v>
@@ -12985,18 +12985,18 @@
         <v>1.04299634080019E-2</v>
       </c>
       <c r="J55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L55" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="56" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F56" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G56">
         <v>2020</v>
@@ -13008,18 +13008,18 @@
         <v>1.0838880017831501E-2</v>
       </c>
       <c r="J56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L56" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="57" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F57" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G57">
         <v>2025</v>
@@ -13031,18 +13031,18 @@
         <v>1.05679080173857E-2</v>
       </c>
       <c r="J57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K57" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F58" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G58">
         <v>2030</v>
@@ -13054,18 +13054,18 @@
         <v>1.02969360169399E-2</v>
       </c>
       <c r="J58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K58" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="59" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F59" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G59">
         <v>2035</v>
@@ -13077,18 +13077,18 @@
         <v>1.00259640164941E-2</v>
       </c>
       <c r="J59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K59" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L59" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F60" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G60">
         <v>2040</v>
@@ -13100,18 +13100,18 @@
         <v>9.7549920160483194E-3</v>
       </c>
       <c r="J60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K60" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L60" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F61" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G61">
         <v>2045</v>
@@ -13123,18 +13123,18 @@
         <v>9.4840200156025393E-3</v>
       </c>
       <c r="J61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K61" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L61" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G62">
         <v>2050</v>
@@ -13146,18 +13146,18 @@
         <v>9.2130480151567506E-3</v>
       </c>
       <c r="J62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K62" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L62" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F63" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G63">
         <v>2020</v>
@@ -13169,18 +13169,18 @@
         <v>1.3699686064869101E-2</v>
       </c>
       <c r="J63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K63" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F64" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G64">
         <v>2025</v>
@@ -13192,18 +13192,18 @@
         <v>1.3357193913247301E-2</v>
       </c>
       <c r="J64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K64" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L64" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F65" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G65">
         <v>2030</v>
@@ -13215,18 +13215,18 @@
         <v>1.3014701761625599E-2</v>
       </c>
       <c r="J65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K65" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L65" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F66" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G66">
         <v>2035</v>
@@ -13238,18 +13238,18 @@
         <v>1.26722096100039E-2</v>
       </c>
       <c r="J66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K66" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L66" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="67" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F67" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G67">
         <v>2040</v>
@@ -13261,18 +13261,18 @@
         <v>1.2329717458382201E-2</v>
       </c>
       <c r="J67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K67" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L67" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="68" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F68" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G68">
         <v>2045</v>
@@ -13284,18 +13284,18 @@
         <v>1.1987225306760401E-2</v>
       </c>
       <c r="J68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K68" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L68" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="69" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F69" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G69">
         <v>2050</v>
@@ -13307,18 +13307,18 @@
         <v>1.16447331551387E-2</v>
       </c>
       <c r="J69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K69" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L69" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="70" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F70" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G70">
         <v>2020</v>
@@ -13330,18 +13330,18 @@
         <v>1.6114677026113401E-3</v>
       </c>
       <c r="J70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="71" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F71" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G71">
         <v>2025</v>
@@ -13353,18 +13353,18 @@
         <v>1.59803880508958E-3</v>
       </c>
       <c r="J71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L71" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="72" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F72" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G72">
         <v>2030</v>
@@ -13376,18 +13376,18 @@
         <v>1.58460990756782E-3</v>
       </c>
       <c r="J72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F73" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G73">
         <v>2035</v>
@@ -13399,18 +13399,18 @@
         <v>1.57118101004606E-3</v>
       </c>
       <c r="J73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L73" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="74" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F74" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G74">
         <v>2040</v>
@@ -13422,18 +13422,18 @@
         <v>1.5577521125242999E-3</v>
       </c>
       <c r="J74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L74" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F75" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G75">
         <v>2045</v>
@@ -13445,18 +13445,18 @@
         <v>1.5443232150025401E-3</v>
       </c>
       <c r="J75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L75" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F76" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G76">
         <v>2050</v>
@@ -13468,18 +13468,18 @@
         <v>1.53089431748078E-3</v>
       </c>
       <c r="J76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L76" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="77" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F77" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G77">
         <v>2020</v>
@@ -13491,18 +13491,18 @@
         <v>2.287177034804E-3</v>
       </c>
       <c r="J77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K77" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L77" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F78" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G78">
         <v>2025</v>
@@ -13514,18 +13514,18 @@
         <v>2.2681172261806298E-3</v>
       </c>
       <c r="J78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K78" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L78" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79">
         <v>2030</v>
@@ -13537,18 +13537,18 @@
         <v>2.2490574175572601E-3</v>
       </c>
       <c r="J79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K79" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="80" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G80">
         <v>2035</v>
@@ -13560,18 +13560,18 @@
         <v>2.2299976089338999E-3</v>
       </c>
       <c r="J80" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K80" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L80" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F81" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G81">
         <v>2040</v>
@@ -13583,18 +13583,18 @@
         <v>2.2109378003105301E-3</v>
       </c>
       <c r="J81" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K81" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F82" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G82">
         <v>2045</v>
@@ -13606,18 +13606,18 @@
         <v>2.19187799168716E-3</v>
       </c>
       <c r="J82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K82" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="83" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F83" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G83">
         <v>2050</v>
@@ -13629,18 +13629,18 @@
         <v>2.1728181830638002E-3</v>
       </c>
       <c r="J83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K83" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L83" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F84" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G84">
         <v>2020</v>
@@ -13652,18 +13652,18 @@
         <v>3.76745947904644E-3</v>
       </c>
       <c r="J84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K84" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L84" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="85" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F85" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G85">
         <v>2025</v>
@@ -13675,18 +13675,18 @@
         <v>3.7360639833877202E-3</v>
       </c>
       <c r="J85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K85" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L85" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F86" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G86">
         <v>2030</v>
@@ -13698,18 +13698,18 @@
         <v>3.7046684877289999E-3</v>
       </c>
       <c r="J86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L86" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F87" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G87">
         <v>2035</v>
@@ -13721,18 +13721,18 @@
         <v>3.6732729920702801E-3</v>
       </c>
       <c r="J87" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K87" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L87" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F88" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G88">
         <v>2040</v>
@@ -13744,18 +13744,18 @@
         <v>3.6418774964115598E-3</v>
       </c>
       <c r="J88" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K88" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L88" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F89" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G89">
         <v>2045</v>
@@ -13767,18 +13767,18 @@
         <v>3.61048200075284E-3</v>
       </c>
       <c r="J89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K89" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L89" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="90" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F90" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G90">
         <v>2050</v>
@@ -13790,18 +13790,18 @@
         <v>3.5790865050941202E-3</v>
       </c>
       <c r="J90" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K90" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L90" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F91" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G91">
         <v>2020</v>
@@ -13813,18 +13813,18 @@
         <v>3.3205708318124599E-4</v>
       </c>
       <c r="J91" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K91" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L91" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="92" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F92" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G92">
         <v>2025</v>
@@ -13836,18 +13836,18 @@
         <v>3.2928994082140301E-4</v>
       </c>
       <c r="J92" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K92" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L92" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="93" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F93" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G93">
         <v>2030</v>
@@ -13859,18 +13859,18 @@
         <v>3.2652279846155901E-4</v>
       </c>
       <c r="J93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K93" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L93" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F94" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G94">
         <v>2035</v>
@@ -13882,18 +13882,18 @@
         <v>3.2375565610171501E-4</v>
       </c>
       <c r="J94" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K94" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L94" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F95" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G95">
         <v>2040</v>
@@ -13905,18 +13905,18 @@
         <v>3.2098851374187198E-4</v>
       </c>
       <c r="J95" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K95" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L95" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F96" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G96">
         <v>2045</v>
@@ -13928,18 +13928,18 @@
         <v>3.1822137138202798E-4</v>
       </c>
       <c r="J96" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K96" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L96" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F97" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G97">
         <v>2050</v>
@@ -13951,18 +13951,18 @@
         <v>3.1545422902218398E-4</v>
       </c>
       <c r="J97" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K97" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L97" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F98" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G98">
         <v>2020</v>
@@ -13974,18 +13974,18 @@
         <v>6.3335727594585403E-4</v>
       </c>
       <c r="J98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K98" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L98" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F99" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G99">
         <v>2025</v>
@@ -13997,18 +13997,18 @@
         <v>6.2807929864630498E-4</v>
       </c>
       <c r="J99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K99" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L99" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F100" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G100">
         <v>2030</v>
@@ -14020,18 +14020,18 @@
         <v>6.2280132134675604E-4</v>
       </c>
       <c r="J100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K100" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L100" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F101" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G101">
         <v>2035</v>
@@ -14043,18 +14043,18 @@
         <v>6.1752334404720699E-4</v>
       </c>
       <c r="J101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K101" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L101" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F102" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G102">
         <v>2040</v>
@@ -14066,18 +14066,18 @@
         <v>6.1224536674765902E-4</v>
       </c>
       <c r="J102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K102" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L102" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F103" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G103">
         <v>2045</v>
@@ -14089,18 +14089,18 @@
         <v>6.0696738944810997E-4</v>
       </c>
       <c r="J103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K103" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L103" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F104" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G104">
         <v>2050</v>
@@ -14112,18 +14112,18 @@
         <v>6.0168941214856103E-4</v>
       </c>
       <c r="J104" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K104" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L104" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F105" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G105">
         <v>2020</v>
@@ -14135,18 +14135,18 @@
         <v>7.8417325837286497E-4</v>
       </c>
       <c r="J105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K105" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L105" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F106" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G106">
         <v>2025</v>
@@ -14158,18 +14158,18 @@
         <v>7.7763848121975804E-4</v>
       </c>
       <c r="J106" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K106" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L106" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F107" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G107">
         <v>2030</v>
@@ -14181,18 +14181,18 @@
         <v>7.7110370406665099E-4</v>
       </c>
       <c r="J107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K107" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L107" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F108" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G108">
         <v>2035</v>
@@ -14204,18 +14204,18 @@
         <v>7.6456892691354405E-4</v>
       </c>
       <c r="J108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K108" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L108" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F109" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G109">
         <v>2040</v>
@@ -14227,18 +14227,18 @@
         <v>7.58034149760437E-4</v>
       </c>
       <c r="J109" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K109" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L109" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F110" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G110">
         <v>2045</v>
@@ -14250,18 +14250,18 @@
         <v>7.5149937260732898E-4</v>
       </c>
       <c r="J110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K110" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L110" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F111" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G111">
         <v>2050</v>
@@ -14273,18 +14273,18 @@
         <v>7.4496459545422204E-4</v>
       </c>
       <c r="J111" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K111" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L111" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F112" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G112">
         <v>2020</v>
@@ -14296,18 +14296,18 @@
         <v>4.4223271439528802E-3</v>
       </c>
       <c r="J112" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K112" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L112" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F113" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G113">
         <v>2025</v>
@@ -14319,18 +14319,18 @@
         <v>4.3486216915536698E-3</v>
       </c>
       <c r="J113" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K113" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L113" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F114" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G114">
         <v>2030</v>
@@ -14342,18 +14342,18 @@
         <v>4.2749162391544498E-3</v>
       </c>
       <c r="J114" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K114" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L114" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F115" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G115">
         <v>2035</v>
@@ -14365,18 +14365,18 @@
         <v>4.2012107867552403E-3</v>
       </c>
       <c r="J115" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K115" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L115" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F116" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G116">
         <v>2040</v>
@@ -14388,18 +14388,18 @@
         <v>4.1275053343560204E-3</v>
       </c>
       <c r="J116" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K116" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L116" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F117" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G117">
         <v>2045</v>
@@ -14411,18 +14411,18 @@
         <v>4.05379988195681E-3</v>
       </c>
       <c r="J117" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K117" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L117" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="118" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F118" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G118">
         <v>2050</v>
@@ -14434,18 +14434,18 @@
         <v>3.9800944295576004E-3</v>
       </c>
       <c r="J118" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="K118" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="L118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F119" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G119">
         <v>2020</v>
@@ -14457,18 +14457,18 @@
         <v>1.02421175095175E-2</v>
       </c>
       <c r="J119" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K119" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L119" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F120" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G120">
         <v>2025</v>
@@ -14480,18 +14480,18 @@
         <v>1.0020204963478E-2</v>
       </c>
       <c r="J120" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K120" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L120" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F121" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G121">
         <v>2030</v>
@@ -14503,18 +14503,18 @@
         <v>9.7982924174384502E-3</v>
       </c>
       <c r="J121" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K121" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F122" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G122">
         <v>2035</v>
@@ -14526,18 +14526,18 @@
         <v>9.5763798713989108E-3</v>
       </c>
       <c r="J122" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K122" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F123" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G123">
         <v>2040</v>
@@ -14549,18 +14549,18 @@
         <v>9.3544673253593592E-3</v>
       </c>
       <c r="J123" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K123" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F124" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G124">
         <v>2045</v>
@@ -14572,18 +14572,18 @@
         <v>9.1325547793198094E-3</v>
       </c>
       <c r="J124" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K124" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F125" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G125">
         <v>2050</v>
@@ -14595,18 +14595,18 @@
         <v>8.91064223328027E-3</v>
       </c>
       <c r="J125" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="K125" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="L125" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F126" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G126">
         <v>2020</v>
@@ -14618,18 +14618,18 @@
         <v>2.4280865417312301E-2</v>
       </c>
       <c r="J126" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K126" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L126" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F127" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G127">
         <v>2025</v>
@@ -14641,18 +14641,18 @@
         <v>2.3754779999937199E-2</v>
       </c>
       <c r="J127" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K127" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L127" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F128" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G128">
         <v>2030</v>
@@ -14664,18 +14664,18 @@
         <v>2.32286945825621E-2</v>
       </c>
       <c r="J128" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K128" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L128" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F129" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G129">
         <v>2035</v>
@@ -14687,18 +14687,18 @@
         <v>2.2702609165187002E-2</v>
       </c>
       <c r="J129" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K129" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L129" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F130" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G130">
         <v>2040</v>
@@ -14710,18 +14710,18 @@
         <v>2.2176523747811899E-2</v>
       </c>
       <c r="J130" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K130" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L130" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F131" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G131">
         <v>2045</v>
@@ -14733,18 +14733,18 @@
         <v>2.16504383304368E-2</v>
       </c>
       <c r="J131" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K131" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F132" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G132">
         <v>2050</v>
@@ -14756,18 +14756,18 @@
         <v>2.1124352913061702E-2</v>
       </c>
       <c r="J132" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="K132" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="L132" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F133" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G133">
         <v>2020</v>
@@ -14779,18 +14779,18 @@
         <v>1.9344980866313499E-4</v>
       </c>
       <c r="J133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K133" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L133" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="134" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F134" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G134">
         <v>2025</v>
@@ -14802,18 +14802,18 @@
         <v>1.9344980866313499E-4</v>
       </c>
       <c r="J134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K134" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L134" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F135" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G135">
         <v>2030</v>
@@ -14825,18 +14825,18 @@
         <v>1.9344980866313499E-4</v>
       </c>
       <c r="J135" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K135" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L135" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F136" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G136">
         <v>2035</v>
@@ -14848,18 +14848,18 @@
         <v>1.9344980866313499E-4</v>
       </c>
       <c r="J136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K136" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L136" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="137" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F137" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G137">
         <v>2040</v>
@@ -14871,18 +14871,18 @@
         <v>1.9344980866313499E-4</v>
       </c>
       <c r="J137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K137" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L137" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="138" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F138" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G138">
         <v>2045</v>
@@ -14894,18 +14894,18 @@
         <v>1.9344980866313499E-4</v>
       </c>
       <c r="J138" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K138" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L138" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="139" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F139" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G139">
         <v>2050</v>
@@ -14917,18 +14917,18 @@
         <v>1.9344980866313499E-4</v>
       </c>
       <c r="J139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="K139" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L139" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="140" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F140" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G140">
         <v>2020</v>
@@ -14940,18 +14940,18 @@
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J140" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K140" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L140" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F141" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G141">
         <v>2025</v>
@@ -14963,18 +14963,18 @@
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J141" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K141" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L141" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F142" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G142">
         <v>2030</v>
@@ -14986,18 +14986,18 @@
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J142" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K142" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L142" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F143" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G143">
         <v>2035</v>
@@ -15009,18 +15009,18 @@
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J143" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K143" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L143" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="144" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F144" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G144">
         <v>2040</v>
@@ -15032,18 +15032,18 @@
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J144" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K144" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L144" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="145" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F145" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G145">
         <v>2045</v>
@@ -15055,18 +15055,18 @@
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J145" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K145" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L145" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F146" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G146">
         <v>2050</v>
@@ -15078,18 +15078,18 @@
         <v>2.1494423184792799E-4</v>
       </c>
       <c r="J146" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="K146" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L146" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="147" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F147" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G147">
         <v>2020</v>
@@ -15101,18 +15101,18 @@
         <v>2.3643865503272099E-4</v>
       </c>
       <c r="J147" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K147" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L147" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="148" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F148" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G148">
         <v>2025</v>
@@ -15124,18 +15124,18 @@
         <v>2.3643865503272099E-4</v>
       </c>
       <c r="J148" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K148" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L148" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="149" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F149" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G149">
         <v>2030</v>
@@ -15147,18 +15147,18 @@
         <v>2.3643865503272099E-4</v>
       </c>
       <c r="J149" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K149" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L149" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="150" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F150" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G150">
         <v>2035</v>
@@ -15170,18 +15170,18 @@
         <v>2.3643865503272099E-4</v>
       </c>
       <c r="J150" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K150" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L150" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="151" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F151" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G151">
         <v>2040</v>
@@ -15193,18 +15193,18 @@
         <v>2.3643865503272099E-4</v>
       </c>
       <c r="J151" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K151" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L151" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F152" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G152">
         <v>2045</v>
@@ -15216,18 +15216,18 @@
         <v>2.3643865503272099E-4</v>
       </c>
       <c r="J152" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K152" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L152" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F153" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G153">
         <v>2050</v>
@@ -15239,18 +15239,18 @@
         <v>2.3643865503272099E-4</v>
       </c>
       <c r="J153" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K153" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L153" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="154" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F154" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G154">
         <v>2020</v>
@@ -15262,18 +15262,18 @@
         <v>7.9109298846992797E-3</v>
       </c>
       <c r="J154" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K154" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L154" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F155" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G155">
         <v>2025</v>
@@ -15285,18 +15285,18 @@
         <v>7.7131566375818004E-3</v>
       </c>
       <c r="J155" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K155" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L155" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F156" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G156">
         <v>2030</v>
@@ -15308,18 +15308,18 @@
         <v>7.5153833904643202E-3</v>
       </c>
       <c r="J156" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K156" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L156" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="157" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F157" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G157">
         <v>2035</v>
@@ -15331,18 +15331,18 @@
         <v>7.31761014334684E-3</v>
       </c>
       <c r="J157" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K157" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L157" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="158" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F158" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G158">
         <v>2040</v>
@@ -15354,18 +15354,18 @@
         <v>7.1198368962293503E-3</v>
       </c>
       <c r="J158" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K158" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L158" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="159" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F159" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G159">
         <v>2045</v>
@@ -15377,18 +15377,18 @@
         <v>6.9220636491118702E-3</v>
       </c>
       <c r="J159" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K159" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L159" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F160" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G160">
         <v>2050</v>
@@ -15400,18 +15400,18 @@
         <v>6.72429040199439E-3</v>
       </c>
       <c r="J160" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="K160" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L160" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="161" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F161" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G161">
         <v>2020</v>
@@ -15423,18 +15423,18 @@
         <v>8.4618899516389103E-3</v>
       </c>
       <c r="J161" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K161" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L161" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="162" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F162" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G162">
         <v>2025</v>
@@ -15446,18 +15446,18 @@
         <v>8.2503427028479299E-3</v>
       </c>
       <c r="J162" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K162" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L162" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="163" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F163" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G163">
         <v>2030</v>
@@ -15469,18 +15469,18 @@
         <v>8.0387954540569601E-3</v>
       </c>
       <c r="J163" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K163" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L163" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="164" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F164" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G164">
         <v>2035</v>
@@ -15492,18 +15492,18 @@
         <v>7.8272482052659902E-3</v>
       </c>
       <c r="J164" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K164" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L164" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="165" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F165" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G165">
         <v>2040</v>
@@ -15515,18 +15515,18 @@
         <v>7.6157009564750099E-3</v>
       </c>
       <c r="J165" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K165" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L165" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="166" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F166" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G166">
         <v>2045</v>
@@ -15538,18 +15538,18 @@
         <v>7.40415370768404E-3</v>
       </c>
       <c r="J166" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K166" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L166" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="167" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F167" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G167">
         <v>2050</v>
@@ -15561,18 +15561,18 @@
         <v>7.1926064588930701E-3</v>
       </c>
       <c r="J167" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="K167" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L167" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="168" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F168" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G168">
         <v>2020</v>
@@ -15584,18 +15584,18 @@
         <v>8.9758896942701005E-3</v>
       </c>
       <c r="J168" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K168" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L168" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="169" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F169" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G169">
         <v>2025</v>
@@ -15607,18 +15607,18 @@
         <v>8.7514924519133397E-3</v>
       </c>
       <c r="J169" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K169" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L169" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="170" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F170" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G170">
         <v>2030</v>
@@ -15630,18 +15630,18 @@
         <v>8.5270952095565893E-3</v>
       </c>
       <c r="J170" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K170" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L170" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="171" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F171" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G171">
         <v>2035</v>
@@ -15653,18 +15653,18 @@
         <v>8.3026979671998406E-3</v>
       </c>
       <c r="J171" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K171" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L171" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F172" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G172">
         <v>2040</v>
@@ -15676,18 +15676,18 @@
         <v>8.0783007248430797E-3</v>
       </c>
       <c r="J172" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K172" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L172" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="173" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F173" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G173">
         <v>2045</v>
@@ -15699,18 +15699,18 @@
         <v>7.8539034824863293E-3</v>
       </c>
       <c r="J173" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K173" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L173" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="174" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F174" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G174">
         <v>2050</v>
@@ -15722,18 +15722,18 @@
         <v>7.6295062401295797E-3</v>
       </c>
       <c r="J174" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="K174" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="L174" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F175" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G175">
         <v>2020</v>
@@ -15745,18 +15745,18 @@
         <v>1.4074238978034001E-3</v>
       </c>
       <c r="J175" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K175" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L175" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F176" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G176">
         <v>2025</v>
@@ -15768,18 +15768,18 @@
         <v>1.3956953653216999E-3</v>
       </c>
       <c r="J176" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K176" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L176" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="177" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F177" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G177">
         <v>2030</v>
@@ -15791,18 +15791,18 @@
         <v>1.38396683284001E-3</v>
       </c>
       <c r="J177" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K177" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L177" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="178" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F178" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G178">
         <v>2035</v>
@@ -15814,18 +15814,18 @@
         <v>1.3722383003583101E-3</v>
       </c>
       <c r="J178" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K178" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L178" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="179" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F179" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G179">
         <v>2040</v>
@@ -15837,18 +15837,18 @@
         <v>1.3605097678766199E-3</v>
       </c>
       <c r="J179" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K179" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L179" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="180" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F180" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G180">
         <v>2045</v>
@@ -15860,18 +15860,18 @@
         <v>1.34878123539492E-3</v>
       </c>
       <c r="J180" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K180" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L180" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F181" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G181">
         <v>2050</v>
@@ -15883,18 +15883,18 @@
         <v>1.33705270291323E-3</v>
       </c>
       <c r="J181" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K181" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L181" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="182" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F182" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G182">
         <v>2020</v>
@@ -15906,18 +15906,18 @@
         <v>2.0645399747711598E-3</v>
       </c>
       <c r="J182" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K182" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L182" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="183" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F183" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G183">
         <v>2025</v>
@@ -15929,18 +15929,18 @@
         <v>2.0473354749814001E-3</v>
       </c>
       <c r="J183" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K183" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L183" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="184" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F184" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G184">
         <v>2030</v>
@@ -15952,18 +15952,18 @@
         <v>2.0301309751916399E-3</v>
       </c>
       <c r="J184" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K184" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L184" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="185" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F185" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G185">
         <v>2035</v>
@@ -15975,18 +15975,18 @@
         <v>2.0129264754018801E-3</v>
       </c>
       <c r="J185" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K185" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L185" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="186" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F186" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G186">
         <v>2040</v>
@@ -15998,18 +15998,18 @@
         <v>1.99572197561212E-3</v>
       </c>
       <c r="J186" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K186" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L186" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="187" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F187" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G187">
         <v>2045</v>
@@ -16021,18 +16021,18 @@
         <v>1.9785174758223602E-3</v>
       </c>
       <c r="J187" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K187" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L187" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F188" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G188">
         <v>2050</v>
@@ -16044,18 +16044,18 @@
         <v>1.9613129760326E-3</v>
       </c>
       <c r="J188" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K188" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L188" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="189" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F189" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G189">
         <v>2020</v>
@@ -16067,18 +16067,18 @@
         <v>3.5262400890868602E-3</v>
       </c>
       <c r="J189" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K189" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L189" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F190" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G190">
         <v>2025</v>
@@ -16090,18 +16090,18 @@
         <v>3.4968547550111402E-3</v>
       </c>
       <c r="J190" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K190" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L190" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="191" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F191" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G191">
         <v>2030</v>
@@ -16113,18 +16113,18 @@
         <v>3.4674694209354102E-3</v>
       </c>
       <c r="J191" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K191" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L191" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F192" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G192">
         <v>2035</v>
@@ -16136,18 +16136,18 @@
         <v>3.4380840868596901E-3</v>
       </c>
       <c r="J192" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K192" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L192" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="193" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F193" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G193">
         <v>2040</v>
@@ -16159,18 +16159,18 @@
         <v>3.4086987527839601E-3</v>
       </c>
       <c r="J193" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K193" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L193" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="194" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F194" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G194">
         <v>2045</v>
@@ -16182,18 +16182,18 @@
         <v>3.3793134187082401E-3</v>
       </c>
       <c r="J194" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K194" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L194" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="195" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F195" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G195">
         <v>2050</v>
@@ -16205,18 +16205,18 @@
         <v>3.34992808463252E-3</v>
       </c>
       <c r="J195" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K195" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L195" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="196" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F196" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G196">
         <v>2020</v>
@@ -16228,18 +16228,18 @@
         <v>1.0616640598224E-3</v>
       </c>
       <c r="J196" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K196" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L196" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="197" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F197" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G197">
         <v>2025</v>
@@ -16251,18 +16251,18 @@
         <v>1.0528168593238801E-3</v>
       </c>
       <c r="J197" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K197" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L197" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="198" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F198" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G198">
         <v>2030</v>
@@ -16274,18 +16274,18 @@
         <v>1.04396965882536E-3</v>
       </c>
       <c r="J198" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K198" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L198" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="199" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F199" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G199">
         <v>2035</v>
@@ -16297,18 +16297,18 @@
         <v>1.0351224583268401E-3</v>
       </c>
       <c r="J199" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K199" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L199" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="200" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F200" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G200">
         <v>2040</v>
@@ -16320,18 +16320,18 @@
         <v>1.02627525782832E-3</v>
       </c>
       <c r="J200" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K200" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L200" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="201" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F201" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G201">
         <v>2045</v>
@@ -16343,18 +16343,18 @@
         <v>1.0174280573298001E-3</v>
       </c>
       <c r="J201" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K201" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L201" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="202" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F202" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G202">
         <v>2050</v>
@@ -16366,18 +16366,18 @@
         <v>1.00858085683128E-3</v>
       </c>
       <c r="J202" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="K202" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L202" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F203" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G203">
         <v>2020</v>
@@ -16389,18 +16389,18 @@
         <v>1.24802616036485E-3</v>
       </c>
       <c r="J203" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K203" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L203" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="204" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F204" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G204">
         <v>2025</v>
@@ -16412,18 +16412,18 @@
         <v>1.2376259423618099E-3</v>
       </c>
       <c r="J204" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K204" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L204" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="205" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F205" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G205">
         <v>2030</v>
@@ -16435,18 +16435,18 @@
         <v>1.22722572435877E-3</v>
       </c>
       <c r="J205" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K205" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L205" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="206" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F206" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G206">
         <v>2035</v>
@@ -16458,18 +16458,18 @@
         <v>1.2168255063557301E-3</v>
       </c>
       <c r="J206" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K206" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L206" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="207" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F207" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G207">
         <v>2040</v>
@@ -16481,18 +16481,18 @@
         <v>1.2064252883526899E-3</v>
       </c>
       <c r="J207" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K207" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L207" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="208" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F208" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G208">
         <v>2045</v>
@@ -16504,18 +16504,18 @@
         <v>1.19602507034965E-3</v>
       </c>
       <c r="J208" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K208" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L208" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="209" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F209" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G209">
         <v>2050</v>
@@ -16527,18 +16527,18 @@
         <v>1.1856248523466101E-3</v>
       </c>
       <c r="J209" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="K209" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="L209" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="210" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F210" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G210">
         <v>2020</v>
@@ -16550,18 +16550,18 @@
         <v>1.8402541810083001E-3</v>
       </c>
       <c r="J210" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K210" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L210" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="211" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F211" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G211">
         <v>2025</v>
@@ -16573,18 +16573,18 @@
         <v>1.8249187294999E-3</v>
       </c>
       <c r="J211" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K211" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L211" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="212" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F212" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G212">
         <v>2030</v>
@@ -16596,18 +16596,18 @@
         <v>1.8095832779915001E-3</v>
       </c>
       <c r="J212" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K212" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L212" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="213" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F213" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G213">
         <v>2035</v>
@@ -16619,18 +16619,18 @@
         <v>1.79424782648309E-3</v>
       </c>
       <c r="J213" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K213" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L213" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="214" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F214" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G214">
         <v>2040</v>
@@ -16642,18 +16642,18 @@
         <v>1.7789123749746901E-3</v>
       </c>
       <c r="J214" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K214" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L214" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F215" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G215">
         <v>2045</v>
@@ -16665,18 +16665,18 @@
         <v>1.76357692346629E-3</v>
       </c>
       <c r="J215" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K215" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L215" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F216" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G216">
         <v>2050</v>
@@ -16688,13 +16688,13 @@
         <v>1.7482414719578901E-3</v>
       </c>
       <c r="J216" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="K216" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="L216" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -16723,7 +16723,7 @@
   <sheetData>
     <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="25" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -16752,23 +16752,23 @@
         <v>4</v>
       </c>
       <c r="J4" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N4" s="29"/>
     </row>
     <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="28"/>
       <c r="E5" s="28" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -16780,7 +16780,7 @@
     </row>
     <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -16789,15 +16789,15 @@
         <v>0.29750119328038643</v>
       </c>
       <c r="I6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -16806,15 +16806,15 @@
         <v>7.8240205489280165E-2</v>
       </c>
       <c r="I7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -16823,15 +16823,15 @@
         <v>9.9230285582155173E-2</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -16840,15 +16840,15 @@
         <v>0.1299964335480952</v>
       </c>
       <c r="I9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J9" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -16857,15 +16857,15 @@
         <v>0.65611067742996398</v>
       </c>
       <c r="I10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -16874,15 +16874,15 @@
         <v>3.4112422198348336</v>
       </c>
       <c r="I11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J11" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -16891,15 +16891,15 @@
         <v>0.27048899641521007</v>
       </c>
       <c r="I12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -16908,15 +16908,15 @@
         <v>0.14436837706846065</v>
       </c>
       <c r="I13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -16925,15 +16925,15 @@
         <v>3.5851150535518087E-2</v>
       </c>
       <c r="I14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J14" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -16942,15 +16942,15 @@
         <v>2.7014519280249845E-2</v>
       </c>
       <c r="I15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -16959,15 +16959,15 @@
         <v>3.8223383014175182E-2</v>
       </c>
       <c r="I16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -16976,15 +16976,15 @@
         <v>0.16206914757843674</v>
       </c>
       <c r="I17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -16993,15 +16993,15 @@
         <v>0.84262783364201532</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -17010,15 +17010,15 @@
         <v>7.3395482092335179E-2</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F20">
         <v>2050</v>
@@ -17027,15 +17027,15 @@
         <v>0.23056342479229949</v>
       </c>
       <c r="I20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F21">
         <v>2050</v>
@@ -17044,15 +17044,15 @@
         <v>6.0636159254192128E-2</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F22">
         <v>2050</v>
@@ -17061,15 +17061,15 @@
         <v>7.6903471326170258E-2</v>
       </c>
       <c r="I22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F23">
         <v>2050</v>
@@ -17078,15 +17078,15 @@
         <v>0.10074723599977378</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="J23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F24">
         <v>2050</v>
@@ -17095,15 +17095,15 @@
         <v>0.50848577500822212</v>
       </c>
       <c r="I24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="J24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F25">
         <v>2050</v>
@@ -17112,15 +17112,15 @@
         <v>2.6437127203719961</v>
       </c>
       <c r="I25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F26">
         <v>2050</v>
@@ -17129,15 +17129,15 @@
         <v>0.20962897222178781</v>
       </c>
       <c r="I26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F27">
         <v>2050</v>
@@ -17146,15 +17146,15 @@
         <v>0.11188549222805701</v>
       </c>
       <c r="I27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F28">
         <v>2050</v>
@@ -17163,15 +17163,15 @@
         <v>2.7784641665026519E-2</v>
       </c>
       <c r="I28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="J28" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F29">
         <v>2050</v>
@@ -17180,15 +17180,15 @@
         <v>2.0936252442193631E-2</v>
       </c>
       <c r="I29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J29" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F30">
         <v>2050</v>
@@ -17197,15 +17197,15 @@
         <v>2.9623121835985766E-2</v>
       </c>
       <c r="I30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="J30" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31">
         <v>2050</v>
@@ -17214,15 +17214,15 @@
         <v>0.12560358937328847</v>
       </c>
       <c r="I31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="J31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F32">
         <v>2050</v>
@@ -17231,15 +17231,15 @@
         <v>0.65303657107256186</v>
       </c>
       <c r="I32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J32" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F33">
         <v>2050</v>
@@ -17248,10 +17248,10 @@
         <v>5.6881498621559765E-2</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED-Halfway.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0A119B-27B4-4DA7-BE8F-3D583137C920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C9A6C9-A863-4417-969C-5AB5BC96DBA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1005" yWindow="2790" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="196">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -3782,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
-  <dimension ref="B2:AF39"/>
+  <dimension ref="B2:AF57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4162,114 +4162,114 @@
         <v>TRAPS</v>
       </c>
       <c r="F6" s="3">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18054091367045041</v>
+        <v>0.20300060063434958</v>
       </c>
       <c r="H6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.6094409331556592</v>
+        <v>4.0584633282751126</v>
       </c>
       <c r="I6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6656714512657429</v>
+        <v>0.74848244469808678</v>
       </c>
       <c r="J6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30882858895754395</v>
+        <v>0.34724754504054051</v>
       </c>
       <c r="K6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24348033125056551</v>
+        <v>0.27376982026764263</v>
       </c>
       <c r="L6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12234056272688766</v>
+        <v>0.13755999795611623</v>
       </c>
       <c r="M6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35081307730031303</v>
+        <v>0.39445499612536866</v>
       </c>
       <c r="N6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5774473090214185</v>
+        <v>0.64928302501009705</v>
       </c>
       <c r="O6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23903596461262591</v>
+        <v>0.26877256463954802</v>
       </c>
       <c r="P6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2709446813500801</v>
+        <v>0.30465079595834027</v>
       </c>
       <c r="Q6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47156235534160001</v>
+        <v>0.53022575007917072</v>
       </c>
       <c r="R6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41712173793444168</v>
+        <v>0.46901260006304341</v>
       </c>
       <c r="S6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36711809403304924</v>
+        <v>0.41278839282092511</v>
       </c>
       <c r="T6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5524935697479687</v>
+        <v>1.7456271862846215</v>
       </c>
       <c r="U6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47533720031896581</v>
+        <v>0.53447019407874841</v>
       </c>
       <c r="V6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56680110296322883</v>
+        <v>0.6373124074899349</v>
       </c>
       <c r="W6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.51673563332574557</v>
+        <v>0.58101868325410067</v>
       </c>
       <c r="X6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34312905782489267</v>
+        <v>0.38581506771754165</v>
       </c>
       <c r="Y6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.76691645931183072</v>
+        <v>0.86232255454765427</v>
       </c>
       <c r="Z6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.8427944462239333E-2</v>
+        <v>0.11067259735658087</v>
       </c>
       <c r="AA6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41072105185599805</v>
+        <v>0.46181565455091583</v>
       </c>
       <c r="AB6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2148523004382123</v>
+        <v>0.24158039942260146</v>
       </c>
       <c r="AC6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18942424653666262</v>
+        <v>0.21298903965802496</v>
       </c>
       <c r="AD6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21128369279804798</v>
+        <v>0.2375678491388247</v>
       </c>
       <c r="AE6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40985391793724002</v>
+        <v>0.46084064726442553</v>
       </c>
       <c r="AF6" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19657172711717047</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+        <v>0.22102568255169014</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4278,227 +4278,227 @@
         <v>TRAPS</v>
       </c>
       <c r="F7" s="3">
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25957753427898295</v>
+        <v>0.20050507986058241</v>
       </c>
       <c r="H7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.1895703777394084</v>
+        <v>4.0085719510396061</v>
       </c>
       <c r="I7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.95708695855434356</v>
+        <v>0.73928122320560197</v>
       </c>
       <c r="J7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44402657550955765</v>
+        <v>0.34297877214242878</v>
       </c>
       <c r="K7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35007036768860789</v>
+        <v>0.27040432148796661</v>
       </c>
       <c r="L7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17589842085831023</v>
+        <v>0.13586894959731266</v>
       </c>
       <c r="M7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50439089814655136</v>
+        <v>0.38960589403369472</v>
       </c>
       <c r="N7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83024033502687966</v>
+        <v>0.64130127878913079</v>
       </c>
       <c r="O7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34368036051597356</v>
+        <v>0.26546849796988925</v>
       </c>
       <c r="P7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38955797265564523</v>
+        <v>0.30090567211297714</v>
       </c>
       <c r="Q7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.67800140682680488</v>
+        <v>0.52370759510832798</v>
       </c>
       <c r="R7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59972795099966403</v>
+        <v>0.46324694871541966</v>
       </c>
       <c r="S7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.52783387267135551</v>
+        <v>0.40771391517782657</v>
       </c>
       <c r="T7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2321392122494434</v>
+        <v>1.7241678955583217</v>
       </c>
       <c r="U7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.68342879129932732</v>
+        <v>0.52789986143877099</v>
       </c>
       <c r="V7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.81493346711628945</v>
+        <v>0.62947781809807679</v>
       </c>
       <c r="W7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.74295049717996164</v>
+        <v>0.57387612215094841</v>
       </c>
       <c r="X7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49334299333522352</v>
+        <v>0.38107217772946844</v>
       </c>
       <c r="Y7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1026546806421527</v>
+        <v>0.85172187729922699</v>
       </c>
       <c r="Z7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14151741346725299</v>
+        <v>0.10931208036832039</v>
       </c>
       <c r="AA7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59052519315293606</v>
+        <v>0.45613847647370143</v>
       </c>
       <c r="AB7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30890964960839534</v>
+        <v>0.23861061064655753</v>
       </c>
       <c r="AC7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27234978404060711</v>
+        <v>0.21037072931120632</v>
       </c>
       <c r="AD7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30377878839134259</v>
+        <v>0.23464738732318216</v>
       </c>
       <c r="AE7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.58927844813572761</v>
+        <v>0.45517545511695917</v>
       </c>
       <c r="AF7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28262626568499355</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+        <v>0.21830857639229845</v>
+      </c>
+    </row>
+    <row r="8" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="3" t="str">
-        <f>DEMANDS!$F$18</f>
-        <v>TRAPM</v>
+        <f>DEMANDS!$F$17</f>
+        <v>TRAPS</v>
       </c>
       <c r="F8" s="3">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="G8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44504487721842145</v>
+        <v>0.18054091367045041</v>
       </c>
       <c r="H8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.7937079104025209</v>
+        <v>3.6094409331556592</v>
       </c>
       <c r="I8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5870469217794945</v>
+        <v>0.6656714512657429</v>
       </c>
       <c r="J8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.75371941599977788</v>
+        <v>0.30882858895754395</v>
       </c>
       <c r="K8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56707222956060799</v>
+        <v>0.24348033125056551</v>
       </c>
       <c r="L8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29215269212908374</v>
+        <v>0.12234056272688766</v>
       </c>
       <c r="M8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.78692852808848446</v>
+        <v>0.35081307730031303</v>
       </c>
       <c r="N8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3661978764195406</v>
+        <v>0.5774473090214185</v>
       </c>
       <c r="O8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57898198131513856</v>
+        <v>0.23903596461262591</v>
       </c>
       <c r="P8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65358230250256555</v>
+        <v>0.2709446813500801</v>
       </c>
       <c r="Q8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1591453120223312</v>
+        <v>0.47156235534160001</v>
       </c>
       <c r="R8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98363731275831134</v>
+        <v>0.41712173793444168</v>
       </c>
       <c r="S8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89211010866799778</v>
+        <v>0.36711809403304924</v>
       </c>
       <c r="T8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.6052969056240896</v>
+        <v>1.5524935697479687</v>
       </c>
       <c r="U8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1800127078014957</v>
+        <v>0.47533720031896581</v>
       </c>
       <c r="V8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3289979498467648</v>
+        <v>0.56680110296322883</v>
       </c>
       <c r="W8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2889705463689798</v>
+        <v>0.51673563332574557</v>
       </c>
       <c r="X8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.81318189166940957</v>
+        <v>0.34312905782489267</v>
       </c>
       <c r="Y8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.8206653161788104</v>
+        <v>0.76691645931183072</v>
       </c>
       <c r="Z8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23862041442976697</v>
+        <v>9.8427944462239333E-2</v>
       </c>
       <c r="AA8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0083408487910557</v>
+        <v>0.41072105185599805</v>
       </c>
       <c r="AB8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54292180091605458</v>
+        <v>0.2148523004382123</v>
       </c>
       <c r="AC8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44291300994417443</v>
+        <v>0.18942424653666262</v>
       </c>
       <c r="AD8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48125689749079964</v>
+        <v>0.21128369279804798</v>
       </c>
       <c r="AE8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.88631243709750096</v>
+        <v>0.40985391793724002</v>
       </c>
       <c r="AF8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48743823497682215</v>
+        <v>0.19657172711717047</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.2">
@@ -4506,115 +4506,115 @@
         <v>59</v>
       </c>
       <c r="E9" s="3" t="str">
-        <f>DEMANDS!$F$18</f>
-        <v>TRAPM</v>
+        <f>DEMANDS!$F$17</f>
+        <v>TRAPS</v>
       </c>
       <c r="F9" s="3">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32193664473309486</v>
+        <v>0.25957753427898295</v>
       </c>
       <c r="H9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.637813854608976</v>
+        <v>5.1895703777394084</v>
       </c>
       <c r="I9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1480382927336128</v>
+        <v>0.95708695855434356</v>
       </c>
       <c r="J9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54522568908947855</v>
+        <v>0.44402657550955765</v>
       </c>
       <c r="K9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41020881320348074</v>
+        <v>0.35007036768860789</v>
       </c>
       <c r="L9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21133746790128183</v>
+        <v>0.17589842085831023</v>
       </c>
       <c r="M9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56924850267004323</v>
+        <v>0.50439089814655136</v>
       </c>
       <c r="N9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98828046988197249</v>
+        <v>0.83024033502687966</v>
       </c>
       <c r="O9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41882409160736161</v>
+        <v>0.34368036051597356</v>
       </c>
       <c r="P9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47278848560105868</v>
+        <v>0.38955797265564523</v>
       </c>
       <c r="Q9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83850274795415447</v>
+        <v>0.67800140682680488</v>
       </c>
       <c r="R9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.71154373932557857</v>
+        <v>0.59972795099966403</v>
       </c>
       <c r="S9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64533477367968184</v>
+        <v>0.52783387267135551</v>
       </c>
       <c r="T9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.6080003354214218</v>
+        <v>2.2321392122494434</v>
       </c>
       <c r="U9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.8535978085319772</v>
+        <v>0.68342879129932732</v>
       </c>
       <c r="V9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.96137078018953437</v>
+        <v>0.81493346711628945</v>
       </c>
       <c r="W9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.932415749736074</v>
+        <v>0.74295049717996164</v>
       </c>
       <c r="X9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.58823966562202801</v>
+        <v>0.49334299333522352</v>
       </c>
       <c r="Y9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3170332096303565</v>
+        <v>1.1026546806421527</v>
       </c>
       <c r="Z9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17261327906182664</v>
+        <v>0.14151741346725299</v>
       </c>
       <c r="AA9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.72941378774211518</v>
+        <v>0.59052519315293606</v>
       </c>
       <c r="AB9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.39273887171064176</v>
+        <v>0.30890964960839534</v>
       </c>
       <c r="AC9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32039449419408184</v>
+        <v>0.27234978404060711</v>
       </c>
       <c r="AD9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34813170258514758</v>
+        <v>0.30377878839134259</v>
       </c>
       <c r="AE9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64114085295794276</v>
+        <v>0.58927844813572761</v>
       </c>
       <c r="AF9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35260315962707711</v>
+        <v>0.28262626568499355</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.2">
@@ -4626,111 +4626,111 @@
         <v>TRAPM</v>
       </c>
       <c r="F10" s="3">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="G10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3892571850620809</v>
+        <v>0.44504487721842145</v>
       </c>
       <c r="H10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.8167435638416176</v>
+        <v>7.7937079104025209</v>
       </c>
       <c r="I10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3881058943863189</v>
+        <v>1.5870469217794945</v>
       </c>
       <c r="J10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65923845710219742</v>
+        <v>0.75371941599977788</v>
       </c>
       <c r="K10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4959880477341298</v>
+        <v>0.56707222956060799</v>
       </c>
       <c r="L10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25553048775048037</v>
+        <v>0.29215269212908374</v>
       </c>
       <c r="M10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.68828470873159586</v>
+        <v>0.78692852808848446</v>
       </c>
       <c r="N10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.194940930309512</v>
+        <v>1.3661978764195406</v>
       </c>
       <c r="O10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50640487686770397</v>
+        <v>0.57898198131513856</v>
       </c>
       <c r="P10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57165382706715362</v>
+        <v>0.65358230250256555</v>
       </c>
       <c r="Q10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0138430174857962</v>
+        <v>1.1591453120223312</v>
       </c>
       <c r="R10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.86033546522189086</v>
+        <v>0.98363731275831134</v>
       </c>
       <c r="S10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.7802814669746253</v>
+        <v>0.89211010866799778</v>
       </c>
       <c r="T10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.153362271165975</v>
+        <v>3.6052969056240896</v>
       </c>
       <c r="U10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0320946234616748</v>
+        <v>1.1800127078014957</v>
       </c>
       <c r="V10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1624041245996282</v>
+        <v>1.3289979498467648</v>
       </c>
       <c r="W10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1273942745807057</v>
+        <v>1.2889705463689798</v>
       </c>
       <c r="X10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.71124713550930441</v>
+        <v>0.81318189166940957</v>
       </c>
       <c r="Y10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5924395318185049</v>
+        <v>1.8206653161788104</v>
       </c>
       <c r="Z10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20870863945186316</v>
+        <v>0.23862041442976697</v>
       </c>
       <c r="AA10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.88194233992020643</v>
+        <v>1.0083408487910557</v>
       </c>
       <c r="AB10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47486494677636343</v>
+        <v>0.54292180091605458</v>
       </c>
       <c r="AC10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38739255365842112</v>
+        <v>0.44291300994417443</v>
       </c>
       <c r="AD10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.420929921449335</v>
+        <v>0.48125689749079964</v>
       </c>
       <c r="AE10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.77521055068961786</v>
+        <v>0.88631243709750096</v>
       </c>
       <c r="AF10" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42633640999216782</v>
+        <v>0.48743823497682215</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.2">
@@ -4742,111 +4742,111 @@
         <v>TRAPM</v>
       </c>
       <c r="F11" s="3">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.52389826572005282</v>
+        <v>0.32193664473309486</v>
       </c>
       <c r="H11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1746029823068991</v>
+        <v>5.637813854608976</v>
       </c>
       <c r="I11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.8682410976917312</v>
+        <v>1.1480382927336128</v>
       </c>
       <c r="J11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.88726399312763493</v>
+        <v>0.54522568908947855</v>
       </c>
       <c r="K11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.66754651679542798</v>
+        <v>0.41020881320348074</v>
       </c>
       <c r="L11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3439165274488773</v>
+        <v>0.21133746790128183</v>
       </c>
       <c r="M11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.92635712085470101</v>
+        <v>0.56924850267004323</v>
       </c>
       <c r="N11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.6082618511645903</v>
+        <v>0.98828046988197249</v>
       </c>
       <c r="O11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.68156644738838867</v>
+        <v>0.41882409160736161</v>
       </c>
       <c r="P11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.76938450999934316</v>
+        <v>0.47278848560105868</v>
       </c>
       <c r="Q11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3645235565490794</v>
+        <v>0.83850274795415447</v>
       </c>
       <c r="R11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1579189170145152</v>
+        <v>0.71154373932557857</v>
       </c>
       <c r="S11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0501748535645117</v>
+        <v>0.64533477367968184</v>
       </c>
       <c r="T11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.2440861426550791</v>
+        <v>2.6080003354214218</v>
       </c>
       <c r="U11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3890882533210698</v>
+        <v>0.8535978085319772</v>
       </c>
       <c r="V11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5644708134198158</v>
+        <v>0.96137078018953437</v>
       </c>
       <c r="W11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5173513242699688</v>
+        <v>0.932415749736074</v>
       </c>
       <c r="X11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.95726207528385721</v>
+        <v>0.58823966562202801</v>
       </c>
       <c r="Y11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.1432521761948022</v>
+        <v>1.3170332096303565</v>
       </c>
       <c r="Z11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28089936023193618</v>
+        <v>0.17261327906182664</v>
       </c>
       <c r="AA11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1869994442763889</v>
+        <v>0.72941378774211518</v>
       </c>
       <c r="AB11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6391170969078066</v>
+        <v>0.39273887171064176</v>
       </c>
       <c r="AC11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.52138867258709964</v>
+        <v>0.32039449419408184</v>
       </c>
       <c r="AD11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56652635917770966</v>
+        <v>0.34813170258514758</v>
       </c>
       <c r="AE11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0433499461529676</v>
+        <v>0.64114085295794276</v>
       </c>
       <c r="AF11" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57380291072234901</v>
+        <v>0.35260315962707711</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.2">
@@ -4854,115 +4854,115 @@
         <v>59</v>
       </c>
       <c r="E12" s="3" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F12" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37926872049762789</v>
+        <v>0.46342451965761583</v>
       </c>
       <c r="H12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.7564300396473245</v>
+        <v>8.1155755961155194</v>
       </c>
       <c r="I12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3651288565890147</v>
+        <v>1.6525894242319275</v>
       </c>
       <c r="J12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6573642766274751</v>
+        <v>0.7848468237617493</v>
       </c>
       <c r="K12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48841646133907779</v>
+        <v>0.59049140670441203</v>
       </c>
       <c r="L12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.251491627138621</v>
+        <v>0.3042181315799129</v>
       </c>
       <c r="M12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.68336533267305366</v>
+        <v>0.81942741912586947</v>
       </c>
       <c r="N12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.162072263976734</v>
+        <v>1.4226196661202095</v>
       </c>
       <c r="O12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50087352131013296</v>
+        <v>0.60289301217975388</v>
       </c>
       <c r="P12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5550828629753175</v>
+        <v>0.68057420745305641</v>
       </c>
       <c r="Q12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98659875855138779</v>
+        <v>1.2070161615941664</v>
       </c>
       <c r="R12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84482869568365948</v>
+        <v>1.0242599623466919</v>
       </c>
       <c r="S12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.75747508723845136</v>
+        <v>0.9289528309484778</v>
       </c>
       <c r="T12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.0886844490300494</v>
+        <v>3.7541899081155736</v>
       </c>
       <c r="U12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0271865360143977</v>
+        <v>1.2287453474819043</v>
       </c>
       <c r="V12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1378934179320885</v>
+        <v>1.3838834420094299</v>
       </c>
       <c r="W12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1008328480688923</v>
+        <v>1.3422029707145537</v>
       </c>
       <c r="X12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.69324706204747966</v>
+        <v>0.84676500468112548</v>
       </c>
       <c r="Y12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5750464525866097</v>
+        <v>1.8958558850984162</v>
       </c>
       <c r="Z12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20319350320920349</v>
+        <v>0.248475056333125</v>
       </c>
       <c r="AA12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.87339211119017246</v>
+        <v>1.0499837149519835</v>
       </c>
       <c r="AB12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4577994904920954</v>
+        <v>0.56534360393881622</v>
       </c>
       <c r="AC12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3815792132296843</v>
+        <v>0.46120460967074761</v>
       </c>
       <c r="AD12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40809739213380453</v>
+        <v>0.50113203851603993</v>
       </c>
       <c r="AE12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.75174517940800556</v>
+        <v>0.92291572480430029</v>
       </c>
       <c r="AF12" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43424277040967463</v>
+        <v>0.50756865536512175</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.2">
@@ -4970,115 +4970,115 @@
         <v>59</v>
       </c>
       <c r="E13" s="3" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F13" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27435547637321495</v>
+        <v>0.45518370470255792</v>
       </c>
       <c r="H13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.8874675973215007</v>
+        <v>7.9712609258628895</v>
       </c>
       <c r="I13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98750716185845822</v>
+        <v>1.6232023653601986</v>
       </c>
       <c r="J13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47552429060912443</v>
+        <v>0.77089033857735711</v>
       </c>
       <c r="K13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35331078909799174</v>
+        <v>0.57999103348549363</v>
       </c>
       <c r="L13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18192405921838437</v>
+        <v>0.29880839337664361</v>
       </c>
       <c r="M13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49433293928500699</v>
+        <v>0.80485600685984171</v>
       </c>
       <c r="N13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085211</v>
+        <v>1.3973220288079145</v>
       </c>
       <c r="O13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36232197941731037</v>
+        <v>0.59217210825619471</v>
       </c>
       <c r="P13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40153594290187117</v>
+        <v>0.66847194296573609</v>
       </c>
       <c r="Q13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.71368599033539704</v>
+        <v>1.1855524789154626</v>
       </c>
       <c r="R13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61113233633908892</v>
+        <v>1.0060461293328284</v>
       </c>
       <c r="S13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54794246709160832</v>
+        <v>0.91243379050694162</v>
       </c>
       <c r="T13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2342931214267647</v>
+        <v>3.6874312817878527</v>
       </c>
       <c r="U13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.74304638421703217</v>
+        <v>1.2068952670352162</v>
       </c>
       <c r="V13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.82312954869858934</v>
+        <v>1.3592746289639008</v>
       </c>
       <c r="W13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.79632066689536773</v>
+        <v>1.3183353378107971</v>
       </c>
       <c r="X13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5014811864865022</v>
+        <v>0.83170746366203685</v>
       </c>
       <c r="Y13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1393573908292929</v>
+        <v>1.86214295695621</v>
       </c>
       <c r="Z13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14698615350023855</v>
+        <v>0.24405656556854116</v>
       </c>
       <c r="AA13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63179454507028443</v>
+        <v>1.0313124510595673</v>
       </c>
       <c r="AB13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916709</v>
+        <v>0.55529041980965654</v>
       </c>
       <c r="AC13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27602684102814479</v>
+        <v>0.45300327011382396</v>
       </c>
       <c r="AD13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2952095661319819</v>
+        <v>0.49222069217529668</v>
       </c>
       <c r="AE13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54379756531765255</v>
+        <v>0.90650403879156083</v>
       </c>
       <c r="AF13" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31412261464919838</v>
+        <v>0.49854285032368401</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.2">
@@ -5086,115 +5086,115 @@
         <v>59</v>
       </c>
       <c r="E14" s="3" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F14" s="3">
         <v>2030</v>
       </c>
       <c r="G14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33164444677241184</v>
+        <v>0.3892571850620809</v>
       </c>
       <c r="H14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9080340179789657</v>
+        <v>6.8167435638416176</v>
       </c>
       <c r="I14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1937114239805877</v>
+        <v>1.3881058943863189</v>
       </c>
       <c r="J14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57481991017877587</v>
+        <v>0.65923845710219742</v>
       </c>
       <c r="K14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42708664954707387</v>
+        <v>0.4959880477341298</v>
       </c>
       <c r="L14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21991215474043635</v>
+        <v>0.25553048775048037</v>
       </c>
       <c r="M14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59755604786084004</v>
+        <v>0.68828470873159586</v>
       </c>
       <c r="N14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0161523802713346</v>
+        <v>1.194940930309512</v>
       </c>
       <c r="O14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43797949290386534</v>
+        <v>0.50640487686770397</v>
       </c>
       <c r="P14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48538183893139442</v>
+        <v>0.57165382706715362</v>
       </c>
       <c r="Q14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.86271285181866131</v>
+        <v>1.0138430174857962</v>
       </c>
       <c r="R14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73874466903003644</v>
+        <v>0.86033546522189086</v>
       </c>
       <c r="S14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.66235993815011118</v>
+        <v>0.7802814669746253</v>
       </c>
       <c r="T14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.7008424106504432</v>
+        <v>3.153362271165975</v>
       </c>
       <c r="U14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89820407552089609</v>
+        <v>1.0320946234616748</v>
       </c>
       <c r="V14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99500964008028858</v>
+        <v>1.1624041245996282</v>
       </c>
       <c r="W14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.96260271716499135</v>
+        <v>1.1273942745807057</v>
       </c>
       <c r="X14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.60619694149223746</v>
+        <v>0.71124713550930441</v>
       </c>
       <c r="Y14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3772699439161975</v>
+        <v>1.5924395318185049</v>
       </c>
       <c r="Z14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17767876262283552</v>
+        <v>0.20870863945186316</v>
       </c>
       <c r="AA14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.76372141407022565</v>
+        <v>0.88194233992020643</v>
       </c>
       <c r="AB14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40031421140592738</v>
+        <v>0.47486494677636343</v>
       </c>
       <c r="AC14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33366481397508846</v>
+        <v>0.38739255365842112</v>
       </c>
       <c r="AD14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35685314007941266</v>
+        <v>0.420929921449335</v>
       </c>
       <c r="AE14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65734952729948315</v>
+        <v>0.77521055068961786</v>
       </c>
       <c r="AF14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37971547763938718</v>
+        <v>0.42633640999216782</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
@@ -5202,115 +5202,115 @@
         <v>59</v>
       </c>
       <c r="E15" s="3" t="str">
-        <f>DEMANDS!$F$19</f>
-        <v>TRAPL</v>
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
       </c>
       <c r="F15" s="3">
         <v>2050</v>
       </c>
       <c r="G15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44622238757080546</v>
+        <v>0.52389826572005282</v>
       </c>
       <c r="H15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.949166859293892</v>
+        <v>9.1746029823068991</v>
       </c>
       <c r="I15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.6061199482248465</v>
+        <v>1.8682410976917312</v>
       </c>
       <c r="J15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.77341114931807842</v>
+        <v>0.88726399312763493</v>
       </c>
       <c r="K15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57463837044523791</v>
+        <v>0.66754651679542798</v>
       </c>
       <c r="L15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29588834578454021</v>
+        <v>0.3439165274488773</v>
       </c>
       <c r="M15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.80400226501250582</v>
+        <v>0.92635712085470101</v>
       </c>
       <c r="N15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3672170472722989</v>
+        <v>1.6082618511645903</v>
       </c>
       <c r="O15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.58929451987697501</v>
+        <v>0.68156644738838867</v>
       </c>
       <c r="P15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6530736309904408</v>
+        <v>0.76938450999934316</v>
       </c>
       <c r="Q15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1607665747851894</v>
+        <v>1.3645235565490794</v>
       </c>
       <c r="R15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99396933441193125</v>
+        <v>1.1579189170145152</v>
       </c>
       <c r="S15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89119488026711646</v>
+        <v>1.0501748535645117</v>
       </c>
       <c r="T15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.6339409890977992</v>
+        <v>4.2440861426550791</v>
       </c>
       <c r="U15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2085194581286236</v>
+        <v>1.3890882533210698</v>
       </c>
       <c r="V15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3387698228436864</v>
+        <v>1.5644708134198158</v>
       </c>
       <c r="W15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2951668177042381</v>
+        <v>1.5173513242699688</v>
       </c>
       <c r="X15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.81562845150370777</v>
+        <v>0.95726207528385721</v>
       </c>
       <c r="Y15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.8530950500900067</v>
+        <v>2.1432521761948022</v>
       </c>
       <c r="Z15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23906398086802944</v>
+        <v>0.28089936023193618</v>
       </c>
       <c r="AA15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0275751520701077</v>
+        <v>1.1869994442763889</v>
       </c>
       <c r="AB15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.53861647595944773</v>
+        <v>0.6391170969078066</v>
       </c>
       <c r="AC15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44894075986897575</v>
+        <v>0.52138867258709964</v>
       </c>
       <c r="AD15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4801402879742741</v>
+        <v>0.56652635917770966</v>
       </c>
       <c r="AE15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.88445345126314423</v>
+        <v>1.0433499461529676</v>
       </c>
       <c r="AF15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.51090120361976454</v>
+        <v>0.57380291072234901</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
@@ -5318,115 +5318,115 @@
         <v>59</v>
       </c>
       <c r="E16" s="3" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F16" s="3">
         <v>2019</v>
       </c>
       <c r="G16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2178146269505315</v>
+        <v>0.37926872049762789</v>
       </c>
       <c r="H16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.2532352952549441</v>
+        <v>6.7564300396473245</v>
       </c>
       <c r="I16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59035591066396753</v>
+        <v>1.3651288565890147</v>
       </c>
       <c r="J16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37964907365901629</v>
+        <v>0.6573642766274751</v>
       </c>
       <c r="K16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2704057614094616</v>
+        <v>0.48841646133907779</v>
       </c>
       <c r="L16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13049216248614431</v>
+        <v>0.251491627138621</v>
       </c>
       <c r="M16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34195983528392676</v>
+        <v>0.68336533267305366</v>
       </c>
       <c r="N16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5291116374087359</v>
+        <v>1.162072263976734</v>
       </c>
       <c r="O16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24890023926754198</v>
+        <v>0.50087352131013296</v>
       </c>
       <c r="P16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28340932312027484</v>
+        <v>0.5550828629753175</v>
       </c>
       <c r="Q16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57281742387914369</v>
+        <v>0.98659875855138779</v>
       </c>
       <c r="R16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3778873214697962</v>
+        <v>0.84482869568365948</v>
       </c>
       <c r="S16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37186096343983388</v>
+        <v>0.75747508723845136</v>
       </c>
       <c r="T16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.9896591411313085</v>
+        <v>3.0886844490300494</v>
       </c>
       <c r="U16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54135919368811836</v>
+        <v>1.0271865360143977</v>
       </c>
       <c r="V16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.60997441370730043</v>
+        <v>1.1378934179320885</v>
       </c>
       <c r="W16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49935221643128408</v>
+        <v>1.1008328480688923</v>
       </c>
       <c r="X16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46383071132724779</v>
+        <v>0.69324706204747966</v>
       </c>
       <c r="Y16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.74064511268734978</v>
+        <v>1.5750464525866097</v>
       </c>
       <c r="Z16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.8775540783756666E-2</v>
+        <v>0.20319350320920349</v>
       </c>
       <c r="AA16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41714780682374364</v>
+        <v>0.87339211119017246</v>
       </c>
       <c r="AB16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18524594530412608</v>
+        <v>0.4577994904920954</v>
       </c>
       <c r="AC16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20201145503880613</v>
+        <v>0.3815792132296843</v>
       </c>
       <c r="AD16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23481230791235341</v>
+        <v>0.40809739213380453</v>
       </c>
       <c r="AE16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49070889678091939</v>
+        <v>0.75174517940800556</v>
       </c>
       <c r="AF16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18922217409036649</v>
+        <v>0.43424277040967463</v>
       </c>
     </row>
     <row r="17" spans="4:32" x14ac:dyDescent="0.2">
@@ -5434,115 +5434,115 @@
         <v>59</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F17" s="3">
         <v>2020</v>
       </c>
       <c r="G17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17991488188042462</v>
+        <v>0.27435547637321495</v>
       </c>
       <c r="H17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.6871723541686299</v>
+        <v>4.8874675973215007</v>
       </c>
       <c r="I17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48763398226070803</v>
+        <v>0.98750716185845822</v>
       </c>
       <c r="J17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3135901348759621</v>
+        <v>0.47552429060912443</v>
       </c>
       <c r="K17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22335515894815736</v>
+        <v>0.35331078909799174</v>
       </c>
       <c r="L17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10778652622510916</v>
+        <v>0.18192405921838437</v>
       </c>
       <c r="M17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2824588239748011</v>
+        <v>0.49433293928500699</v>
       </c>
       <c r="N17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43704621254646414</v>
+        <v>0.84062004677085211</v>
       </c>
       <c r="O17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20559159765702764</v>
+        <v>0.36232197941731037</v>
       </c>
       <c r="P17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23409610092244049</v>
+        <v>0.40153594290187117</v>
       </c>
       <c r="Q17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47314719217489071</v>
+        <v>0.71368599033539704</v>
       </c>
       <c r="R17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31213492756751032</v>
+        <v>0.61113233633908892</v>
       </c>
       <c r="S17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30715715583422787</v>
+        <v>0.54794246709160832</v>
       </c>
       <c r="T17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.643458450750628</v>
+        <v>2.2342931214267647</v>
       </c>
       <c r="U17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44716269403431846</v>
+        <v>0.74304638421703217</v>
       </c>
       <c r="V17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50383886577623815</v>
+        <v>0.82312954869858934</v>
       </c>
       <c r="W17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41246493081645397</v>
+        <v>0.79632066689536773</v>
       </c>
       <c r="X17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38312416759737483</v>
+        <v>0.5014811864865022</v>
       </c>
       <c r="Y17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61177286314532875</v>
+        <v>1.1393573908292929</v>
       </c>
       <c r="Z17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.1588596696128737E-2</v>
+        <v>0.14698615350023855</v>
       </c>
       <c r="AA17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34456408847334713</v>
+        <v>0.63179454507028443</v>
       </c>
       <c r="AB17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15301315083761008</v>
+        <v>0.33116307912916709</v>
       </c>
       <c r="AC17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16686146187994025</v>
+        <v>0.27602684102814479</v>
       </c>
       <c r="AD17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1939549663563945</v>
+        <v>0.2952095661319819</v>
       </c>
       <c r="AE17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40532554878448751</v>
+        <v>0.54379756531765255</v>
       </c>
       <c r="AF17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15629751581539669</v>
+        <v>0.31412261464919838</v>
       </c>
     </row>
     <row r="18" spans="4:32" x14ac:dyDescent="0.2">
@@ -5550,115 +5550,115 @@
         <v>59</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F18" s="3">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20817782293225748</v>
+        <v>0.3949319127195085</v>
       </c>
       <c r="H18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.1093019359364078</v>
+        <v>7.0354598059455613</v>
       </c>
       <c r="I18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56423670879149446</v>
+        <v>1.4215064973824205</v>
       </c>
       <c r="J18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36285220482705244</v>
+        <v>0.68451237102108609</v>
       </c>
       <c r="K18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25844216022896338</v>
+        <v>0.5085872808789732</v>
       </c>
       <c r="L18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12471877888282305</v>
+        <v>0.2618778295465003</v>
       </c>
       <c r="M18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32683045687215972</v>
+        <v>0.71158722914103401</v>
       </c>
       <c r="N18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50570207476878482</v>
+        <v>1.2100639919064762</v>
       </c>
       <c r="O18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23788811001110061</v>
+        <v>0.5215587975249425</v>
       </c>
       <c r="P18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27087040347975844</v>
+        <v>0.57800689839391617</v>
       </c>
       <c r="Q18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5474741798121161</v>
+        <v>1.0273437110504584</v>
       </c>
       <c r="R18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36116839809454465</v>
+        <v>0.87971877108373875</v>
       </c>
       <c r="S18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35540866509381824</v>
+        <v>0.78875759816931479</v>
       </c>
       <c r="T18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.9016303642089742</v>
+        <v>3.2162421821708547</v>
       </c>
       <c r="U18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.51740776064570804</v>
+        <v>1.0696076988780558</v>
       </c>
       <c r="V18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.58298722756945731</v>
+        <v>1.1848865981492651</v>
       </c>
       <c r="W18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47725930415440593</v>
+        <v>1.1462954859601473</v>
       </c>
       <c r="X18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44330938213417909</v>
+        <v>0.72187705815118308</v>
       </c>
       <c r="Y18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70787664393028393</v>
+        <v>1.6400933547220824</v>
       </c>
       <c r="Z18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.440540025803211E-2</v>
+        <v>0.21158507026178613</v>
       </c>
       <c r="AA18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.39869187612113649</v>
+        <v>0.90946181001663118</v>
       </c>
       <c r="AB18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17705008217468987</v>
+        <v>0.47670587805089104</v>
       </c>
       <c r="AC18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19307383303926301</v>
+        <v>0.39733782511006455</v>
       </c>
       <c r="AD18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22442347303881718</v>
+        <v>0.42495116243643605</v>
       </c>
       <c r="AE18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46899839214444627</v>
+        <v>0.78279105429979845</v>
       </c>
       <c r="AF18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18085039009610454</v>
+        <v>0.45217630306421169</v>
       </c>
     </row>
     <row r="19" spans="4:32" x14ac:dyDescent="0.2">
@@ -5666,115 +5666,115 @@
         <v>59</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>DEMANDS!$F$20</f>
-        <v>TRAF</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F19" s="3">
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26470370503592316</v>
+        <v>0.38789997205872045</v>
       </c>
       <c r="H19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.9535610994719645</v>
+        <v>6.910190273949282</v>
       </c>
       <c r="I19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.7174421618530672</v>
+        <v>1.3961959336711072</v>
       </c>
       <c r="J19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46137634472923306</v>
+        <v>0.67232431981638574</v>
       </c>
       <c r="K19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32861616279057554</v>
+        <v>0.49953165517542941</v>
       </c>
       <c r="L19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15858328419825077</v>
+        <v>0.25721497679027128</v>
       </c>
       <c r="M19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41557372266687692</v>
+        <v>0.69891709788768008</v>
       </c>
       <c r="N19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64301379921342605</v>
+        <v>1.1885182572803505</v>
       </c>
       <c r="O19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30248113471924648</v>
+        <v>0.51227220812260121</v>
       </c>
       <c r="P19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34441900859439423</v>
+        <v>0.56771522512030337</v>
       </c>
       <c r="Q19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.69612815508656667</v>
+        <v>1.0090513933580376</v>
       </c>
       <c r="R19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45923533914861325</v>
+        <v>0.86405498196666175</v>
       </c>
       <c r="S19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45191168361299899</v>
+        <v>0.77471341372273761</v>
       </c>
       <c r="T19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4179741911256665</v>
+        <v>3.1589755408908133</v>
       </c>
       <c r="U19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65789789386848718</v>
+        <v>1.0505628518383727</v>
       </c>
       <c r="V19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.74128395115589563</v>
+        <v>1.1637891583638247</v>
       </c>
       <c r="W19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.60684805083030968</v>
+        <v>1.1258851783162427</v>
       </c>
       <c r="X19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56367981120778743</v>
+        <v>0.70902371185574553</v>
       </c>
       <c r="Y19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.90008420550019419</v>
+        <v>1.6108907535214307</v>
       </c>
       <c r="Z19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12003900738183884</v>
+        <v>0.20781770274634745</v>
       </c>
       <c r="AA19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50694745141671516</v>
+        <v>0.89326843268925393</v>
       </c>
       <c r="AB19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22512394484884937</v>
+        <v>0.46821791509034011</v>
       </c>
       <c r="AC19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24549857535790856</v>
+        <v>0.39026304609506768</v>
       </c>
       <c r="AD19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28536048640366246</v>
+        <v>0.41738471550787837</v>
       </c>
       <c r="AE19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59634407886436391</v>
+        <v>0.76885310685531993</v>
       </c>
       <c r="AF19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22995613865752026</v>
+        <v>0.44412510023923174</v>
       </c>
     </row>
     <row r="20" spans="4:32" x14ac:dyDescent="0.2">
@@ -5782,115 +5782,115 @@
         <v>59</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f t="array" ref="E20:E23">DEMANDS!$F$21</f>
-        <v>TTURS</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F20" s="3">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="G20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13064779508364899</v>
+        <v>0.33164444677241184</v>
       </c>
       <c r="H20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.0919251481787136</v>
+        <v>5.9080340179789657</v>
       </c>
       <c r="I20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.51060312297639665</v>
+        <v>1.1937114239805877</v>
       </c>
       <c r="J20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22771801450398094</v>
+        <v>0.57481991017877587</v>
       </c>
       <c r="K20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1943630348521006</v>
+        <v>0.42708664954707387</v>
       </c>
       <c r="L20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.3795533767547012E-2</v>
+        <v>0.21991215474043635</v>
       </c>
       <c r="M20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29576354987636128</v>
+        <v>0.59755604786084004</v>
       </c>
       <c r="N20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4475877985016371</v>
+        <v>1.0161523802713346</v>
       </c>
       <c r="O20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1789052334805798</v>
+        <v>0.43797949290386534</v>
       </c>
       <c r="P20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20370977252820086</v>
+        <v>0.48538183893139442</v>
       </c>
       <c r="Q20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3435826806631439</v>
+        <v>0.86271285181866131</v>
       </c>
       <c r="R20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32683749411207558</v>
+        <v>0.73874466903003644</v>
       </c>
       <c r="S20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27266175557601846</v>
+        <v>0.66235993815011118</v>
       </c>
       <c r="T20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2457757890372787</v>
+        <v>2.7008424106504432</v>
       </c>
       <c r="U20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33895865011628784</v>
+        <v>0.89820407552089609</v>
       </c>
       <c r="V20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44725505188660325</v>
+        <v>0.99500964008028858</v>
       </c>
       <c r="W20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3661429011624644</v>
+        <v>0.96260271716499135</v>
       </c>
       <c r="X20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26660117757391238</v>
+        <v>0.60619694149223746</v>
       </c>
       <c r="Y20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5921925929827917</v>
+        <v>1.3772699439161975</v>
       </c>
       <c r="Z20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3534707118324452E-2</v>
+        <v>0.17767876262283552</v>
       </c>
       <c r="AA20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29948801716050255</v>
+        <v>0.76372141407022565</v>
       </c>
       <c r="AB20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14811584497082575</v>
+        <v>0.40031421140592738</v>
       </c>
       <c r="AC20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15038999597426655</v>
+        <v>0.33366481397508846</v>
       </c>
       <c r="AD20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17480900790929571</v>
+        <v>0.35685314007941266</v>
       </c>
       <c r="AE20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36531447683124091</v>
+        <v>0.65734952729948315</v>
       </c>
       <c r="AF20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14086885317580392</v>
+        <v>0.37971547763938718</v>
       </c>
     </row>
     <row r="21" spans="4:32" x14ac:dyDescent="0.2">
@@ -5898,114 +5898,115 @@
         <v>59</v>
       </c>
       <c r="E21" s="3" t="str">
-        <v>TTURS</v>
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
       </c>
       <c r="F21" s="3">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11877072280331726</v>
+        <v>0.44622238757080546</v>
       </c>
       <c r="H21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.8108410437988307</v>
+        <v>7.949166859293892</v>
       </c>
       <c r="I21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46418465725126973</v>
+        <v>1.6061199482248465</v>
       </c>
       <c r="J21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20701637682180085</v>
+        <v>0.77341114931807842</v>
       </c>
       <c r="K21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17669366804736417</v>
+        <v>0.57463837044523791</v>
       </c>
       <c r="L21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5268667061406372E-2</v>
+        <v>0.29588834578454021</v>
       </c>
       <c r="M21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26887595443305573</v>
+        <v>0.80400226501250582</v>
       </c>
       <c r="N21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40689799863785192</v>
+        <v>1.3672170472722989</v>
       </c>
       <c r="O21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16264112134598166</v>
+        <v>0.58929451987697501</v>
       </c>
       <c r="P21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18519070229836443</v>
+        <v>0.6530736309904408</v>
       </c>
       <c r="Q21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31234789151194903</v>
+        <v>1.1607665747851894</v>
       </c>
       <c r="R21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29712499464734149</v>
+        <v>0.99396933441193125</v>
       </c>
       <c r="S21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2478743232509259</v>
+        <v>0.89119488026711646</v>
       </c>
       <c r="T21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1325234445793442</v>
+        <v>3.6339409890977992</v>
       </c>
       <c r="U21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30814422737844349</v>
+        <v>1.2085194581286236</v>
       </c>
       <c r="V21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4065955017150939</v>
+        <v>1.3387698228436864</v>
       </c>
       <c r="W21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33285718287496763</v>
+        <v>1.2951668177042381</v>
       </c>
       <c r="X21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2423647068853749</v>
+        <v>0.81562845150370777</v>
       </c>
       <c r="Y21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.53835690271162884</v>
+        <v>1.8530950500900067</v>
       </c>
       <c r="Z21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.6849733743931328E-2</v>
+        <v>0.23906398086802944</v>
       </c>
       <c r="AA21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27226183378227509</v>
+        <v>1.0275751520701077</v>
       </c>
       <c r="AB21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13465076815529611</v>
+        <v>0.53861647595944773</v>
       </c>
       <c r="AC21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13671817815842413</v>
+        <v>0.44894075986897575</v>
       </c>
       <c r="AD21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15891727991754154</v>
+        <v>0.4801402879742741</v>
       </c>
       <c r="AE21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33210406984658275</v>
+        <v>0.88445345126314423</v>
       </c>
       <c r="AF21" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12806259379618537</v>
+        <v>0.51090120361976454</v>
       </c>
     </row>
     <row r="22" spans="4:32" x14ac:dyDescent="0.2">
@@ -6013,114 +6014,115 @@
         <v>59</v>
       </c>
       <c r="E22" s="3" t="str">
-        <v>TTURS</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F22" s="3">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="G22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.9180481868878175E-2</v>
+        <v>0.2178146269505315</v>
       </c>
       <c r="H22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.8738940291992201</v>
+        <v>3.2532352952549441</v>
       </c>
       <c r="I22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30945643816751311</v>
+        <v>0.59035591066396753</v>
       </c>
       <c r="J22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13801091788120054</v>
+        <v>0.37964907365901629</v>
       </c>
       <c r="K22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11779577869824279</v>
+        <v>0.2704057614094616</v>
       </c>
       <c r="L22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6845778040937579E-2</v>
+        <v>0.13049216248614431</v>
       </c>
       <c r="M22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17925063628870383</v>
+        <v>0.34195983528392676</v>
       </c>
       <c r="N22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2712653324252346</v>
+        <v>0.5291116374087359</v>
       </c>
       <c r="O22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10842741423065444</v>
+        <v>0.24890023926754198</v>
       </c>
       <c r="P22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1234604681989096</v>
+        <v>0.28340932312027484</v>
       </c>
       <c r="Q22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20823192767463269</v>
+        <v>0.57281742387914369</v>
       </c>
       <c r="R22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19808332976489432</v>
+        <v>0.3778873214697962</v>
       </c>
       <c r="S22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1652495488339506</v>
+        <v>0.37186096343983388</v>
       </c>
       <c r="T22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.75501562971956282</v>
+        <v>1.9896591411313085</v>
       </c>
       <c r="U22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20542948491896232</v>
+        <v>0.54135919368811836</v>
       </c>
       <c r="V22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27106366781006258</v>
+        <v>0.60997441370730043</v>
       </c>
       <c r="W22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22190478858331172</v>
+        <v>0.49935221643128408</v>
       </c>
       <c r="X22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16157647125691657</v>
+        <v>0.46383071132724779</v>
       </c>
       <c r="Y22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35890460180775258</v>
+        <v>0.74064511268734978</v>
       </c>
       <c r="Z22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.4566489162620883E-2</v>
+        <v>9.8775540783756666E-2</v>
       </c>
       <c r="AA22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18150788918818334</v>
+        <v>0.41714780682374364</v>
       </c>
       <c r="AB22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.9767178770197409E-2</v>
+        <v>0.18524594530412608</v>
       </c>
       <c r="AC22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1145452105616087E-2</v>
+        <v>0.20201145503880613</v>
       </c>
       <c r="AD22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10594485327836103</v>
+        <v>0.23481230791235341</v>
       </c>
       <c r="AE22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22140271323105512</v>
+        <v>0.49070889678091939</v>
       </c>
       <c r="AF22" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5375062530790247E-2</v>
+        <v>0.18922217409036649</v>
       </c>
     </row>
     <row r="23" spans="4:32" x14ac:dyDescent="0.2">
@@ -6128,114 +6130,115 @@
         <v>59</v>
       </c>
       <c r="E23" s="3" t="str">
-        <v>TTURS</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F23" s="3">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17991488188042462</v>
       </c>
       <c r="H23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.6871723541686299</v>
       </c>
       <c r="I23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.48763398226070803</v>
       </c>
       <c r="J23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.3135901348759621</v>
       </c>
       <c r="K23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.22335515894815736</v>
       </c>
       <c r="L23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10778652622510916</v>
       </c>
       <c r="M23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2824588239748011</v>
       </c>
       <c r="N23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.43704621254646414</v>
       </c>
       <c r="O23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20559159765702764</v>
       </c>
       <c r="P23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23409610092244049</v>
       </c>
       <c r="Q23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.47314719217489071</v>
       </c>
       <c r="R23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.31213492756751032</v>
       </c>
       <c r="S23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.30715715583422787</v>
       </c>
       <c r="T23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>1.643458450750628</v>
       </c>
       <c r="U23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.44716269403431846</v>
       </c>
       <c r="V23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.50383886577623815</v>
       </c>
       <c r="W23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.41246493081645397</v>
       </c>
       <c r="X23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.38312416759737483</v>
       </c>
       <c r="Y23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.61177286314532875</v>
       </c>
       <c r="Z23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.1588596696128737E-2</v>
       </c>
       <c r="AA23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.34456408847334713</v>
       </c>
       <c r="AB23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15301315083761008</v>
       </c>
       <c r="AC23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16686146187994025</v>
       </c>
       <c r="AD23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1939549663563945</v>
       </c>
       <c r="AE23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.40532554878448751</v>
       </c>
       <c r="AF23" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15629751581539669</v>
       </c>
     </row>
     <row r="24" spans="4:32" x14ac:dyDescent="0.2">
@@ -6243,115 +6246,115 @@
         <v>59</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="array" ref="E24:E27">DEMANDS!$F$22</f>
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F24" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.1369795698699275E-2</v>
+        <v>0.19572571146618054</v>
       </c>
       <c r="H24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2157232586735747</v>
+        <v>2.9233197129377184</v>
       </c>
       <c r="I24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20076556281429395</v>
+        <v>0.53048701205549609</v>
       </c>
       <c r="J24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.9537124407597243E-2</v>
+        <v>0.34114827865193581</v>
       </c>
       <c r="K24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.6422180606561071E-2</v>
+        <v>0.24298349829573737</v>
       </c>
       <c r="L24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.6879745303044567E-2</v>
+        <v>0.11725875209088529</v>
       </c>
       <c r="M24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11629215114226027</v>
+        <v>0.30728116376227216</v>
       </c>
       <c r="N24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17598837968553932</v>
+        <v>0.47545361451038171</v>
       </c>
       <c r="O24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0344281642420695E-2</v>
+        <v>0.22365888414741908</v>
       </c>
       <c r="P24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.0097252233779601E-2</v>
+        <v>0.25466834886374512</v>
       </c>
       <c r="Q24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13509429761119718</v>
+        <v>0.51472713012259241</v>
       </c>
       <c r="R24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12851020783368303</v>
+        <v>0.33956518845505695</v>
       </c>
       <c r="S24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10720868782990856</v>
+        <v>0.3341499726383883</v>
       </c>
       <c r="T24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48983029318066279</v>
+        <v>1.7878847551480515</v>
       </c>
       <c r="U24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13327616126726244</v>
+        <v>0.48645912731760305</v>
       </c>
       <c r="V24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17585754605284931</v>
+        <v>0.54811597260702893</v>
       </c>
       <c r="W24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14396481790758336</v>
+        <v>0.44871214207035037</v>
       </c>
       <c r="X24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10482571111311897</v>
+        <v>0.41679292729504486</v>
       </c>
       <c r="Y24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23284596954990056</v>
+        <v>0.66553515553206655</v>
       </c>
       <c r="Z24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.891333052359172E-2</v>
+        <v>8.8758561654118218E-2</v>
       </c>
       <c r="AA24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11775658552747396</v>
+        <v>0.37484420775688798</v>
       </c>
       <c r="AB24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.8238110264470733E-2</v>
+        <v>0.16645986979152586</v>
       </c>
       <c r="AC24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9132290471338791E-2</v>
+        <v>0.18152516346282133</v>
       </c>
       <c r="AD24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.8733674508960146E-2</v>
+        <v>0.21099963152428264</v>
       </c>
       <c r="AE24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14363908727723138</v>
+        <v>0.44094535472607599</v>
       </c>
       <c r="AF24" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.5388643974572375E-2</v>
+        <v>0.17003286311633117</v>
       </c>
     </row>
     <row r="25" spans="4:32" x14ac:dyDescent="0.2">
@@ -6359,114 +6362,115 @@
         <v>59</v>
       </c>
       <c r="E25" s="3" t="str">
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F25" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341231E-2</v>
+        <v>0.19710927940685624</v>
       </c>
       <c r="H25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090483</v>
+        <v>2.9439844043820242</v>
       </c>
       <c r="I25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526884</v>
+        <v>0.53423697835949702</v>
       </c>
       <c r="J25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560347E-2</v>
+        <v>0.34355982600472729</v>
       </c>
       <c r="K25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740469136E-2</v>
+        <v>0.24470112739942973</v>
       </c>
       <c r="L25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898793E-2</v>
+        <v>0.11808764395665643</v>
       </c>
       <c r="M25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092819</v>
+        <v>0.30945330744114924</v>
       </c>
       <c r="N25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580552</v>
+        <v>0.47881455453909427</v>
       </c>
       <c r="O25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654552E-2</v>
+        <v>0.22523990924338419</v>
       </c>
       <c r="P25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796776E-2</v>
+        <v>0.25646857715441385</v>
       </c>
       <c r="Q25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508828</v>
+        <v>0.51836569119920728</v>
       </c>
       <c r="R25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544515</v>
+        <v>0.34196554508166749</v>
       </c>
       <c r="S25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607375</v>
+        <v>0.33651204957788122</v>
       </c>
       <c r="T25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50268977983509444</v>
+        <v>1.8005231561548245</v>
       </c>
       <c r="U25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1367750527017661</v>
+        <v>0.4898978643540603</v>
       </c>
       <c r="V25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524395</v>
+        <v>0.55199055649174444</v>
       </c>
       <c r="W25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316554</v>
+        <v>0.45188404896857981</v>
       </c>
       <c r="X25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10757769450791341</v>
+        <v>0.41973920005494958</v>
       </c>
       <c r="Y25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297948</v>
+        <v>0.67023976535409224</v>
       </c>
       <c r="Z25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.967239053514998E-2</v>
+        <v>8.9385988165664398E-2</v>
       </c>
       <c r="AA25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824897</v>
+        <v>0.3774939486862498</v>
       </c>
       <c r="AB25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341915E-2</v>
+        <v>0.16763656005632224</v>
       </c>
       <c r="AC25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.068468710900795E-2</v>
+        <v>0.18280834897131526</v>
       </c>
       <c r="AD25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292492E-2</v>
+        <v>0.21249116947034252</v>
       </c>
       <c r="AE25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1474100360152161</v>
+        <v>0.44406235888367368</v>
       </c>
       <c r="AF25" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E25,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F25,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E25,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006623E-2</v>
+        <v>0.1712348105585286</v>
       </c>
     </row>
     <row r="26" spans="4:32" x14ac:dyDescent="0.2">
@@ -6474,114 +6478,115 @@
         <v>59</v>
       </c>
       <c r="E26" s="3" t="str">
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F26" s="3">
         <v>2030</v>
       </c>
       <c r="G26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.2151233573399967E-2</v>
+        <v>0.20817782293225748</v>
       </c>
       <c r="H26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.4708779581996561</v>
+        <v>3.1093019359364078</v>
       </c>
       <c r="I26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24290202478423006</v>
+        <v>0.56423670879149446</v>
       </c>
       <c r="J26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10832908048119906</v>
+        <v>0.36285220482705244</v>
       </c>
       <c r="K26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2461586277774524E-2</v>
+        <v>0.25844216022896338</v>
       </c>
       <c r="L26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.4620026871453208E-2</v>
+        <v>0.12471877888282305</v>
       </c>
       <c r="M26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14069942366110599</v>
+        <v>0.32683045687215972</v>
       </c>
       <c r="N26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21292463291453403</v>
+        <v>0.50570207476878482</v>
       </c>
       <c r="O26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5108064368296127E-2</v>
+        <v>0.23788811001110061</v>
       </c>
       <c r="P26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.6907978014310434E-2</v>
+        <v>0.27087040347975844</v>
       </c>
       <c r="Q26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16344774455625344</v>
+        <v>0.5474741798121161</v>
       </c>
       <c r="R26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15548179304594056</v>
+        <v>0.36116839809454465</v>
       </c>
       <c r="S26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12970953276699687</v>
+        <v>0.35540866509381824</v>
       </c>
       <c r="T26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59263535213104257</v>
+        <v>1.9016303642089742</v>
       </c>
       <c r="U26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16124801969764282</v>
+        <v>0.51740776064570804</v>
       </c>
       <c r="V26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2127663400587036</v>
+        <v>0.58298722756945731</v>
       </c>
       <c r="W26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17418000018156132</v>
+        <v>0.47725930415440593</v>
       </c>
       <c r="X26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12682641944114589</v>
+        <v>0.44330938213417909</v>
       </c>
       <c r="Y26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28171543303387286</v>
+        <v>0.70787664393028393</v>
       </c>
       <c r="Z26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.4981629463676549E-2</v>
+        <v>9.440540025803211E-2</v>
       </c>
       <c r="AA26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14247121197153992</v>
+        <v>0.39869187612113649</v>
       </c>
       <c r="AB26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0461062667068239E-2</v>
+        <v>0.17705008217468987</v>
       </c>
       <c r="AC26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.1542912461054778E-2</v>
+        <v>0.19307383303926301</v>
       </c>
       <c r="AD26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.3159424729279119E-2</v>
+        <v>0.22442347303881718</v>
       </c>
       <c r="AE26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17378590555428736</v>
+        <v>0.46899839214444627</v>
       </c>
       <c r="AF26" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E26,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F26,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E26,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.7013553434566345E-2</v>
+        <v>0.18085039009610454</v>
       </c>
     </row>
     <row r="27" spans="4:32" x14ac:dyDescent="0.2">
@@ -6589,114 +6594,115 @@
         <v>59</v>
       </c>
       <c r="E27" s="3" t="str">
-        <v>TNAV</v>
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
       </c>
       <c r="F27" s="3">
         <v>2050</v>
       </c>
       <c r="G27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.1016892709517424E-2</v>
+        <v>0.26470370503592316</v>
       </c>
       <c r="H27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.9173547309808718</v>
+        <v>3.9535610994719645</v>
       </c>
       <c r="I27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31663357506215251</v>
+        <v>0.7174421618530672</v>
       </c>
       <c r="J27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14121176662247656</v>
+        <v>0.46137634472923306</v>
       </c>
       <c r="K27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12052778335238534</v>
+        <v>0.32861616279057554</v>
       </c>
       <c r="L27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.8164186322562053E-2</v>
+        <v>0.15858328419825077</v>
       </c>
       <c r="M27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1834079463214616</v>
+        <v>0.41557372266687692</v>
       </c>
       <c r="N27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27755671365199108</v>
+        <v>0.64301379921342605</v>
       </c>
       <c r="O27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11094214101957932</v>
+        <v>0.30248113471924648</v>
       </c>
       <c r="P27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12632385241733773</v>
+        <v>0.34441900859439423</v>
       </c>
       <c r="Q27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21306139271858376</v>
+        <v>0.69612815508656667</v>
       </c>
       <c r="R27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20267742120693139</v>
+        <v>0.45923533914861325</v>
       </c>
       <c r="S27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16908213554884313</v>
+        <v>0.45191168361299899</v>
       </c>
       <c r="T27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.7725264967229386</v>
+        <v>2.4179741911256665</v>
       </c>
       <c r="U27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21019395368939628</v>
+        <v>0.65789789386848718</v>
       </c>
       <c r="V27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27735037188562289</v>
+        <v>0.74128395115589563</v>
       </c>
       <c r="W27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22705136447835297</v>
+        <v>0.60684805083030968</v>
       </c>
       <c r="X27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16532386930761089</v>
+        <v>0.56367981120778743</v>
       </c>
       <c r="Y27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36722857617565963</v>
+        <v>0.90008420550019419</v>
       </c>
       <c r="Z27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.5600107320729701E-2</v>
+        <v>0.12003900738183884</v>
       </c>
       <c r="AA27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18571755105812188</v>
+        <v>0.50694745141671516</v>
       </c>
       <c r="AB27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.18491239205209E-2</v>
+        <v>0.22512394484884937</v>
       </c>
       <c r="AC27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.3259363165148407E-2</v>
+        <v>0.24549857535790856</v>
       </c>
       <c r="AD27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10840200272325237</v>
+        <v>0.28536048640366246</v>
       </c>
       <c r="AE27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22653764463242995</v>
+        <v>0.59634407886436391</v>
       </c>
       <c r="AF27" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E27,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F27,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E27,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7355142553685775E-2</v>
+        <v>0.22995613865752026</v>
       </c>
     </row>
     <row r="28" spans="4:32" x14ac:dyDescent="0.2">
@@ -6704,115 +6710,115 @@
         <v>59</v>
       </c>
       <c r="E28" s="3" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F28" s="3">
         <v>2019</v>
       </c>
       <c r="G28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1629624043332934</v>
+        <v>0.13064779508364899</v>
       </c>
       <c r="H28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.8566862597502731</v>
+        <v>3.0919251481787136</v>
       </c>
       <c r="I28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63689641701986843</v>
+        <v>0.51060312297639665</v>
       </c>
       <c r="J28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28404210824846116</v>
+        <v>0.22771801450398094</v>
       </c>
       <c r="K28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24243706105207907</v>
+        <v>0.1943630348521006</v>
       </c>
       <c r="L28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11699505291074819</v>
+        <v>9.3795533767547012E-2</v>
       </c>
       <c r="M28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36891812197168955</v>
+        <v>0.29576354987636128</v>
       </c>
       <c r="N28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55829479362718504</v>
+        <v>0.4475877985016371</v>
       </c>
       <c r="O28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22315590536478461</v>
+        <v>0.1789052334805798</v>
       </c>
       <c r="P28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25409563396097901</v>
+        <v>0.20370977252820086</v>
       </c>
       <c r="Q28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42856490377273548</v>
+        <v>0.3435826806631439</v>
       </c>
       <c r="R28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4076779392462821</v>
+        <v>0.32683749411207558</v>
       </c>
       <c r="S28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34010229740161857</v>
+        <v>0.27266175557601846</v>
       </c>
       <c r="T28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5539077235229115</v>
+        <v>1.2457757890372787</v>
       </c>
       <c r="U28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42279715901176512</v>
+        <v>0.33895865011628784</v>
       </c>
       <c r="V28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5578797449967432</v>
+        <v>0.44725505188660325</v>
       </c>
       <c r="W28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45670520091670769</v>
+        <v>0.3661429011624644</v>
       </c>
       <c r="X28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33254268751887739</v>
+        <v>0.26660117757391238</v>
       </c>
       <c r="Y28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.738666341204264</v>
+        <v>0.5921925929827917</v>
       </c>
       <c r="Z28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1722884923348305E-2</v>
+        <v>7.3534707118324452E-2</v>
       </c>
       <c r="AA28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37356380422829233</v>
+        <v>0.29948801716050255</v>
       </c>
       <c r="AB28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18475102622932804</v>
+        <v>0.14811584497082575</v>
       </c>
       <c r="AC28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18758766893807341</v>
+        <v>0.15038999597426655</v>
       </c>
       <c r="AD28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21804651360382518</v>
+        <v>0.17480900790929571</v>
       </c>
       <c r="AE28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45567187294712425</v>
+        <v>0.36531447683124091</v>
       </c>
       <c r="AF28" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E28,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F28,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E28,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17571155329873456</v>
+        <v>0.14086885317580392</v>
       </c>
     </row>
     <row r="29" spans="4:32" x14ac:dyDescent="0.2">
@@ -6820,115 +6826,115 @@
         <v>59</v>
       </c>
       <c r="E29" s="3" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F29" s="3">
         <v>2020</v>
       </c>
       <c r="G29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16235731275947515</v>
+        <v>4.0298189842888257E-2</v>
       </c>
       <c r="H29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.8423660957334085</v>
+        <v>0.95370141165819167</v>
       </c>
       <c r="I29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63453157307374231</v>
+        <v>0.15749505432449243</v>
       </c>
       <c r="J29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28298743869437681</v>
+        <v>7.0239407968971448E-2</v>
       </c>
       <c r="K29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24153687414440531</v>
+        <v>5.9951095783093836E-2</v>
       </c>
       <c r="L29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11656064154461539</v>
+        <v>2.8931144408212817E-2</v>
       </c>
       <c r="M29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3675483014419349</v>
+        <v>9.1227989526291103E-2</v>
       </c>
       <c r="N29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55622180337699523</v>
+        <v>0.13805803660008939</v>
       </c>
       <c r="O29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22232731082767995</v>
+        <v>5.5183151449824608E-2</v>
       </c>
       <c r="P29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25315215790168288</v>
+        <v>6.2834088251830136E-2</v>
       </c>
       <c r="Q29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42697361028901426</v>
+        <v>0.10597775556201997</v>
       </c>
       <c r="R29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40616420062123709</v>
+        <v>0.10081271847771647</v>
       </c>
       <c r="S29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3388394721798389</v>
+        <v>8.4102262744369466E-2</v>
       </c>
       <c r="T29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5481379481330504</v>
+        <v>0.38425837356195214</v>
       </c>
       <c r="U29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4212272815949526</v>
+        <v>0.10455147767729014</v>
       </c>
       <c r="V29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55580829585310521</v>
+        <v>0.13795540121880623</v>
       </c>
       <c r="W29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45500942040877851</v>
+        <v>0.11293643441302506</v>
       </c>
       <c r="X29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33130793169298151</v>
+        <v>8.223288314458263E-2</v>
       </c>
       <c r="Y29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73592361793165129</v>
+        <v>0.18266124981514895</v>
       </c>
       <c r="Z29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1382311003734881E-2</v>
+        <v>2.268171143338564E-2</v>
       </c>
       <c r="AA29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37217673393347922</v>
+        <v>9.2376797966447738E-2</v>
       </c>
       <c r="AB29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18406503187570397</v>
+        <v>4.5686193445151811E-2</v>
       </c>
       <c r="AC29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18689114191829229</v>
+        <v>4.6387653188956712E-2</v>
       </c>
       <c r="AD29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21723689061978846</v>
+        <v>5.3919674514716666E-2</v>
       </c>
       <c r="AE29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45397992926309294</v>
+        <v>0.11268090770514043</v>
       </c>
       <c r="AF29" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E29,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F29,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E29,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17505912318297531</v>
+        <v>4.3450865623823789E-2</v>
       </c>
     </row>
     <row r="30" spans="4:32" x14ac:dyDescent="0.2">
@@ -6936,115 +6942,115 @@
         <v>59</v>
       </c>
       <c r="E30" s="3" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F30" s="3">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="G30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10823820850631675</v>
+        <v>0.10300786940522524</v>
       </c>
       <c r="H30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.5615773971556055</v>
+        <v>2.4377956143110229</v>
       </c>
       <c r="I30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42302104871582824</v>
+        <v>0.40257962084838456</v>
       </c>
       <c r="J30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18865829246291785</v>
+        <v>0.17954185513980364</v>
       </c>
       <c r="K30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16102458276293685</v>
+        <v>0.15324347493526211</v>
       </c>
       <c r="L30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.770709436307692E-2</v>
+        <v>7.3952094537338808E-2</v>
       </c>
       <c r="M30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24503220096128994</v>
+        <v>0.23319163634551818</v>
       </c>
       <c r="N30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37081453558466354</v>
+        <v>0.35289585611383284</v>
       </c>
       <c r="O30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14821820721845327</v>
+        <v>0.14105593526840399</v>
       </c>
       <c r="P30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1687681052677886</v>
+        <v>0.16061281119760162</v>
       </c>
       <c r="Q30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28464907352600949</v>
+        <v>0.27089412321873724</v>
       </c>
       <c r="R30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27077613374749138</v>
+        <v>0.2576915583510011</v>
       </c>
       <c r="S30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22589298145322589</v>
+        <v>0.21497727146632159</v>
       </c>
       <c r="T30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0320919654220335</v>
+        <v>0.98221871791392923</v>
       </c>
       <c r="U30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28081818772996836</v>
+        <v>0.26724835534036351</v>
       </c>
       <c r="V30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37053886390207008</v>
+        <v>0.35263350557171702</v>
       </c>
       <c r="W30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30333961360585232</v>
+        <v>0.28868148997421283</v>
       </c>
       <c r="X30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22087195446198762</v>
+        <v>0.21019887297164039</v>
       </c>
       <c r="Y30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49061574528776752</v>
+        <v>0.46690797377526921</v>
       </c>
       <c r="Z30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.0921540669156587E-2</v>
+        <v>5.797766049358951E-2</v>
       </c>
       <c r="AA30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24811782262231949</v>
+        <v>0.23612815310313523</v>
       </c>
       <c r="AB30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12271002125046931</v>
+        <v>0.11678036820928242</v>
       </c>
       <c r="AC30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12459409461219485</v>
+        <v>0.11857339846609012</v>
       </c>
       <c r="AD30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14482459374652562</v>
+        <v>0.13782630962924933</v>
       </c>
       <c r="AE30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.30265328617539522</v>
+        <v>0.28802832759004759</v>
       </c>
       <c r="AF30" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E30,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F30,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E30,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11670608212198352</v>
+        <v>0.1110665543334004</v>
       </c>
     </row>
     <row r="31" spans="4:32" x14ac:dyDescent="0.2">
@@ -7052,115 +7058,115 @@
         <v>59</v>
       </c>
       <c r="E31" s="3" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F31" s="3">
-        <v>2050</v>
+        <v>2022</v>
       </c>
       <c r="G31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1038144095614168</v>
       </c>
       <c r="H31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.4568832827278371</v>
       </c>
       <c r="I31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.40573177448629011</v>
       </c>
       <c r="J31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18094764788868301</v>
       </c>
       <c r="K31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15444335429324979</v>
       </c>
       <c r="L31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.4531131209228371E-2</v>
       </c>
       <c r="M31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23501750091185328</v>
       </c>
       <c r="N31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.35565899140196999</v>
       </c>
       <c r="O31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14216038754685631</v>
       </c>
       <c r="P31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16187039163856845</v>
       </c>
       <c r="Q31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.27301519406229291</v>
       </c>
       <c r="R31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2597092545806361</v>
       </c>
       <c r="S31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21666051958228819</v>
       </c>
       <c r="T31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.98990938118785943</v>
       </c>
       <c r="U31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.26934088022708069</v>
       </c>
       <c r="V31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.35539458668430002</v>
       </c>
       <c r="W31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.29094183392033857</v>
       </c>
       <c r="X31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21184470675906589</v>
       </c>
       <c r="Y31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.47056381125904773</v>
       </c>
       <c r="Z31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.8431619124324458E-2</v>
       </c>
       <c r="AA31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23797701026894863</v>
       </c>
       <c r="AB31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11769474549870186</v>
       </c>
       <c r="AC31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11950181498291744</v>
       </c>
       <c r="AD31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13890547429829392</v>
       </c>
       <c r="AE31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.29028355734737993</v>
       </c>
       <c r="AF31" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E31,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F31,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E31,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11193619309592365</v>
       </c>
     </row>
     <row r="32" spans="4:32" x14ac:dyDescent="0.2">
@@ -7168,115 +7174,115 @@
         <v>59</v>
       </c>
       <c r="E32" s="3" t="str">
-        <f t="array" ref="E32:E35">DEMANDS!$F$24</f>
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F32" s="3">
-        <v>2019</v>
+        <v>2030</v>
       </c>
       <c r="G32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.9180481868878175E-2</v>
       </c>
       <c r="H32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13395677260860595</v>
+        <v>1.8738940291992201</v>
       </c>
       <c r="I32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.30945643816751311</v>
       </c>
       <c r="J32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13801091788120054</v>
       </c>
       <c r="K32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11779577869824279</v>
       </c>
       <c r="L32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.6845778040937579E-2</v>
       </c>
       <c r="M32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17925063628870383</v>
       </c>
       <c r="N32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2712653324252346</v>
       </c>
       <c r="O32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10842741423065444</v>
       </c>
       <c r="P32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1234604681989096</v>
       </c>
       <c r="Q32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20823192767463269</v>
       </c>
       <c r="R32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.19808332976489432</v>
       </c>
       <c r="S32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6779068407982807E-2</v>
+        <v>0.1652495488339506</v>
       </c>
       <c r="T32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6352277307537207E-4</v>
+        <v>0.75501562971956282</v>
       </c>
       <c r="U32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6529102661710439E-2</v>
+        <v>0.20542948491896232</v>
       </c>
       <c r="V32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.27106366781006258</v>
       </c>
       <c r="W32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.22190478858331172</v>
       </c>
       <c r="X32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16157647125691657</v>
       </c>
       <c r="Y32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.35890460180775258</v>
       </c>
       <c r="Z32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.4566489162620883E-2</v>
       </c>
       <c r="AA32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2704554615074527E-5</v>
+        <v>0.18150788918818334</v>
       </c>
       <c r="AB32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.9767178770197409E-2</v>
       </c>
       <c r="AC32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.1145452105616087E-2</v>
       </c>
       <c r="AD32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10594485327836103</v>
       </c>
       <c r="AE32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.22140271323105512</v>
       </c>
       <c r="AF32" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E32,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F32,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E32,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.5375062530790247E-2</v>
       </c>
     </row>
     <row r="33" spans="4:32" x14ac:dyDescent="0.2">
@@ -7284,10 +7290,11 @@
         <v>59</v>
       </c>
       <c r="E33" s="3" t="str">
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
       </c>
       <c r="F33" s="3">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -7295,7 +7302,7 @@
       </c>
       <c r="H33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13395677260860595</v>
+        <v>0</v>
       </c>
       <c r="I33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -7339,15 +7346,15 @@
       </c>
       <c r="S33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6779068407982807E-2</v>
+        <v>0</v>
       </c>
       <c r="T33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6352277307537207E-4</v>
+        <v>0</v>
       </c>
       <c r="U33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6529102661710439E-2</v>
+        <v>0</v>
       </c>
       <c r="V33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -7371,7 +7378,7 @@
       </c>
       <c r="AA33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2704554615074527E-5</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E33,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F33,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E33,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -7399,114 +7406,115 @@
         <v>59</v>
       </c>
       <c r="E34" s="3" t="str">
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F34" s="3">
-        <v>2030</v>
+        <v>2019</v>
       </c>
       <c r="G34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.1369795698699275E-2</v>
       </c>
       <c r="H34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13429585799734914</v>
+        <v>1.2157232586735747</v>
       </c>
       <c r="I34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20076556281429395</v>
       </c>
       <c r="J34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.9537124407597243E-2</v>
       </c>
       <c r="K34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.6422180606561071E-2</v>
       </c>
       <c r="L34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.6879745303044567E-2</v>
       </c>
       <c r="M34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11629215114226027</v>
       </c>
       <c r="N34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17598837968553932</v>
       </c>
       <c r="O34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.0344281642420695E-2</v>
       </c>
       <c r="P34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.0097252233779601E-2</v>
       </c>
       <c r="Q34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13509429761119718</v>
       </c>
       <c r="R34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12851020783368303</v>
       </c>
       <c r="S34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6897480476945606E-2</v>
+        <v>0.10720868782990856</v>
       </c>
       <c r="T34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6469609038243213E-4</v>
+        <v>0.48983029318066279</v>
       </c>
       <c r="U34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6646881991240993E-2</v>
+        <v>0.13327616126726244</v>
       </c>
       <c r="V34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17585754605284931</v>
       </c>
       <c r="W34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14396481790758336</v>
       </c>
       <c r="X34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10482571111311897</v>
       </c>
       <c r="Y34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23284596954990056</v>
       </c>
       <c r="Z34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.891333052359172E-2</v>
       </c>
       <c r="AA34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2939218076486528E-5</v>
+        <v>0.11775658552747396</v>
       </c>
       <c r="AB34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.8238110264470733E-2</v>
       </c>
       <c r="AC34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.9132290471338791E-2</v>
       </c>
       <c r="AD34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.8733674508960146E-2</v>
       </c>
       <c r="AE34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14363908727723138</v>
       </c>
       <c r="AF34" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E34,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F34,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E34,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.5388643974572375E-2</v>
       </c>
     </row>
     <row r="35" spans="4:32" x14ac:dyDescent="0.2">
@@ -7514,114 +7522,115 @@
         <v>59</v>
       </c>
       <c r="E35" s="3" t="str">
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F35" s="3">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.4709600636236908E-2</v>
       </c>
       <c r="H35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1349740287748355</v>
+        <v>1.2947634511986181</v>
       </c>
       <c r="I35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21381832677519244</v>
       </c>
       <c r="J35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.5358376490112085E-2</v>
       </c>
       <c r="K35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.1390765212663516E-2</v>
       </c>
       <c r="L35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.9277480271286955E-2</v>
       </c>
       <c r="M35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12385288007448821</v>
       </c>
       <c r="N35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1874302562090602</v>
       </c>
       <c r="O35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.4917711923025126E-2</v>
       </c>
       <c r="P35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.5304771455047348E-2</v>
       </c>
       <c r="Q35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14387744724335505</v>
       </c>
       <c r="R35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13686529316756901</v>
       </c>
       <c r="S35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7134304614871211E-2</v>
+        <v>0.11417885580685315</v>
       </c>
       <c r="T35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6704272499655208E-4</v>
+        <v>0.52167658747615886</v>
       </c>
       <c r="U35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6882440650302074E-2</v>
+        <v>0.14194110484747868</v>
       </c>
       <c r="V35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18729091643367465</v>
       </c>
       <c r="W35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15332468401449936</v>
       </c>
       <c r="X35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11164094996689844</v>
       </c>
       <c r="Y35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.24798443969974754</v>
       </c>
       <c r="Z35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.0793129396254827E-2</v>
       </c>
       <c r="AA35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.340854499931053E-5</v>
+        <v>0.12541252459483895</v>
       </c>
       <c r="AB35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.202445836199811E-2</v>
       </c>
       <c r="AC35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.2976773654461277E-2</v>
       </c>
       <c r="AD35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.3202391239829717E-2</v>
       </c>
       <c r="AE35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15297777602198812</v>
       </c>
       <c r="AF35" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E35,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F35,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E35,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.8989734150496013E-2</v>
       </c>
     </row>
     <row r="36" spans="4:32" x14ac:dyDescent="0.2">
@@ -7629,115 +7638,115 @@
         <v>59</v>
       </c>
       <c r="E36" s="3" t="str">
-        <f>DEMANDS!$F$25</f>
-        <v>TAVIINT</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F36" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="G36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.0377905785525848E-2</v>
       </c>
       <c r="H36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>40.559731289160872</v>
+        <v>1.4289101869121152</v>
       </c>
       <c r="I36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2359714316887277</v>
       </c>
       <c r="J36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10523818497346488</v>
       </c>
       <c r="K36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.9823429465268834E-2</v>
       </c>
       <c r="L36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.3346907594530242E-2</v>
       </c>
       <c r="M36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13668492252620179</v>
       </c>
       <c r="N36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2068493686508841</v>
       </c>
       <c r="O36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.267972164943059E-2</v>
       </c>
       <c r="P36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.4142954692987016E-2</v>
       </c>
       <c r="Q36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1587841777914096</v>
       </c>
       <c r="R36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15104551449981587</v>
       </c>
       <c r="S36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.401587408534509</v>
+        <v>0.12600860029015015</v>
       </c>
       <c r="T36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2205531132921634</v>
+        <v>0.57572600572572319</v>
       </c>
       <c r="U36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24198661780769198</v>
+        <v>0.15664721650148741</v>
       </c>
       <c r="V36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20669559228014536</v>
       </c>
       <c r="W36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.169210215727499</v>
       </c>
       <c r="X36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12320774928931454</v>
       </c>
       <c r="Y36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.27367739779388101</v>
       </c>
       <c r="Z36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.3983517406579698E-2</v>
       </c>
       <c r="AA36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6908520936307182</v>
+        <v>0.13840615735178152</v>
       </c>
       <c r="AB36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.8450634985965417E-2</v>
       </c>
       <c r="AC36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.9501616940463015E-2</v>
       </c>
       <c r="AD36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.0786681499301294E-2</v>
       </c>
       <c r="AE36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16882736559069478</v>
       </c>
       <c r="AF36" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E36,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F36,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E36,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.5101491683943843E-2</v>
       </c>
     </row>
     <row r="37" spans="4:32" x14ac:dyDescent="0.2">
@@ -7745,115 +7754,115 @@
         <v>59</v>
       </c>
       <c r="E37" s="3" t="str">
-        <f>DEMANDS!$F$25</f>
-        <v>TAVIINT</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F37" s="3">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.5038945466328898E-2</v>
       </c>
       <c r="H37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>41.184477806263274</v>
+        <v>1.3025577623229052</v>
       </c>
       <c r="I37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21510548587859279</v>
       </c>
       <c r="J37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.5932421775359183E-2</v>
       </c>
       <c r="K37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.1880727256405203E-2</v>
       </c>
       <c r="L37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.951392570163105E-2</v>
       </c>
       <c r="M37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12459845864333484</v>
       </c>
       <c r="N37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18855856248743552</v>
       </c>
       <c r="O37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.536870701012556E-2</v>
       </c>
       <c r="P37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.5818295318028925E-2</v>
       </c>
       <c r="Q37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14474357115698944</v>
       </c>
       <c r="R37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13768920480646898</v>
       </c>
       <c r="S37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4385793540260186</v>
+        <v>0.11486619798132515</v>
       </c>
       <c r="T37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2547565653239303</v>
+        <v>0.52481701411183612</v>
       </c>
       <c r="U37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24571396736982151</v>
+        <v>0.14279557222642897</v>
       </c>
       <c r="V37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18841838390434315</v>
       </c>
       <c r="W37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15424767909065454</v>
       </c>
       <c r="X37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11231301427134528</v>
       </c>
       <c r="Y37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.24947727445285436</v>
       </c>
       <c r="Z37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.0978500114576119E-2</v>
       </c>
       <c r="AA37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70149337318584271</v>
+        <v>0.12616749202512098</v>
       </c>
       <c r="AB37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.2397837704256554E-2</v>
       </c>
       <c r="AC37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.3355885813529605E-2</v>
       </c>
       <c r="AD37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.3643060314815448E-2</v>
       </c>
       <c r="AE37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15389868275619742</v>
       </c>
       <c r="AF37" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E37,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F37,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E37,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.9344844839388511E-2</v>
       </c>
     </row>
     <row r="38" spans="4:32" x14ac:dyDescent="0.2">
@@ -7861,115 +7870,115 @@
         <v>59</v>
       </c>
       <c r="E38" s="3" t="str">
-        <f>DEMANDS!$F$25</f>
-        <v>TAVIINT</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F38" s="3">
         <v>2030</v>
       </c>
       <c r="G38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.2151233573399967E-2</v>
       </c>
       <c r="H38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>43.374559050865884</v>
+        <v>1.4708779581996561</v>
       </c>
       <c r="I38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.24290202478423006</v>
       </c>
       <c r="J38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10832908048119906</v>
       </c>
       <c r="K38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.2461586277774524E-2</v>
       </c>
       <c r="L38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.4620026871453208E-2</v>
       </c>
       <c r="M38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14069942366110599</v>
       </c>
       <c r="N38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.21292463291453403</v>
       </c>
       <c r="O38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.5108064368296127E-2</v>
       </c>
       <c r="P38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.6907978014310434E-2</v>
       </c>
       <c r="Q38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16344774455625344</v>
       </c>
       <c r="R38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.15548179304594056</v>
       </c>
       <c r="S38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.5682565331771237</v>
+        <v>0.12970953276699687</v>
       </c>
       <c r="T38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.3746585363551027</v>
+        <v>0.59263535213104257</v>
       </c>
       <c r="U38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25878038413987231</v>
+        <v>0.16124801969764282</v>
       </c>
       <c r="V38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.2127663400587036</v>
       </c>
       <c r="W38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17418000018156132</v>
       </c>
       <c r="X38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12682641944114589</v>
       </c>
       <c r="Y38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.28171543303387286</v>
       </c>
       <c r="Z38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.4981629463676549E-2</v>
       </c>
       <c r="AA38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73879692932304564</v>
+        <v>0.14247121197153992</v>
       </c>
       <c r="AB38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.0461062667068239E-2</v>
       </c>
       <c r="AC38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.1542912461054778E-2</v>
       </c>
       <c r="AD38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.3159424729279119E-2</v>
       </c>
       <c r="AE38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17378590555428736</v>
       </c>
       <c r="AF38" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E38,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F38,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E38,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.7013553434566345E-2</v>
       </c>
     </row>
     <row r="39" spans="4:32" x14ac:dyDescent="0.2">
@@ -7977,114 +7986,2202 @@
         <v>59</v>
       </c>
       <c r="E39" s="3" t="str">
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
+      </c>
+      <c r="F39" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.1016892709517424E-2</v>
+      </c>
+      <c r="H39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.9173547309808718</v>
+      </c>
+      <c r="I39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31663357506215251</v>
+      </c>
+      <c r="J39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14121176662247656</v>
+      </c>
+      <c r="K39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.12052778335238534</v>
+      </c>
+      <c r="L39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.8164186322562053E-2</v>
+      </c>
+      <c r="M39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1834079463214616</v>
+      </c>
+      <c r="N39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27755671365199108</v>
+      </c>
+      <c r="O39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11094214101957932</v>
+      </c>
+      <c r="P39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.12632385241733773</v>
+      </c>
+      <c r="Q39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21306139271858376</v>
+      </c>
+      <c r="R39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20267742120693139</v>
+      </c>
+      <c r="S39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16908213554884313</v>
+      </c>
+      <c r="T39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.7725264967229386</v>
+      </c>
+      <c r="U39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21019395368939628</v>
+      </c>
+      <c r="V39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27735037188562289</v>
+      </c>
+      <c r="W39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22705136447835297</v>
+      </c>
+      <c r="X39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16532386930761089</v>
+      </c>
+      <c r="Y39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36722857617565963</v>
+      </c>
+      <c r="Z39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.5600107320729701E-2</v>
+      </c>
+      <c r="AA39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18571755105812188</v>
+      </c>
+      <c r="AB39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.18491239205209E-2</v>
+      </c>
+      <c r="AC39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.3259363165148407E-2</v>
+      </c>
+      <c r="AD39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.10840200272325237</v>
+      </c>
+      <c r="AE39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22653764463242995</v>
+      </c>
+      <c r="AF39" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E39,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F39,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E39,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.7355142553685775E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E40" s="3" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1629624043332934</v>
+      </c>
+      <c r="H40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.8566862597502731</v>
+      </c>
+      <c r="I40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.63689641701986843</v>
+      </c>
+      <c r="J40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28404210824846116</v>
+      </c>
+      <c r="K40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24243706105207907</v>
+      </c>
+      <c r="L40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11699505291074819</v>
+      </c>
+      <c r="M40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36891812197168955</v>
+      </c>
+      <c r="N40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55829479362718504</v>
+      </c>
+      <c r="O40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22315590536478461</v>
+      </c>
+      <c r="P40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.25409563396097901</v>
+      </c>
+      <c r="Q40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.42856490377273548</v>
+      </c>
+      <c r="R40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4076779392462821</v>
+      </c>
+      <c r="S40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.34010229740161857</v>
+      </c>
+      <c r="T40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.5539077235229115</v>
+      </c>
+      <c r="U40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.42279715901176512</v>
+      </c>
+      <c r="V40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.5578797449967432</v>
+      </c>
+      <c r="W40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45670520091670769</v>
+      </c>
+      <c r="X40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.33254268751887739</v>
+      </c>
+      <c r="Y40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.738666341204264</v>
+      </c>
+      <c r="Z40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.1722884923348305E-2</v>
+      </c>
+      <c r="AA40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37356380422829233</v>
+      </c>
+      <c r="AB40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18475102622932804</v>
+      </c>
+      <c r="AC40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18758766893807341</v>
+      </c>
+      <c r="AD40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21804651360382518</v>
+      </c>
+      <c r="AE40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45567187294712425</v>
+      </c>
+      <c r="AF40" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E40,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F40,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E40,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17571155329873456</v>
+      </c>
+    </row>
+    <row r="41" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="3" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F41" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27200036635926317</v>
+      </c>
+      <c r="H41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.4371907120328054</v>
+      </c>
+      <c r="I41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0630430955596422</v>
+      </c>
+      <c r="J41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4740943644095138</v>
+      </c>
+      <c r="K41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40465142678160859</v>
+      </c>
+      <c r="L41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.19527631163848433</v>
+      </c>
+      <c r="M41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61576082375197327</v>
+      </c>
+      <c r="N41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.93184921408304933</v>
+      </c>
+      <c r="O41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37246927144197584</v>
+      </c>
+      <c r="P41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.42411073775226227</v>
+      </c>
+      <c r="Q41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.71531720038013136</v>
+      </c>
+      <c r="R41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6804547913074912</v>
+      </c>
+      <c r="S41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.56766436327036851</v>
+      </c>
+      <c r="T41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.5936256390908561</v>
+      </c>
+      <c r="U41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70569026406639079</v>
+      </c>
+      <c r="V41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.93115645687933135</v>
+      </c>
+      <c r="W41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.76228613879223606</v>
+      </c>
+      <c r="X41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55504662689091933</v>
+      </c>
+      <c r="Y41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2329071619113847</v>
+      </c>
+      <c r="Z41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15309456438586824</v>
+      </c>
+      <c r="AA41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.62351492679773046</v>
+      </c>
+      <c r="AB41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.30836773073653317</v>
+      </c>
+      <c r="AC41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31310236790125651</v>
+      </c>
+      <c r="AD41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36394119138240816</v>
+      </c>
+      <c r="AE41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.76056141223677165</v>
+      </c>
+      <c r="AF41" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E41,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F41,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E41,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.2932799566031361</v>
+      </c>
+    </row>
+    <row r="42" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D42" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" s="3" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F42" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18089944491364454</v>
+      </c>
+      <c r="H42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.2811862432270775</v>
+      </c>
+      <c r="I42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70699870180330227</v>
+      </c>
+      <c r="J42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31530622001107989</v>
+      </c>
+      <c r="K42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.26912176431270579</v>
+      </c>
+      <c r="L42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.12987253235360446</v>
+      </c>
+      <c r="M42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40952441611484242</v>
+      </c>
+      <c r="N42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6197455092696007</v>
+      </c>
+      <c r="O42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24771835918135102</v>
+      </c>
+      <c r="P42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28206357979667368</v>
+      </c>
+      <c r="Q42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47573643454227343</v>
+      </c>
+      <c r="R42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45255047147168276</v>
+      </c>
+      <c r="S42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37753687462770552</v>
+      </c>
+      <c r="T42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.7249441414561311</v>
+      </c>
+      <c r="U42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4693338423006348</v>
+      </c>
+      <c r="V42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6192847768254135</v>
+      </c>
+      <c r="W42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50697409425818118</v>
+      </c>
+      <c r="X42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36914518921322992</v>
+      </c>
+      <c r="Y42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.81997029711806069</v>
+      </c>
+      <c r="Z42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.10181869270028875</v>
+      </c>
+      <c r="AA42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41468144202460877</v>
+      </c>
+      <c r="AB42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20508630950091844</v>
+      </c>
+      <c r="AC42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20823517744705453</v>
+      </c>
+      <c r="AD42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24204658392014691</v>
+      </c>
+      <c r="AE42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50582702934541102</v>
+      </c>
+      <c r="AF42" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E42,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F42,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E42,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.19505187461302945</v>
+      </c>
+    </row>
+    <row r="43" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E43" s="3" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F43" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15503314158820922</v>
+      </c>
+      <c r="H43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.6690314518574558</v>
+      </c>
+      <c r="I43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.60590694400237022</v>
+      </c>
+      <c r="J43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27022146957916809</v>
+      </c>
+      <c r="K43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.23064079942908328</v>
+      </c>
+      <c r="L43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11130242387646473</v>
+      </c>
+      <c r="M43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.35096767056233397</v>
+      </c>
+      <c r="N43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.5311298402994924</v>
+      </c>
+      <c r="O43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21229780705681181</v>
+      </c>
+      <c r="P43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24173210108173493</v>
+      </c>
+      <c r="Q43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40771221852156753</v>
+      </c>
+      <c r="R43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.38784155116104679</v>
+      </c>
+      <c r="S43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32355393775181412</v>
+      </c>
+      <c r="T43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.4782992255270855</v>
+      </c>
+      <c r="U43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40222511495414986</v>
+      </c>
+      <c r="V43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.5307349866929042</v>
+      </c>
+      <c r="W43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.43448329304826078</v>
+      </c>
+      <c r="X43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31636215585526289</v>
+      </c>
+      <c r="Y43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70272504833784555</v>
+      </c>
+      <c r="Z43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.7259923927713562E-2</v>
+      </c>
+      <c r="AA43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.3553873078278022</v>
+      </c>
+      <c r="AB43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17576159436993941</v>
+      </c>
+      <c r="AC43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17846021453634692</v>
+      </c>
+      <c r="AD43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20743702300329239</v>
+      </c>
+      <c r="AE43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.43350024372427171</v>
+      </c>
+      <c r="AF43" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E43,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F43,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E43,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16716195513127624</v>
+      </c>
+    </row>
+    <row r="44" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="3" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F44" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.10823820850631675</v>
+      </c>
+      <c r="H44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.5615773971556055</v>
+      </c>
+      <c r="I44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.42302104871582824</v>
+      </c>
+      <c r="J44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18865829246291785</v>
+      </c>
+      <c r="K44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16102458276293685</v>
+      </c>
+      <c r="L44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.770709436307692E-2</v>
+      </c>
+      <c r="M44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24503220096128994</v>
+      </c>
+      <c r="N44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37081453558466354</v>
+      </c>
+      <c r="O44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14821820721845327</v>
+      </c>
+      <c r="P44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1687681052677886</v>
+      </c>
+      <c r="Q44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28464907352600949</v>
+      </c>
+      <c r="R44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27077613374749138</v>
+      </c>
+      <c r="S44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22589298145322589</v>
+      </c>
+      <c r="T44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0320919654220335</v>
+      </c>
+      <c r="U44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28081818772996836</v>
+      </c>
+      <c r="V44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37053886390207008</v>
+      </c>
+      <c r="W44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.30333961360585232</v>
+      </c>
+      <c r="X44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22087195446198762</v>
+      </c>
+      <c r="Y44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.49061574528776752</v>
+      </c>
+      <c r="Z44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.0921540669156587E-2</v>
+      </c>
+      <c r="AA44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24811782262231949</v>
+      </c>
+      <c r="AB44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.12271002125046931</v>
+      </c>
+      <c r="AC44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.12459409461219485</v>
+      </c>
+      <c r="AD44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14482459374652562</v>
+      </c>
+      <c r="AE44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.30265328617539522</v>
+      </c>
+      <c r="AF44" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E44,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F44,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E44,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11670608212198352</v>
+      </c>
+    </row>
+    <row r="45" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D45" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="3" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F45" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="V45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AB45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E45,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F45,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E45,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F46" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13395677260860595</v>
+      </c>
+      <c r="I46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6779068407982807E-2</v>
+      </c>
+      <c r="T46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6352277307537207E-4</v>
+      </c>
+      <c r="U46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6529102661710439E-2</v>
+      </c>
+      <c r="V46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.2704554615074527E-5</v>
+      </c>
+      <c r="AB46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF46" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E46,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F46,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E46,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D47" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E47" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F47" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.4093592729048743E-2</v>
+      </c>
+      <c r="I47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2382134926061514E-2</v>
+      </c>
+      <c r="T47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2177930432032186E-4</v>
+      </c>
+      <c r="U47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2262535129606249E-2</v>
+      </c>
+      <c r="V47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.4355860864064419E-5</v>
+      </c>
+      <c r="AB47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E47,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F47,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E47,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F48" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.9928010319333211E-2</v>
+      </c>
+      <c r="I48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4419572931335776E-2</v>
+      </c>
+      <c r="T48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4196779772804261E-4</v>
+      </c>
+      <c r="U48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4289086006752381E-2</v>
+      </c>
+      <c r="V48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.839355954560858E-5</v>
+      </c>
+      <c r="AB48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E48,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F48,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E48,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D49" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2022</v>
+      </c>
+      <c r="G49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13399444876291075</v>
+      </c>
+      <c r="I49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6792225304534224E-2</v>
+      </c>
+      <c r="T49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6365314166504543E-4</v>
+      </c>
+      <c r="U49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6542189253880498E-2</v>
+      </c>
+      <c r="V49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.2730628333009187E-5</v>
+      </c>
+      <c r="AB49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF49" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E49,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F49,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E49,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D50" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F50" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13429585799734914</v>
+      </c>
+      <c r="I50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6897480476945606E-2</v>
+      </c>
+      <c r="T50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6469609038243213E-4</v>
+      </c>
+      <c r="U50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6646881991240993E-2</v>
+      </c>
+      <c r="V50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.2939218076486528E-5</v>
+      </c>
+      <c r="AB50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E50,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F50,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E50,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D51" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F51" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1349740287748355</v>
+      </c>
+      <c r="I51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7134304614871211E-2</v>
+      </c>
+      <c r="T51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6704272499655208E-4</v>
+      </c>
+      <c r="U51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6882440650302074E-2</v>
+      </c>
+      <c r="V51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.340854499931053E-5</v>
+      </c>
+      <c r="AB51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E51,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F51,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E51,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="3" t="str">
         <f>DEMANDS!$F$25</f>
         <v>TAVIINT</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F52" s="3">
+        <v>2019</v>
+      </c>
+      <c r="G52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>40.559731289160872</v>
+      </c>
+      <c r="I52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.401587408534509</v>
+      </c>
+      <c r="T52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2205531132921634</v>
+      </c>
+      <c r="U52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24198661780769198</v>
+      </c>
+      <c r="V52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6908520936307182</v>
+      </c>
+      <c r="AB52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF52" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E52,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F52,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E52,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D53" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="3" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F53" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>14.586505081244807</v>
+      </c>
+      <c r="I53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.8636834077597485</v>
+      </c>
+      <c r="T53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.79857800435837711</v>
+      </c>
+      <c r="U53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.7025700566917386E-2</v>
+      </c>
+      <c r="V53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24845129032760821</v>
+      </c>
+      <c r="AB53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF53" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E53,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F53,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E53,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="3" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2021</v>
+      </c>
+      <c r="G54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>16.341785735482766</v>
+      </c>
+      <c r="I54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E54,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F54,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CX$25,MATCH($E54,DEMANDS!$F$2:$F$